--- a/Data/Dailies.xlsx
+++ b/Data/Dailies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B349BE0-78E0-48AA-932B-A39B8B54590F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98DB7336-C7EB-49DB-8F23-04B11599343F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5AECCF6F-801D-49D3-972A-947870F3C920}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="18">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -441,11 +441,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D90D68-022F-4D80-B45F-E8F95C295EA5}">
-  <dimension ref="A1:O283"/>
+  <dimension ref="A1:O290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O281" sqref="O281"/>
+      <selection pane="bottomLeft" activeCell="N284" sqref="N284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6718,6 +6718,188 @@
         <v>1</v>
       </c>
     </row>
+    <row r="284" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A284" s="1">
+        <v>45089</v>
+      </c>
+      <c r="B284" t="s">
+        <v>12</v>
+      </c>
+      <c r="C284" t="s">
+        <v>1</v>
+      </c>
+      <c r="E284" t="s">
+        <v>1</v>
+      </c>
+      <c r="F284" t="s">
+        <v>12</v>
+      </c>
+      <c r="G284" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A285" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B285" t="s">
+        <v>12</v>
+      </c>
+      <c r="D285" t="s">
+        <v>1</v>
+      </c>
+      <c r="E285" t="s">
+        <v>1</v>
+      </c>
+      <c r="F285" t="s">
+        <v>1</v>
+      </c>
+      <c r="G285" t="s">
+        <v>1</v>
+      </c>
+      <c r="H285" t="s">
+        <v>13</v>
+      </c>
+      <c r="K285" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A286" s="1">
+        <v>45091</v>
+      </c>
+      <c r="B286" t="s">
+        <v>12</v>
+      </c>
+      <c r="D286" t="s">
+        <v>1</v>
+      </c>
+      <c r="F286" t="s">
+        <v>12</v>
+      </c>
+      <c r="G286" t="s">
+        <v>1</v>
+      </c>
+      <c r="H286" t="s">
+        <v>13</v>
+      </c>
+      <c r="I286" t="s">
+        <v>1</v>
+      </c>
+      <c r="L286" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A287" s="1">
+        <v>45092</v>
+      </c>
+      <c r="B287" t="s">
+        <v>12</v>
+      </c>
+      <c r="C287" t="s">
+        <v>1</v>
+      </c>
+      <c r="G287" t="s">
+        <v>1</v>
+      </c>
+      <c r="H287" t="s">
+        <v>13</v>
+      </c>
+      <c r="M287" t="s">
+        <v>1</v>
+      </c>
+      <c r="N287" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A288" s="1">
+        <v>45093</v>
+      </c>
+      <c r="B288" t="s">
+        <v>1</v>
+      </c>
+      <c r="D288" t="s">
+        <v>1</v>
+      </c>
+      <c r="E288" t="s">
+        <v>1</v>
+      </c>
+      <c r="F288" t="s">
+        <v>12</v>
+      </c>
+      <c r="G288" t="s">
+        <v>1</v>
+      </c>
+      <c r="H288" t="s">
+        <v>12</v>
+      </c>
+      <c r="K288" t="s">
+        <v>1</v>
+      </c>
+      <c r="L288" t="s">
+        <v>1</v>
+      </c>
+      <c r="M288" t="s">
+        <v>1</v>
+      </c>
+      <c r="N288" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A289" s="1">
+        <v>45094</v>
+      </c>
+      <c r="B289" t="s">
+        <v>12</v>
+      </c>
+      <c r="C289" t="s">
+        <v>1</v>
+      </c>
+      <c r="D289" t="s">
+        <v>1</v>
+      </c>
+      <c r="F289" t="s">
+        <v>12</v>
+      </c>
+      <c r="G289" t="s">
+        <v>1</v>
+      </c>
+      <c r="I289" t="s">
+        <v>1</v>
+      </c>
+      <c r="M289" t="s">
+        <v>1</v>
+      </c>
+      <c r="N289" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A290" s="1">
+        <v>45095</v>
+      </c>
+      <c r="B290" t="s">
+        <v>12</v>
+      </c>
+      <c r="D290" t="s">
+        <v>1</v>
+      </c>
+      <c r="E290" t="s">
+        <v>1</v>
+      </c>
+      <c r="G290" t="s">
+        <v>1</v>
+      </c>
+      <c r="H290" t="s">
+        <v>13</v>
+      </c>
+      <c r="N290" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/Dailies.xlsx
+++ b/Data/Dailies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98DB7336-C7EB-49DB-8F23-04B11599343F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7238082C-F265-44C6-AA69-7BEFEB125630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5AECCF6F-801D-49D3-972A-947870F3C920}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="23">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -89,6 +89,21 @@
   </si>
   <si>
     <t>Language</t>
+  </si>
+  <si>
+    <t>Column28</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Running Total</t>
+  </si>
+  <si>
+    <t>Count</t>
   </si>
 </sst>
 </file>
@@ -445,7 +460,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N284" sqref="N284"/>
+      <selection pane="bottomLeft" activeCell="P283" sqref="P283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data/Dailies.xlsx
+++ b/Data/Dailies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7238082C-F265-44C6-AA69-7BEFEB125630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287DAA61-79A3-4439-96CC-58D94B44687B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5AECCF6F-801D-49D3-972A-947870F3C920}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="18">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -89,21 +89,6 @@
   </si>
   <si>
     <t>Language</t>
-  </si>
-  <si>
-    <t>Column28</t>
-  </si>
-  <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
   </si>
 </sst>
 </file>
@@ -456,11 +441,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D90D68-022F-4D80-B45F-E8F95C295EA5}">
-  <dimension ref="A1:O290"/>
+  <dimension ref="A1:O297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P283" sqref="P283"/>
+      <selection pane="bottomLeft" activeCell="N293" sqref="N293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6915,6 +6900,197 @@
         <v>1</v>
       </c>
     </row>
+    <row r="291" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A291" s="1">
+        <v>45096</v>
+      </c>
+      <c r="B291" t="s">
+        <v>12</v>
+      </c>
+      <c r="C291" t="s">
+        <v>1</v>
+      </c>
+      <c r="D291" t="s">
+        <v>1</v>
+      </c>
+      <c r="F291" t="s">
+        <v>1</v>
+      </c>
+      <c r="G291" t="s">
+        <v>1</v>
+      </c>
+      <c r="H291" t="s">
+        <v>13</v>
+      </c>
+      <c r="L291" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A292" s="1">
+        <v>45097</v>
+      </c>
+      <c r="B292" t="s">
+        <v>12</v>
+      </c>
+      <c r="D292" t="s">
+        <v>1</v>
+      </c>
+      <c r="E292" t="s">
+        <v>1</v>
+      </c>
+      <c r="F292" t="s">
+        <v>1</v>
+      </c>
+      <c r="G292" t="s">
+        <v>1</v>
+      </c>
+      <c r="H292" t="s">
+        <v>13</v>
+      </c>
+      <c r="K292" t="s">
+        <v>1</v>
+      </c>
+      <c r="N292" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A293" s="1">
+        <v>45098</v>
+      </c>
+      <c r="B293" t="s">
+        <v>12</v>
+      </c>
+      <c r="C293" t="s">
+        <v>1</v>
+      </c>
+      <c r="D293" t="s">
+        <v>1</v>
+      </c>
+      <c r="E293" t="s">
+        <v>1</v>
+      </c>
+      <c r="F293" t="s">
+        <v>1</v>
+      </c>
+      <c r="G293" t="s">
+        <v>1</v>
+      </c>
+      <c r="H293" t="s">
+        <v>13</v>
+      </c>
+      <c r="I293" t="s">
+        <v>1</v>
+      </c>
+      <c r="L293" t="s">
+        <v>1</v>
+      </c>
+      <c r="N293" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A294" s="1">
+        <v>45099</v>
+      </c>
+      <c r="B294" t="s">
+        <v>12</v>
+      </c>
+      <c r="D294" t="s">
+        <v>1</v>
+      </c>
+      <c r="F294" t="s">
+        <v>1</v>
+      </c>
+      <c r="G294" t="s">
+        <v>1</v>
+      </c>
+      <c r="H294" t="s">
+        <v>13</v>
+      </c>
+      <c r="N294" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A295" s="1">
+        <v>45100</v>
+      </c>
+      <c r="B295" t="s">
+        <v>12</v>
+      </c>
+      <c r="F295" t="s">
+        <v>1</v>
+      </c>
+      <c r="G295" t="s">
+        <v>1</v>
+      </c>
+      <c r="H295" t="s">
+        <v>13</v>
+      </c>
+      <c r="L295" t="s">
+        <v>1</v>
+      </c>
+      <c r="N295" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A296" s="1">
+        <v>45101</v>
+      </c>
+      <c r="B296" t="s">
+        <v>12</v>
+      </c>
+      <c r="C296" t="s">
+        <v>1</v>
+      </c>
+      <c r="F296" t="s">
+        <v>1</v>
+      </c>
+      <c r="G296" t="s">
+        <v>1</v>
+      </c>
+      <c r="I296" t="s">
+        <v>1</v>
+      </c>
+      <c r="L296" t="s">
+        <v>1</v>
+      </c>
+      <c r="N296" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A297" s="1">
+        <v>45102</v>
+      </c>
+      <c r="B297" t="s">
+        <v>12</v>
+      </c>
+      <c r="D297" t="s">
+        <v>1</v>
+      </c>
+      <c r="E297" t="s">
+        <v>1</v>
+      </c>
+      <c r="G297" t="s">
+        <v>1</v>
+      </c>
+      <c r="H297" t="s">
+        <v>13</v>
+      </c>
+      <c r="K297" t="s">
+        <v>1</v>
+      </c>
+      <c r="L297" t="s">
+        <v>1</v>
+      </c>
+      <c r="N297" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/Dailies.xlsx
+++ b/Data/Dailies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287DAA61-79A3-4439-96CC-58D94B44687B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6AFE1BD-F90E-49CD-87F7-10492A2AB045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5AECCF6F-801D-49D3-972A-947870F3C920}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1767" uniqueCount="18">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -441,11 +441,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D90D68-022F-4D80-B45F-E8F95C295EA5}">
-  <dimension ref="A1:O297"/>
+  <dimension ref="A1:O304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N293" sqref="N293"/>
+      <pane ySplit="1" topLeftCell="A272" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N300" sqref="N300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7091,6 +7091,188 @@
         <v>1</v>
       </c>
     </row>
+    <row r="298" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A298" s="1">
+        <v>45103</v>
+      </c>
+      <c r="B298" t="s">
+        <v>12</v>
+      </c>
+      <c r="C298" t="s">
+        <v>1</v>
+      </c>
+      <c r="D298" t="s">
+        <v>1</v>
+      </c>
+      <c r="E298" t="s">
+        <v>1</v>
+      </c>
+      <c r="F298" t="s">
+        <v>1</v>
+      </c>
+      <c r="G298" t="s">
+        <v>1</v>
+      </c>
+      <c r="I298" t="s">
+        <v>1</v>
+      </c>
+      <c r="K298" t="s">
+        <v>1</v>
+      </c>
+      <c r="L298" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A299" s="1">
+        <v>45104</v>
+      </c>
+      <c r="B299" t="s">
+        <v>12</v>
+      </c>
+      <c r="D299" t="s">
+        <v>1</v>
+      </c>
+      <c r="E299" t="s">
+        <v>1</v>
+      </c>
+      <c r="F299" t="s">
+        <v>12</v>
+      </c>
+      <c r="G299" t="s">
+        <v>1</v>
+      </c>
+      <c r="H299" t="s">
+        <v>1</v>
+      </c>
+      <c r="K299" t="s">
+        <v>1</v>
+      </c>
+      <c r="L299" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A300" s="1">
+        <v>45105</v>
+      </c>
+      <c r="B300" t="s">
+        <v>12</v>
+      </c>
+      <c r="C300" t="s">
+        <v>1</v>
+      </c>
+      <c r="D300" t="s">
+        <v>1</v>
+      </c>
+      <c r="G300" t="s">
+        <v>1</v>
+      </c>
+      <c r="I300" t="s">
+        <v>1</v>
+      </c>
+      <c r="L300" t="s">
+        <v>1</v>
+      </c>
+      <c r="N300" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A301" s="1">
+        <v>45106</v>
+      </c>
+      <c r="B301" t="s">
+        <v>12</v>
+      </c>
+      <c r="G301" t="s">
+        <v>1</v>
+      </c>
+      <c r="H301" t="s">
+        <v>13</v>
+      </c>
+      <c r="K301" t="s">
+        <v>1</v>
+      </c>
+      <c r="N301" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A302" s="1">
+        <v>45107</v>
+      </c>
+      <c r="B302" t="s">
+        <v>12</v>
+      </c>
+      <c r="C302" t="s">
+        <v>1</v>
+      </c>
+      <c r="D302" t="s">
+        <v>1</v>
+      </c>
+      <c r="F302" t="s">
+        <v>1</v>
+      </c>
+      <c r="G302" t="s">
+        <v>1</v>
+      </c>
+      <c r="I302" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A303" s="1">
+        <v>45108</v>
+      </c>
+      <c r="B303" t="s">
+        <v>12</v>
+      </c>
+      <c r="D303" t="s">
+        <v>1</v>
+      </c>
+      <c r="F303" t="s">
+        <v>1</v>
+      </c>
+      <c r="G303" t="s">
+        <v>1</v>
+      </c>
+      <c r="H303" t="s">
+        <v>13</v>
+      </c>
+      <c r="L303" t="s">
+        <v>1</v>
+      </c>
+      <c r="N303" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A304" s="1">
+        <v>45109</v>
+      </c>
+      <c r="B304" t="s">
+        <v>1</v>
+      </c>
+      <c r="C304" t="s">
+        <v>1</v>
+      </c>
+      <c r="D304" t="s">
+        <v>1</v>
+      </c>
+      <c r="E304" t="s">
+        <v>1</v>
+      </c>
+      <c r="F304" t="s">
+        <v>1</v>
+      </c>
+      <c r="G304" t="s">
+        <v>1</v>
+      </c>
+      <c r="N304" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/Dailies.xlsx
+++ b/Data/Dailies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6AFE1BD-F90E-49CD-87F7-10492A2AB045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D08100-4765-4628-A105-58FAFAFE2D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5AECCF6F-801D-49D3-972A-947870F3C920}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5AECCF6F-801D-49D3-972A-947870F3C920}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1767" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1821" uniqueCount="18">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -441,11 +441,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D90D68-022F-4D80-B45F-E8F95C295EA5}">
-  <dimension ref="A1:O304"/>
+  <dimension ref="A1:O311"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A272" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N300" sqref="N300"/>
+      <pane ySplit="1" topLeftCell="A281" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I316" sqref="I316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7273,6 +7273,203 @@
         <v>1</v>
       </c>
     </row>
+    <row r="305" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A305" s="1">
+        <v>45110</v>
+      </c>
+      <c r="B305" t="s">
+        <v>12</v>
+      </c>
+      <c r="G305" t="s">
+        <v>1</v>
+      </c>
+      <c r="H305" t="s">
+        <v>13</v>
+      </c>
+      <c r="N305" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A306" s="1">
+        <v>45111</v>
+      </c>
+      <c r="B306" t="s">
+        <v>12</v>
+      </c>
+      <c r="C306" t="s">
+        <v>1</v>
+      </c>
+      <c r="D306" t="s">
+        <v>1</v>
+      </c>
+      <c r="E306" t="s">
+        <v>1</v>
+      </c>
+      <c r="F306" t="s">
+        <v>12</v>
+      </c>
+      <c r="G306" t="s">
+        <v>1</v>
+      </c>
+      <c r="H306" t="s">
+        <v>12</v>
+      </c>
+      <c r="I306" t="s">
+        <v>1</v>
+      </c>
+      <c r="M306" t="s">
+        <v>1</v>
+      </c>
+      <c r="N306" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A307" s="1">
+        <v>45112</v>
+      </c>
+      <c r="B307" t="s">
+        <v>12</v>
+      </c>
+      <c r="D307" t="s">
+        <v>1</v>
+      </c>
+      <c r="E307" t="s">
+        <v>1</v>
+      </c>
+      <c r="F307" t="s">
+        <v>1</v>
+      </c>
+      <c r="G307" t="s">
+        <v>1</v>
+      </c>
+      <c r="H307" t="s">
+        <v>13</v>
+      </c>
+      <c r="J307" t="s">
+        <v>1</v>
+      </c>
+      <c r="M307" t="s">
+        <v>1</v>
+      </c>
+      <c r="N307" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A308" s="1">
+        <v>45113</v>
+      </c>
+      <c r="B308" t="s">
+        <v>12</v>
+      </c>
+      <c r="C308" t="s">
+        <v>1</v>
+      </c>
+      <c r="D308" t="s">
+        <v>1</v>
+      </c>
+      <c r="E308" t="s">
+        <v>1</v>
+      </c>
+      <c r="F308" t="s">
+        <v>1</v>
+      </c>
+      <c r="G308" t="s">
+        <v>1</v>
+      </c>
+      <c r="H308" t="s">
+        <v>13</v>
+      </c>
+      <c r="I308" t="s">
+        <v>1</v>
+      </c>
+      <c r="L308" t="s">
+        <v>1</v>
+      </c>
+      <c r="M308" t="s">
+        <v>1</v>
+      </c>
+      <c r="N308" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A309" s="1">
+        <v>45114</v>
+      </c>
+      <c r="B309" t="s">
+        <v>12</v>
+      </c>
+      <c r="D309" t="s">
+        <v>1</v>
+      </c>
+      <c r="F309" t="s">
+        <v>12</v>
+      </c>
+      <c r="G309" t="s">
+        <v>1</v>
+      </c>
+      <c r="H309" t="s">
+        <v>12</v>
+      </c>
+      <c r="J309" t="s">
+        <v>1</v>
+      </c>
+      <c r="K309" t="s">
+        <v>1</v>
+      </c>
+      <c r="M309" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A310" s="1">
+        <v>45115</v>
+      </c>
+      <c r="B310" t="s">
+        <v>12</v>
+      </c>
+      <c r="C310" t="s">
+        <v>1</v>
+      </c>
+      <c r="F310" t="s">
+        <v>1</v>
+      </c>
+      <c r="G310" t="s">
+        <v>1</v>
+      </c>
+      <c r="H310" t="s">
+        <v>12</v>
+      </c>
+      <c r="I310" t="s">
+        <v>1</v>
+      </c>
+      <c r="L310" t="s">
+        <v>1</v>
+      </c>
+      <c r="N310" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A311" s="1">
+        <v>45116</v>
+      </c>
+      <c r="B311" t="s">
+        <v>12</v>
+      </c>
+      <c r="D311" t="s">
+        <v>1</v>
+      </c>
+      <c r="G311" t="s">
+        <v>1</v>
+      </c>
+      <c r="N311" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/Dailies.xlsx
+++ b/Data/Dailies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D08100-4765-4628-A105-58FAFAFE2D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EED7C55-C5F0-4A63-87CD-7CE7B7D60093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5AECCF6F-801D-49D3-972A-947870F3C920}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5AECCF6F-801D-49D3-972A-947870F3C920}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1821" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="18">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -441,11 +441,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D90D68-022F-4D80-B45F-E8F95C295EA5}">
-  <dimension ref="A1:O311"/>
+  <dimension ref="A1:O318"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A281" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I316" sqref="I316"/>
+      <selection pane="bottomLeft" activeCell="N314" sqref="N314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7470,6 +7470,203 @@
         <v>1</v>
       </c>
     </row>
+    <row r="312" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A312" s="1">
+        <v>45117</v>
+      </c>
+      <c r="B312" t="s">
+        <v>12</v>
+      </c>
+      <c r="C312" t="s">
+        <v>1</v>
+      </c>
+      <c r="D312" t="s">
+        <v>1</v>
+      </c>
+      <c r="E312" t="s">
+        <v>1</v>
+      </c>
+      <c r="F312" t="s">
+        <v>12</v>
+      </c>
+      <c r="G312" t="s">
+        <v>1</v>
+      </c>
+      <c r="H312" t="s">
+        <v>13</v>
+      </c>
+      <c r="I312" t="s">
+        <v>1</v>
+      </c>
+      <c r="L312" t="s">
+        <v>1</v>
+      </c>
+      <c r="N312" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A313" s="1">
+        <v>45118</v>
+      </c>
+      <c r="B313" t="s">
+        <v>12</v>
+      </c>
+      <c r="D313" t="s">
+        <v>1</v>
+      </c>
+      <c r="E313" t="s">
+        <v>1</v>
+      </c>
+      <c r="F313" t="s">
+        <v>1</v>
+      </c>
+      <c r="G313" t="s">
+        <v>1</v>
+      </c>
+      <c r="H313" t="s">
+        <v>12</v>
+      </c>
+      <c r="K313" t="s">
+        <v>1</v>
+      </c>
+      <c r="L313" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A314" s="1">
+        <v>45119</v>
+      </c>
+      <c r="B314" t="s">
+        <v>12</v>
+      </c>
+      <c r="C314" t="s">
+        <v>1</v>
+      </c>
+      <c r="D314" t="s">
+        <v>1</v>
+      </c>
+      <c r="F314" t="s">
+        <v>1</v>
+      </c>
+      <c r="G314" t="s">
+        <v>1</v>
+      </c>
+      <c r="H314" t="s">
+        <v>13</v>
+      </c>
+      <c r="I314" t="s">
+        <v>1</v>
+      </c>
+      <c r="L314" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A315" s="1">
+        <v>45120</v>
+      </c>
+      <c r="B315" t="s">
+        <v>12</v>
+      </c>
+      <c r="C315" t="s">
+        <v>1</v>
+      </c>
+      <c r="D315" t="s">
+        <v>1</v>
+      </c>
+      <c r="F315" t="s">
+        <v>1</v>
+      </c>
+      <c r="G315" t="s">
+        <v>1</v>
+      </c>
+      <c r="M315" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A316" s="1">
+        <v>45121</v>
+      </c>
+      <c r="B316" t="s">
+        <v>12</v>
+      </c>
+      <c r="D316" t="s">
+        <v>1</v>
+      </c>
+      <c r="F316" t="s">
+        <v>1</v>
+      </c>
+      <c r="G316" t="s">
+        <v>1</v>
+      </c>
+      <c r="K316" t="s">
+        <v>1</v>
+      </c>
+      <c r="M316" t="s">
+        <v>1</v>
+      </c>
+      <c r="N316" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A317" s="1">
+        <v>45122</v>
+      </c>
+      <c r="B317" t="s">
+        <v>12</v>
+      </c>
+      <c r="D317" t="s">
+        <v>1</v>
+      </c>
+      <c r="F317" t="s">
+        <v>1</v>
+      </c>
+      <c r="G317" t="s">
+        <v>1</v>
+      </c>
+      <c r="I317" t="s">
+        <v>1</v>
+      </c>
+      <c r="L317" t="s">
+        <v>1</v>
+      </c>
+      <c r="N317" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A318" s="1">
+        <v>45123</v>
+      </c>
+      <c r="B318" t="s">
+        <v>12</v>
+      </c>
+      <c r="C318" t="s">
+        <v>1</v>
+      </c>
+      <c r="D318" t="s">
+        <v>1</v>
+      </c>
+      <c r="F318" t="s">
+        <v>1</v>
+      </c>
+      <c r="G318" t="s">
+        <v>1</v>
+      </c>
+      <c r="H318" t="s">
+        <v>13</v>
+      </c>
+      <c r="J318" t="s">
+        <v>1</v>
+      </c>
+      <c r="N318" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/Dailies.xlsx
+++ b/Data/Dailies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EED7C55-C5F0-4A63-87CD-7CE7B7D60093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0724514E-D0F8-4A91-A0F7-1C2B683E31FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5AECCF6F-801D-49D3-972A-947870F3C920}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1924" uniqueCount="18">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -441,11 +441,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D90D68-022F-4D80-B45F-E8F95C295EA5}">
-  <dimension ref="A1:O318"/>
+  <dimension ref="A1:O325"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A281" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N314" sqref="N314"/>
+      <pane ySplit="1" topLeftCell="A302" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O319" sqref="O319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7667,6 +7667,188 @@
         <v>1</v>
       </c>
     </row>
+    <row r="319" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A319" s="1">
+        <v>45124</v>
+      </c>
+      <c r="B319" t="s">
+        <v>12</v>
+      </c>
+      <c r="D319" t="s">
+        <v>1</v>
+      </c>
+      <c r="E319" t="s">
+        <v>1</v>
+      </c>
+      <c r="F319" t="s">
+        <v>1</v>
+      </c>
+      <c r="G319" t="s">
+        <v>1</v>
+      </c>
+      <c r="H319" t="s">
+        <v>13</v>
+      </c>
+      <c r="I319" t="s">
+        <v>1</v>
+      </c>
+      <c r="J319" t="s">
+        <v>1</v>
+      </c>
+      <c r="M319" t="s">
+        <v>1</v>
+      </c>
+      <c r="N319" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A320" s="1">
+        <v>45125</v>
+      </c>
+      <c r="B320" t="s">
+        <v>12</v>
+      </c>
+      <c r="C320" t="s">
+        <v>1</v>
+      </c>
+      <c r="D320" t="s">
+        <v>1</v>
+      </c>
+      <c r="F320" t="s">
+        <v>1</v>
+      </c>
+      <c r="G320" t="s">
+        <v>1</v>
+      </c>
+      <c r="H320" t="s">
+        <v>13</v>
+      </c>
+      <c r="K320" t="s">
+        <v>1</v>
+      </c>
+      <c r="L320" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A321" s="1">
+        <v>45126</v>
+      </c>
+      <c r="B321" t="s">
+        <v>1</v>
+      </c>
+      <c r="D321" t="s">
+        <v>1</v>
+      </c>
+      <c r="F321" t="s">
+        <v>12</v>
+      </c>
+      <c r="G321" t="s">
+        <v>1</v>
+      </c>
+      <c r="I321" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A322" s="1">
+        <v>45127</v>
+      </c>
+      <c r="B322" t="s">
+        <v>13</v>
+      </c>
+      <c r="F322" t="s">
+        <v>1</v>
+      </c>
+      <c r="G322" t="s">
+        <v>1</v>
+      </c>
+      <c r="J322" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A323" s="1">
+        <v>45128</v>
+      </c>
+      <c r="B323" t="s">
+        <v>12</v>
+      </c>
+      <c r="C323" t="s">
+        <v>1</v>
+      </c>
+      <c r="D323" t="s">
+        <v>1</v>
+      </c>
+      <c r="F323" t="s">
+        <v>12</v>
+      </c>
+      <c r="G323" t="s">
+        <v>1</v>
+      </c>
+      <c r="H323" t="s">
+        <v>13</v>
+      </c>
+      <c r="K323" t="s">
+        <v>1</v>
+      </c>
+      <c r="L323" t="s">
+        <v>1</v>
+      </c>
+      <c r="M323" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A324" s="1">
+        <v>45129</v>
+      </c>
+      <c r="B324" t="s">
+        <v>12</v>
+      </c>
+      <c r="D324" t="s">
+        <v>1</v>
+      </c>
+      <c r="E324" t="s">
+        <v>1</v>
+      </c>
+      <c r="F324" t="s">
+        <v>1</v>
+      </c>
+      <c r="G324" t="s">
+        <v>1</v>
+      </c>
+      <c r="H324" t="s">
+        <v>13</v>
+      </c>
+      <c r="I324" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A325" s="1">
+        <v>45130</v>
+      </c>
+      <c r="B325" t="s">
+        <v>13</v>
+      </c>
+      <c r="C325" t="s">
+        <v>1</v>
+      </c>
+      <c r="F325" t="s">
+        <v>1</v>
+      </c>
+      <c r="G325" t="s">
+        <v>1</v>
+      </c>
+      <c r="H325" t="s">
+        <v>13</v>
+      </c>
+      <c r="L325" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/Dailies.xlsx
+++ b/Data/Dailies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0724514E-D0F8-4A91-A0F7-1C2B683E31FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C708DD5-4142-4847-AB2B-CAA004B01107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5AECCF6F-801D-49D3-972A-947870F3C920}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1924" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1975" uniqueCount="18">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -441,11 +441,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D90D68-022F-4D80-B45F-E8F95C295EA5}">
-  <dimension ref="A1:O325"/>
+  <dimension ref="A1:O332"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A302" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O319" sqref="O319"/>
+      <selection pane="bottomLeft" activeCell="O326" sqref="O326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7731,7 +7731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>45126</v>
       </c>
@@ -7751,7 +7751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>45127</v>
       </c>
@@ -7768,7 +7768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>45128</v>
       </c>
@@ -7800,7 +7800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>45129</v>
       </c>
@@ -7826,7 +7826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>45130</v>
       </c>
@@ -7846,6 +7846,194 @@
         <v>13</v>
       </c>
       <c r="L325" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A326" s="1">
+        <v>45131</v>
+      </c>
+      <c r="B326" t="s">
+        <v>12</v>
+      </c>
+      <c r="D326" t="s">
+        <v>1</v>
+      </c>
+      <c r="F326" t="s">
+        <v>1</v>
+      </c>
+      <c r="G326" t="s">
+        <v>1</v>
+      </c>
+      <c r="H326" t="s">
+        <v>13</v>
+      </c>
+      <c r="J326" t="s">
+        <v>1</v>
+      </c>
+      <c r="L326" t="s">
+        <v>1</v>
+      </c>
+      <c r="N326" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A327" s="1">
+        <v>45132</v>
+      </c>
+      <c r="B327" t="s">
+        <v>12</v>
+      </c>
+      <c r="C327" t="s">
+        <v>1</v>
+      </c>
+      <c r="D327" t="s">
+        <v>1</v>
+      </c>
+      <c r="F327" t="s">
+        <v>1</v>
+      </c>
+      <c r="G327" t="s">
+        <v>1</v>
+      </c>
+      <c r="K327" t="s">
+        <v>1</v>
+      </c>
+      <c r="L327" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A328" s="1">
+        <v>45133</v>
+      </c>
+      <c r="B328" t="s">
+        <v>12</v>
+      </c>
+      <c r="D328" t="s">
+        <v>1</v>
+      </c>
+      <c r="F328" t="s">
+        <v>1</v>
+      </c>
+      <c r="G328" t="s">
+        <v>1</v>
+      </c>
+      <c r="I328" t="s">
+        <v>1</v>
+      </c>
+      <c r="L328" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A329" s="1">
+        <v>45134</v>
+      </c>
+      <c r="B329" t="s">
+        <v>12</v>
+      </c>
+      <c r="C329" t="s">
+        <v>1</v>
+      </c>
+      <c r="E329" t="s">
+        <v>1</v>
+      </c>
+      <c r="G329" t="s">
+        <v>1</v>
+      </c>
+      <c r="H329" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="330" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A330" s="1">
+        <v>45135</v>
+      </c>
+      <c r="B330" t="s">
+        <v>12</v>
+      </c>
+      <c r="D330" t="s">
+        <v>1</v>
+      </c>
+      <c r="E330" t="s">
+        <v>1</v>
+      </c>
+      <c r="F330" t="s">
+        <v>1</v>
+      </c>
+      <c r="G330" t="s">
+        <v>1</v>
+      </c>
+      <c r="H330" t="s">
+        <v>13</v>
+      </c>
+      <c r="I330" t="s">
+        <v>1</v>
+      </c>
+      <c r="N330" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A331" s="1">
+        <v>45136</v>
+      </c>
+      <c r="B331" t="s">
+        <v>12</v>
+      </c>
+      <c r="C331" t="s">
+        <v>1</v>
+      </c>
+      <c r="D331" t="s">
+        <v>1</v>
+      </c>
+      <c r="E331" t="s">
+        <v>1</v>
+      </c>
+      <c r="F331" t="s">
+        <v>1</v>
+      </c>
+      <c r="G331" t="s">
+        <v>1</v>
+      </c>
+      <c r="H331" t="s">
+        <v>13</v>
+      </c>
+      <c r="K331" t="s">
+        <v>1</v>
+      </c>
+      <c r="L331" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A332" s="1">
+        <v>45137</v>
+      </c>
+      <c r="B332" t="s">
+        <v>13</v>
+      </c>
+      <c r="E332" t="s">
+        <v>1</v>
+      </c>
+      <c r="F332" t="s">
+        <v>1</v>
+      </c>
+      <c r="G332" t="s">
+        <v>1</v>
+      </c>
+      <c r="H332" t="s">
+        <v>12</v>
+      </c>
+      <c r="J332" t="s">
+        <v>1</v>
+      </c>
+      <c r="M332" t="s">
+        <v>1</v>
+      </c>
+      <c r="N332" t="s">
         <v>1</v>
       </c>
     </row>

--- a/Data/Dailies.xlsx
+++ b/Data/Dailies.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C708DD5-4142-4847-AB2B-CAA004B01107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D88FBF-CF31-481F-9A99-73F8F6B9470E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5AECCF6F-801D-49D3-972A-947870F3C920}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1975" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="18">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -441,11 +441,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D90D68-022F-4D80-B45F-E8F95C295EA5}">
-  <dimension ref="A1:O332"/>
+  <dimension ref="A1:O339"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A302" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O326" sqref="O326"/>
+      <selection pane="bottomLeft" activeCell="N339" sqref="N339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8037,6 +8037,173 @@
         <v>1</v>
       </c>
     </row>
+    <row r="333" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A333" s="1">
+        <v>45138</v>
+      </c>
+      <c r="B333" t="s">
+        <v>12</v>
+      </c>
+      <c r="D333" t="s">
+        <v>1</v>
+      </c>
+      <c r="F333" t="s">
+        <v>1</v>
+      </c>
+      <c r="G333" t="s">
+        <v>1</v>
+      </c>
+      <c r="H333" t="s">
+        <v>13</v>
+      </c>
+      <c r="I333" t="s">
+        <v>1</v>
+      </c>
+      <c r="M333" t="s">
+        <v>1</v>
+      </c>
+      <c r="N333" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A334" s="1">
+        <v>45139</v>
+      </c>
+      <c r="B334" t="s">
+        <v>12</v>
+      </c>
+      <c r="C334" t="s">
+        <v>1</v>
+      </c>
+      <c r="D334" t="s">
+        <v>1</v>
+      </c>
+      <c r="F334" t="s">
+        <v>1</v>
+      </c>
+      <c r="G334" t="s">
+        <v>1</v>
+      </c>
+      <c r="H334" t="s">
+        <v>12</v>
+      </c>
+      <c r="K334" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A335" s="1">
+        <v>45140</v>
+      </c>
+      <c r="B335" t="s">
+        <v>12</v>
+      </c>
+      <c r="D335" t="s">
+        <v>1</v>
+      </c>
+      <c r="E335" t="s">
+        <v>1</v>
+      </c>
+      <c r="F335" t="s">
+        <v>1</v>
+      </c>
+      <c r="G335" t="s">
+        <v>1</v>
+      </c>
+      <c r="H335" t="s">
+        <v>13</v>
+      </c>
+      <c r="I335" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A336" s="1">
+        <v>45141</v>
+      </c>
+      <c r="B336" t="s">
+        <v>12</v>
+      </c>
+      <c r="E336" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A337" s="1">
+        <v>45142</v>
+      </c>
+      <c r="B337" t="s">
+        <v>12</v>
+      </c>
+      <c r="C337" t="s">
+        <v>1</v>
+      </c>
+      <c r="D337" t="s">
+        <v>1</v>
+      </c>
+      <c r="E337" t="s">
+        <v>1</v>
+      </c>
+      <c r="F337" t="s">
+        <v>1</v>
+      </c>
+      <c r="G337" t="s">
+        <v>1</v>
+      </c>
+      <c r="H337" t="s">
+        <v>13</v>
+      </c>
+      <c r="K337" t="s">
+        <v>1</v>
+      </c>
+      <c r="M337" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A338" s="1">
+        <v>45143</v>
+      </c>
+      <c r="B338" t="s">
+        <v>12</v>
+      </c>
+      <c r="F338" t="s">
+        <v>1</v>
+      </c>
+      <c r="G338" t="s">
+        <v>1</v>
+      </c>
+      <c r="H338" t="s">
+        <v>13</v>
+      </c>
+      <c r="I338" t="s">
+        <v>1</v>
+      </c>
+      <c r="M338" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A339" s="1">
+        <v>45144</v>
+      </c>
+      <c r="B339" t="s">
+        <v>12</v>
+      </c>
+      <c r="C339" t="s">
+        <v>1</v>
+      </c>
+      <c r="F339" t="s">
+        <v>1</v>
+      </c>
+      <c r="G339" t="s">
+        <v>1</v>
+      </c>
+      <c r="H339" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/Dailies.xlsx
+++ b/Data/Dailies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D88FBF-CF31-481F-9A99-73F8F6B9470E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917594D5-C62F-4E5A-A929-73992DA24A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5AECCF6F-801D-49D3-972A-947870F3C920}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2067" uniqueCount="18">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -441,11 +441,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D90D68-022F-4D80-B45F-E8F95C295EA5}">
-  <dimension ref="A1:O339"/>
+  <dimension ref="A1:O346"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A302" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N339" sqref="N339"/>
+      <pane ySplit="1" topLeftCell="A320" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N343" sqref="N343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8129,7 +8129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>45142</v>
       </c>
@@ -8161,7 +8161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>45143</v>
       </c>
@@ -8184,7 +8184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>45144</v>
       </c>
@@ -8201,6 +8201,185 @@
         <v>1</v>
       </c>
       <c r="H339" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="340" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A340" s="1">
+        <v>45145</v>
+      </c>
+      <c r="B340" t="s">
+        <v>13</v>
+      </c>
+      <c r="E340" t="s">
+        <v>1</v>
+      </c>
+      <c r="F340" t="s">
+        <v>1</v>
+      </c>
+      <c r="G340" t="s">
+        <v>1</v>
+      </c>
+      <c r="H340" t="s">
+        <v>13</v>
+      </c>
+      <c r="I340" t="s">
+        <v>1</v>
+      </c>
+      <c r="M340" t="s">
+        <v>1</v>
+      </c>
+      <c r="N340" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A341" s="1">
+        <v>45146</v>
+      </c>
+      <c r="B341" t="s">
+        <v>12</v>
+      </c>
+      <c r="C341" t="s">
+        <v>1</v>
+      </c>
+      <c r="E341" t="s">
+        <v>1</v>
+      </c>
+      <c r="F341" t="s">
+        <v>1</v>
+      </c>
+      <c r="G341" t="s">
+        <v>1</v>
+      </c>
+      <c r="H341" t="s">
+        <v>13</v>
+      </c>
+      <c r="K341" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A342" s="1">
+        <v>45147</v>
+      </c>
+      <c r="B342" t="s">
+        <v>12</v>
+      </c>
+      <c r="D342" t="s">
+        <v>1</v>
+      </c>
+      <c r="E342" t="s">
+        <v>1</v>
+      </c>
+      <c r="F342" t="s">
+        <v>1</v>
+      </c>
+      <c r="G342" t="s">
+        <v>1</v>
+      </c>
+      <c r="H342" t="s">
+        <v>13</v>
+      </c>
+      <c r="I342" t="s">
+        <v>1</v>
+      </c>
+      <c r="N342" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A343" s="1">
+        <v>45148</v>
+      </c>
+      <c r="B343" t="s">
+        <v>13</v>
+      </c>
+      <c r="C343" t="s">
+        <v>1</v>
+      </c>
+      <c r="F343" t="s">
+        <v>12</v>
+      </c>
+      <c r="G343" t="s">
+        <v>1</v>
+      </c>
+      <c r="H343" t="s">
+        <v>13</v>
+      </c>
+      <c r="J343" t="s">
+        <v>1</v>
+      </c>
+      <c r="K343" t="s">
+        <v>1</v>
+      </c>
+      <c r="M343" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A344" s="1">
+        <v>45149</v>
+      </c>
+      <c r="B344" t="s">
+        <v>12</v>
+      </c>
+      <c r="D344" t="s">
+        <v>1</v>
+      </c>
+      <c r="E344" t="s">
+        <v>1</v>
+      </c>
+      <c r="F344" t="s">
+        <v>1</v>
+      </c>
+      <c r="G344" t="s">
+        <v>1</v>
+      </c>
+      <c r="J344" t="s">
+        <v>1</v>
+      </c>
+      <c r="M344" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A345" s="1">
+        <v>45150</v>
+      </c>
+      <c r="B345" t="s">
+        <v>13</v>
+      </c>
+      <c r="C345" t="s">
+        <v>1</v>
+      </c>
+      <c r="F345" t="s">
+        <v>1</v>
+      </c>
+      <c r="G345" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A346" s="1">
+        <v>45151</v>
+      </c>
+      <c r="B346" t="s">
+        <v>12</v>
+      </c>
+      <c r="D346" t="s">
+        <v>1</v>
+      </c>
+      <c r="E346" t="s">
+        <v>1</v>
+      </c>
+      <c r="F346" t="s">
+        <v>1</v>
+      </c>
+      <c r="G346" t="s">
+        <v>1</v>
+      </c>
+      <c r="H346" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Data/Dailies.xlsx
+++ b/Data/Dailies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917594D5-C62F-4E5A-A929-73992DA24A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A624657E-78D7-4AC8-AF3A-AA731C77F697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5AECCF6F-801D-49D3-972A-947870F3C920}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2067" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2113" uniqueCount="18">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -441,11 +441,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D90D68-022F-4D80-B45F-E8F95C295EA5}">
-  <dimension ref="A1:O346"/>
+  <dimension ref="A1:O353"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A320" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N343" sqref="N343"/>
+      <selection pane="bottomLeft" activeCell="N348" sqref="N348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8383,6 +8383,179 @@
         <v>13</v>
       </c>
     </row>
+    <row r="347" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A347" s="1">
+        <v>45152</v>
+      </c>
+      <c r="B347" t="s">
+        <v>12</v>
+      </c>
+      <c r="D347" t="s">
+        <v>1</v>
+      </c>
+      <c r="E347" t="s">
+        <v>1</v>
+      </c>
+      <c r="F347" t="s">
+        <v>1</v>
+      </c>
+      <c r="G347" t="s">
+        <v>1</v>
+      </c>
+      <c r="H347" t="s">
+        <v>13</v>
+      </c>
+      <c r="J347" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A348" s="1">
+        <v>45153</v>
+      </c>
+      <c r="B348" t="s">
+        <v>12</v>
+      </c>
+      <c r="C348" t="s">
+        <v>1</v>
+      </c>
+      <c r="D348" t="s">
+        <v>1</v>
+      </c>
+      <c r="E348" t="s">
+        <v>1</v>
+      </c>
+      <c r="F348" t="s">
+        <v>1</v>
+      </c>
+      <c r="G348" t="s">
+        <v>1</v>
+      </c>
+      <c r="H348" t="s">
+        <v>13</v>
+      </c>
+      <c r="K348" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A349" s="1">
+        <v>45154</v>
+      </c>
+      <c r="B349" t="s">
+        <v>12</v>
+      </c>
+      <c r="D349" t="s">
+        <v>1</v>
+      </c>
+      <c r="F349" t="s">
+        <v>1</v>
+      </c>
+      <c r="G349" t="s">
+        <v>1</v>
+      </c>
+      <c r="H349" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="350" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A350" s="1">
+        <v>45155</v>
+      </c>
+      <c r="B350" t="s">
+        <v>12</v>
+      </c>
+      <c r="C350" t="s">
+        <v>1</v>
+      </c>
+      <c r="D350" t="s">
+        <v>1</v>
+      </c>
+      <c r="E350" t="s">
+        <v>1</v>
+      </c>
+      <c r="G350" t="s">
+        <v>1</v>
+      </c>
+      <c r="H350" t="s">
+        <v>13</v>
+      </c>
+      <c r="M350" t="s">
+        <v>1</v>
+      </c>
+      <c r="N350" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A351" s="1">
+        <v>45156</v>
+      </c>
+      <c r="B351" t="s">
+        <v>12</v>
+      </c>
+      <c r="D351" t="s">
+        <v>1</v>
+      </c>
+      <c r="F351" t="s">
+        <v>1</v>
+      </c>
+      <c r="G351" t="s">
+        <v>1</v>
+      </c>
+      <c r="H351" t="s">
+        <v>12</v>
+      </c>
+      <c r="K351" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A352" s="1">
+        <v>45157</v>
+      </c>
+      <c r="B352" t="s">
+        <v>13</v>
+      </c>
+      <c r="E352" t="s">
+        <v>1</v>
+      </c>
+      <c r="F352" t="s">
+        <v>12</v>
+      </c>
+      <c r="G352" t="s">
+        <v>1</v>
+      </c>
+      <c r="I352" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A353" s="1">
+        <v>45158</v>
+      </c>
+      <c r="B353" t="s">
+        <v>12</v>
+      </c>
+      <c r="C353" t="s">
+        <v>1</v>
+      </c>
+      <c r="D353" t="s">
+        <v>1</v>
+      </c>
+      <c r="F353" t="s">
+        <v>1</v>
+      </c>
+      <c r="G353" t="s">
+        <v>1</v>
+      </c>
+      <c r="H353" t="s">
+        <v>13</v>
+      </c>
+      <c r="J353" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/Dailies.xlsx
+++ b/Data/Dailies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A624657E-78D7-4AC8-AF3A-AA731C77F697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB52F75-C0FB-49BB-9C89-0AF22161F62B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5AECCF6F-801D-49D3-972A-947870F3C920}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2113" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2160" uniqueCount="19">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Language</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -441,11 +444,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D90D68-022F-4D80-B45F-E8F95C295EA5}">
-  <dimension ref="A1:O353"/>
+  <dimension ref="A1:O360"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A320" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N348" sqref="N348"/>
+      <pane ySplit="1" topLeftCell="A329" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N360" sqref="N360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8437,6 +8440,9 @@
       <c r="K348" t="s">
         <v>1</v>
       </c>
+      <c r="N348" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="349" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
@@ -8530,7 +8536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>45158</v>
       </c>
@@ -8553,6 +8559,179 @@
         <v>13</v>
       </c>
       <c r="J353" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A354" s="1">
+        <v>45159</v>
+      </c>
+      <c r="B354" t="s">
+        <v>12</v>
+      </c>
+      <c r="D354" t="s">
+        <v>1</v>
+      </c>
+      <c r="E354" t="s">
+        <v>1</v>
+      </c>
+      <c r="G354" t="s">
+        <v>1</v>
+      </c>
+      <c r="H354" t="s">
+        <v>13</v>
+      </c>
+      <c r="K354" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A355" s="1">
+        <v>45160</v>
+      </c>
+      <c r="B355" t="s">
+        <v>12</v>
+      </c>
+      <c r="C355" t="s">
+        <v>1</v>
+      </c>
+      <c r="D355" t="s">
+        <v>1</v>
+      </c>
+      <c r="F355" t="s">
+        <v>1</v>
+      </c>
+      <c r="G355" t="s">
+        <v>1</v>
+      </c>
+      <c r="H355" t="s">
+        <v>12</v>
+      </c>
+      <c r="K355" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A356" s="1">
+        <v>45161</v>
+      </c>
+      <c r="B356" t="s">
+        <v>12</v>
+      </c>
+      <c r="D356" t="s">
+        <v>1</v>
+      </c>
+      <c r="E356" t="s">
+        <v>1</v>
+      </c>
+      <c r="F356" t="s">
+        <v>1</v>
+      </c>
+      <c r="G356" t="s">
+        <v>1</v>
+      </c>
+      <c r="H356" t="s">
+        <v>13</v>
+      </c>
+      <c r="I356" t="s">
+        <v>1</v>
+      </c>
+      <c r="N356" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A357" s="1">
+        <v>45162</v>
+      </c>
+      <c r="B357" t="s">
+        <v>12</v>
+      </c>
+      <c r="C357" t="s">
+        <v>1</v>
+      </c>
+      <c r="D357" t="s">
+        <v>1</v>
+      </c>
+      <c r="E357" t="s">
+        <v>1</v>
+      </c>
+      <c r="F357" t="s">
+        <v>1</v>
+      </c>
+      <c r="G357" t="s">
+        <v>1</v>
+      </c>
+      <c r="M357" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A358" s="1">
+        <v>45163</v>
+      </c>
+      <c r="B358" t="s">
+        <v>12</v>
+      </c>
+      <c r="F358" t="s">
+        <v>1</v>
+      </c>
+      <c r="G358" t="s">
+        <v>1</v>
+      </c>
+      <c r="I358" t="s">
+        <v>1</v>
+      </c>
+      <c r="J358" t="s">
+        <v>1</v>
+      </c>
+      <c r="M358" t="s">
+        <v>1</v>
+      </c>
+      <c r="N358" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A359" s="1">
+        <v>45164</v>
+      </c>
+      <c r="B359" t="s">
+        <v>12</v>
+      </c>
+      <c r="C359" t="s">
+        <v>1</v>
+      </c>
+      <c r="D359" t="s">
+        <v>1</v>
+      </c>
+      <c r="F359" t="s">
+        <v>1</v>
+      </c>
+      <c r="G359" t="s">
+        <v>1</v>
+      </c>
+      <c r="H359" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="360" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A360" s="1">
+        <v>45165</v>
+      </c>
+      <c r="B360" t="s">
+        <v>12</v>
+      </c>
+      <c r="D360" t="s">
+        <v>1</v>
+      </c>
+      <c r="G360" t="s">
+        <v>1</v>
+      </c>
+      <c r="H360" t="s">
+        <v>13</v>
+      </c>
+      <c r="M360" t="s">
         <v>1</v>
       </c>
     </row>

--- a/Data/Dailies.xlsx
+++ b/Data/Dailies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB52F75-C0FB-49BB-9C89-0AF22161F62B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615D5DDE-BF4C-4849-9847-FE9A0561C776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5AECCF6F-801D-49D3-972A-947870F3C920}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2160" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2213" uniqueCount="19">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -444,11 +444,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D90D68-022F-4D80-B45F-E8F95C295EA5}">
-  <dimension ref="A1:O360"/>
+  <dimension ref="A1:O367"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A329" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N360" sqref="N360"/>
+      <pane ySplit="1" topLeftCell="A353" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N366" sqref="N366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8735,6 +8735,200 @@
         <v>1</v>
       </c>
     </row>
+    <row r="361" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A361" s="1">
+        <v>45166</v>
+      </c>
+      <c r="B361" t="s">
+        <v>12</v>
+      </c>
+      <c r="C361" t="s">
+        <v>1</v>
+      </c>
+      <c r="D361" t="s">
+        <v>1</v>
+      </c>
+      <c r="E361" t="s">
+        <v>1</v>
+      </c>
+      <c r="F361" t="s">
+        <v>1</v>
+      </c>
+      <c r="G361" t="s">
+        <v>1</v>
+      </c>
+      <c r="H361" t="s">
+        <v>13</v>
+      </c>
+      <c r="I361" t="s">
+        <v>1</v>
+      </c>
+      <c r="J361" t="s">
+        <v>1</v>
+      </c>
+      <c r="M361" t="s">
+        <v>1</v>
+      </c>
+      <c r="N361" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A362" s="1">
+        <v>45167</v>
+      </c>
+      <c r="B362" t="s">
+        <v>12</v>
+      </c>
+      <c r="D362" t="s">
+        <v>1</v>
+      </c>
+      <c r="E362" t="s">
+        <v>1</v>
+      </c>
+      <c r="F362" t="s">
+        <v>1</v>
+      </c>
+      <c r="G362" t="s">
+        <v>1</v>
+      </c>
+      <c r="H362" t="s">
+        <v>1</v>
+      </c>
+      <c r="K362" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A363" s="1">
+        <v>45168</v>
+      </c>
+      <c r="B363" t="s">
+        <v>12</v>
+      </c>
+      <c r="C363" t="s">
+        <v>1</v>
+      </c>
+      <c r="D363" t="s">
+        <v>1</v>
+      </c>
+      <c r="F363" t="s">
+        <v>1</v>
+      </c>
+      <c r="G363" t="s">
+        <v>1</v>
+      </c>
+      <c r="I363" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A364" s="1">
+        <v>45169</v>
+      </c>
+      <c r="B364" t="s">
+        <v>12</v>
+      </c>
+      <c r="D364" t="s">
+        <v>1</v>
+      </c>
+      <c r="E364" t="s">
+        <v>1</v>
+      </c>
+      <c r="G364" t="s">
+        <v>1</v>
+      </c>
+      <c r="H364" t="s">
+        <v>13</v>
+      </c>
+      <c r="K364" t="s">
+        <v>1</v>
+      </c>
+      <c r="L364" t="s">
+        <v>1</v>
+      </c>
+      <c r="M364" t="s">
+        <v>1</v>
+      </c>
+      <c r="N364" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A365" s="1">
+        <v>45170</v>
+      </c>
+      <c r="B365" t="s">
+        <v>12</v>
+      </c>
+      <c r="C365" t="s">
+        <v>1</v>
+      </c>
+      <c r="D365" t="s">
+        <v>1</v>
+      </c>
+      <c r="E365" t="s">
+        <v>1</v>
+      </c>
+      <c r="F365" t="s">
+        <v>1</v>
+      </c>
+      <c r="G365" t="s">
+        <v>1</v>
+      </c>
+      <c r="H365" t="s">
+        <v>13</v>
+      </c>
+      <c r="K365" t="s">
+        <v>1</v>
+      </c>
+      <c r="M365" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A366" s="1">
+        <v>45171</v>
+      </c>
+      <c r="B366" t="s">
+        <v>12</v>
+      </c>
+      <c r="F366" t="s">
+        <v>1</v>
+      </c>
+      <c r="G366" t="s">
+        <v>1</v>
+      </c>
+      <c r="H366" t="s">
+        <v>13</v>
+      </c>
+      <c r="I366" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A367" s="1">
+        <v>45172</v>
+      </c>
+      <c r="B367" t="s">
+        <v>12</v>
+      </c>
+      <c r="F367" t="s">
+        <v>1</v>
+      </c>
+      <c r="G367" t="s">
+        <v>1</v>
+      </c>
+      <c r="H367" t="s">
+        <v>13</v>
+      </c>
+      <c r="J367" t="s">
+        <v>1</v>
+      </c>
+      <c r="L367" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/Dailies.xlsx
+++ b/Data/Dailies.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615D5DDE-BF4C-4849-9847-FE9A0561C776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599321EA-D81C-4580-85FD-F1FE84C5DA16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5AECCF6F-801D-49D3-972A-947870F3C920}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2213" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2256" uniqueCount="19">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -444,11 +444,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D90D68-022F-4D80-B45F-E8F95C295EA5}">
-  <dimension ref="A1:O367"/>
+  <dimension ref="A1:O374"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A353" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N366" sqref="N366"/>
+      <selection pane="bottomLeft" activeCell="O368" sqref="O368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8929,6 +8929,170 @@
         <v>1</v>
       </c>
     </row>
+    <row r="368" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A368" s="1">
+        <v>45173</v>
+      </c>
+      <c r="B368" t="s">
+        <v>12</v>
+      </c>
+      <c r="C368" t="s">
+        <v>1</v>
+      </c>
+      <c r="D368" t="s">
+        <v>1</v>
+      </c>
+      <c r="E368" t="s">
+        <v>1</v>
+      </c>
+      <c r="F368" t="s">
+        <v>1</v>
+      </c>
+      <c r="G368" t="s">
+        <v>1</v>
+      </c>
+      <c r="H368" t="s">
+        <v>13</v>
+      </c>
+      <c r="M368" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A369" s="1">
+        <v>45174</v>
+      </c>
+      <c r="B369" t="s">
+        <v>1</v>
+      </c>
+      <c r="D369" t="s">
+        <v>1</v>
+      </c>
+      <c r="E369" t="s">
+        <v>1</v>
+      </c>
+      <c r="F369" t="s">
+        <v>1</v>
+      </c>
+      <c r="G369" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A370" s="1">
+        <v>45175</v>
+      </c>
+      <c r="B370" t="s">
+        <v>12</v>
+      </c>
+      <c r="C370" t="s">
+        <v>1</v>
+      </c>
+      <c r="D370" t="s">
+        <v>1</v>
+      </c>
+      <c r="E370" t="s">
+        <v>1</v>
+      </c>
+      <c r="F370" t="s">
+        <v>1</v>
+      </c>
+      <c r="G370" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A371" s="1">
+        <v>45176</v>
+      </c>
+      <c r="B371" t="s">
+        <v>12</v>
+      </c>
+      <c r="C371" t="s">
+        <v>1</v>
+      </c>
+      <c r="D371" t="s">
+        <v>1</v>
+      </c>
+      <c r="G371" t="s">
+        <v>1</v>
+      </c>
+      <c r="H371" t="s">
+        <v>13</v>
+      </c>
+      <c r="M371" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A372" s="1">
+        <v>45177</v>
+      </c>
+      <c r="B372" t="s">
+        <v>12</v>
+      </c>
+      <c r="D372" t="s">
+        <v>1</v>
+      </c>
+      <c r="F372" t="s">
+        <v>1</v>
+      </c>
+      <c r="G372" t="s">
+        <v>1</v>
+      </c>
+      <c r="H372" t="s">
+        <v>13</v>
+      </c>
+      <c r="M372" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A373" s="1">
+        <v>45178</v>
+      </c>
+      <c r="B373" t="s">
+        <v>12</v>
+      </c>
+      <c r="E373" t="s">
+        <v>1</v>
+      </c>
+      <c r="G373" t="s">
+        <v>1</v>
+      </c>
+      <c r="H373" t="s">
+        <v>13</v>
+      </c>
+      <c r="M373" t="s">
+        <v>1</v>
+      </c>
+      <c r="N373" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A374" s="1">
+        <v>45179</v>
+      </c>
+      <c r="B374" t="s">
+        <v>12</v>
+      </c>
+      <c r="C374" t="s">
+        <v>1</v>
+      </c>
+      <c r="E374" t="s">
+        <v>1</v>
+      </c>
+      <c r="G374" t="s">
+        <v>1</v>
+      </c>
+      <c r="H374" t="s">
+        <v>13</v>
+      </c>
+      <c r="M374" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/Dailies.xlsx
+++ b/Data/Dailies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599321EA-D81C-4580-85FD-F1FE84C5DA16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01F6632-0989-4271-BBE2-A10DD5599085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5AECCF6F-801D-49D3-972A-947870F3C920}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2256" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2292" uniqueCount="19">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -444,11 +444,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D90D68-022F-4D80-B45F-E8F95C295EA5}">
-  <dimension ref="A1:O374"/>
+  <dimension ref="A1:O381"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A353" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O368" sqref="O368"/>
+      <selection pane="bottomLeft" activeCell="N378" sqref="N378"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9093,6 +9093,149 @@
         <v>1</v>
       </c>
     </row>
+    <row r="375" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A375" s="1">
+        <v>45180</v>
+      </c>
+      <c r="B375" t="s">
+        <v>13</v>
+      </c>
+      <c r="F375" t="s">
+        <v>12</v>
+      </c>
+      <c r="G375" t="s">
+        <v>1</v>
+      </c>
+      <c r="H375" t="s">
+        <v>13</v>
+      </c>
+      <c r="M375" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A376" s="1">
+        <v>45181</v>
+      </c>
+      <c r="B376" t="s">
+        <v>12</v>
+      </c>
+      <c r="C376" t="s">
+        <v>1</v>
+      </c>
+      <c r="E376" t="s">
+        <v>1</v>
+      </c>
+      <c r="F376" t="s">
+        <v>12</v>
+      </c>
+      <c r="G376" t="s">
+        <v>1</v>
+      </c>
+      <c r="H376" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="377" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A377" s="1">
+        <v>45182</v>
+      </c>
+      <c r="B377" t="s">
+        <v>12</v>
+      </c>
+      <c r="E377" t="s">
+        <v>1</v>
+      </c>
+      <c r="F377" t="s">
+        <v>1</v>
+      </c>
+      <c r="G377" t="s">
+        <v>1</v>
+      </c>
+      <c r="H377" t="s">
+        <v>13</v>
+      </c>
+      <c r="N377" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A378" s="1">
+        <v>45183</v>
+      </c>
+      <c r="B378" t="s">
+        <v>13</v>
+      </c>
+      <c r="C378" t="s">
+        <v>1</v>
+      </c>
+      <c r="G378" t="s">
+        <v>1</v>
+      </c>
+      <c r="H378" t="s">
+        <v>13</v>
+      </c>
+      <c r="M378" t="s">
+        <v>1</v>
+      </c>
+      <c r="N378" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A379" s="1">
+        <v>45184</v>
+      </c>
+      <c r="B379" t="s">
+        <v>12</v>
+      </c>
+      <c r="F379" t="s">
+        <v>1</v>
+      </c>
+      <c r="G379" t="s">
+        <v>1</v>
+      </c>
+      <c r="H379" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="380" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A380" s="1">
+        <v>45185</v>
+      </c>
+      <c r="B380" t="s">
+        <v>1</v>
+      </c>
+      <c r="G380" t="s">
+        <v>1</v>
+      </c>
+      <c r="L380" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A381" s="1">
+        <v>45186</v>
+      </c>
+      <c r="B381" t="s">
+        <v>12</v>
+      </c>
+      <c r="C381" t="s">
+        <v>1</v>
+      </c>
+      <c r="E381" t="s">
+        <v>1</v>
+      </c>
+      <c r="F381" t="s">
+        <v>1</v>
+      </c>
+      <c r="G381" t="s">
+        <v>1</v>
+      </c>
+      <c r="H381" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/Dailies.xlsx
+++ b/Data/Dailies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01F6632-0989-4271-BBE2-A10DD5599085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7121E974-D91A-47BB-B815-B342B0CD733E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5AECCF6F-801D-49D3-972A-947870F3C920}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2292" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2339" uniqueCount="19">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -444,11 +444,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D90D68-022F-4D80-B45F-E8F95C295EA5}">
-  <dimension ref="A1:O381"/>
+  <dimension ref="A1:O388"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A353" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N378" sqref="N378"/>
+      <pane ySplit="1" topLeftCell="A362" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O382" sqref="O382"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9236,6 +9236,182 @@
         <v>13</v>
       </c>
     </row>
+    <row r="382" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A382" s="1">
+        <v>45187</v>
+      </c>
+      <c r="B382" t="s">
+        <v>12</v>
+      </c>
+      <c r="C382" t="s">
+        <v>1</v>
+      </c>
+      <c r="F382" t="s">
+        <v>12</v>
+      </c>
+      <c r="G382" t="s">
+        <v>1</v>
+      </c>
+      <c r="H382" t="s">
+        <v>13</v>
+      </c>
+      <c r="N382" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A383" s="1">
+        <v>45188</v>
+      </c>
+      <c r="B383" t="s">
+        <v>12</v>
+      </c>
+      <c r="E383" t="s">
+        <v>1</v>
+      </c>
+      <c r="F383" t="s">
+        <v>12</v>
+      </c>
+      <c r="G383" t="s">
+        <v>1</v>
+      </c>
+      <c r="H383" t="s">
+        <v>13</v>
+      </c>
+      <c r="L383" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A384" s="1">
+        <v>45189</v>
+      </c>
+      <c r="B384" t="s">
+        <v>12</v>
+      </c>
+      <c r="C384" t="s">
+        <v>1</v>
+      </c>
+      <c r="D384" t="s">
+        <v>1</v>
+      </c>
+      <c r="E384" t="s">
+        <v>1</v>
+      </c>
+      <c r="F384" t="s">
+        <v>12</v>
+      </c>
+      <c r="G384" t="s">
+        <v>1</v>
+      </c>
+      <c r="H384" t="s">
+        <v>13</v>
+      </c>
+      <c r="L384" t="s">
+        <v>1</v>
+      </c>
+      <c r="N384" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A385" s="1">
+        <v>45190</v>
+      </c>
+      <c r="B385" t="s">
+        <v>12</v>
+      </c>
+      <c r="D385" t="s">
+        <v>1</v>
+      </c>
+      <c r="E385" t="s">
+        <v>1</v>
+      </c>
+      <c r="F385" t="s">
+        <v>1</v>
+      </c>
+      <c r="G385" t="s">
+        <v>1</v>
+      </c>
+      <c r="H385" t="s">
+        <v>13</v>
+      </c>
+      <c r="L385" t="s">
+        <v>1</v>
+      </c>
+      <c r="M385" t="s">
+        <v>1</v>
+      </c>
+      <c r="N385" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A386" s="1">
+        <v>45191</v>
+      </c>
+      <c r="B386" t="s">
+        <v>12</v>
+      </c>
+      <c r="D386" t="s">
+        <v>1</v>
+      </c>
+      <c r="F386" t="s">
+        <v>1</v>
+      </c>
+      <c r="G386" t="s">
+        <v>1</v>
+      </c>
+      <c r="H386" t="s">
+        <v>13</v>
+      </c>
+      <c r="M386" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A387" s="1">
+        <v>45192</v>
+      </c>
+      <c r="B387" t="s">
+        <v>12</v>
+      </c>
+      <c r="C387" t="s">
+        <v>1</v>
+      </c>
+      <c r="D387" t="s">
+        <v>1</v>
+      </c>
+      <c r="F387" t="s">
+        <v>1</v>
+      </c>
+      <c r="G387" t="s">
+        <v>1</v>
+      </c>
+      <c r="H387" t="s">
+        <v>13</v>
+      </c>
+      <c r="L387" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A388" s="1">
+        <v>45193</v>
+      </c>
+      <c r="B388" t="s">
+        <v>12</v>
+      </c>
+      <c r="D388" t="s">
+        <v>1</v>
+      </c>
+      <c r="F388" t="s">
+        <v>1</v>
+      </c>
+      <c r="G388" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/Dailies.xlsx
+++ b/Data/Dailies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7121E974-D91A-47BB-B815-B342B0CD733E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48EFC1DE-0CAB-4F59-B280-E5DECF4DB7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5AECCF6F-801D-49D3-972A-947870F3C920}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2339" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2393" uniqueCount="19">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -444,11 +444,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D90D68-022F-4D80-B45F-E8F95C295EA5}">
-  <dimension ref="A1:O388"/>
+  <dimension ref="A1:O395"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A362" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O382" sqref="O382"/>
+      <selection pane="bottomLeft" activeCell="N390" sqref="N390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9412,6 +9412,203 @@
         <v>1</v>
       </c>
     </row>
+    <row r="389" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A389" s="1">
+        <v>45194</v>
+      </c>
+      <c r="B389" t="s">
+        <v>12</v>
+      </c>
+      <c r="C389" t="s">
+        <v>1</v>
+      </c>
+      <c r="D389" t="s">
+        <v>1</v>
+      </c>
+      <c r="E389" t="s">
+        <v>1</v>
+      </c>
+      <c r="G389" t="s">
+        <v>1</v>
+      </c>
+      <c r="H389" t="s">
+        <v>13</v>
+      </c>
+      <c r="I389" t="s">
+        <v>1</v>
+      </c>
+      <c r="L389" t="s">
+        <v>1</v>
+      </c>
+      <c r="M389" t="s">
+        <v>1</v>
+      </c>
+      <c r="N389" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A390" s="1">
+        <v>45195</v>
+      </c>
+      <c r="B390" t="s">
+        <v>12</v>
+      </c>
+      <c r="D390" t="s">
+        <v>1</v>
+      </c>
+      <c r="F390" t="s">
+        <v>1</v>
+      </c>
+      <c r="G390" t="s">
+        <v>1</v>
+      </c>
+      <c r="H390" t="s">
+        <v>13</v>
+      </c>
+      <c r="L390" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A391" s="1">
+        <v>45196</v>
+      </c>
+      <c r="B391" t="s">
+        <v>12</v>
+      </c>
+      <c r="C391" t="s">
+        <v>1</v>
+      </c>
+      <c r="D391" t="s">
+        <v>1</v>
+      </c>
+      <c r="E391" t="s">
+        <v>1</v>
+      </c>
+      <c r="F391" t="s">
+        <v>1</v>
+      </c>
+      <c r="G391" t="s">
+        <v>1</v>
+      </c>
+      <c r="H391" t="s">
+        <v>13</v>
+      </c>
+      <c r="L391" t="s">
+        <v>1</v>
+      </c>
+      <c r="N391" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A392" s="1">
+        <v>45197</v>
+      </c>
+      <c r="B392" t="s">
+        <v>12</v>
+      </c>
+      <c r="D392" t="s">
+        <v>1</v>
+      </c>
+      <c r="E392" t="s">
+        <v>1</v>
+      </c>
+      <c r="G392" t="s">
+        <v>1</v>
+      </c>
+      <c r="H392" t="s">
+        <v>13</v>
+      </c>
+      <c r="M392" t="s">
+        <v>1</v>
+      </c>
+      <c r="N392" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A393" s="1">
+        <v>45198</v>
+      </c>
+      <c r="B393" t="s">
+        <v>12</v>
+      </c>
+      <c r="C393" t="s">
+        <v>1</v>
+      </c>
+      <c r="D393" t="s">
+        <v>1</v>
+      </c>
+      <c r="F393" t="s">
+        <v>1</v>
+      </c>
+      <c r="G393" t="s">
+        <v>1</v>
+      </c>
+      <c r="H393" t="s">
+        <v>13</v>
+      </c>
+      <c r="L393" t="s">
+        <v>1</v>
+      </c>
+      <c r="M393" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A394" s="1">
+        <v>45199</v>
+      </c>
+      <c r="B394" t="s">
+        <v>12</v>
+      </c>
+      <c r="D394" t="s">
+        <v>1</v>
+      </c>
+      <c r="E394" t="s">
+        <v>1</v>
+      </c>
+      <c r="F394" t="s">
+        <v>1</v>
+      </c>
+      <c r="G394" t="s">
+        <v>1</v>
+      </c>
+      <c r="H394" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="395" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A395" s="1">
+        <v>45200</v>
+      </c>
+      <c r="B395" t="s">
+        <v>12</v>
+      </c>
+      <c r="C395" t="s">
+        <v>1</v>
+      </c>
+      <c r="D395" t="s">
+        <v>1</v>
+      </c>
+      <c r="F395" t="s">
+        <v>1</v>
+      </c>
+      <c r="G395" t="s">
+        <v>1</v>
+      </c>
+      <c r="H395" t="s">
+        <v>12</v>
+      </c>
+      <c r="M395" t="s">
+        <v>1</v>
+      </c>
+      <c r="N395" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/Dailies.xlsx
+++ b/Data/Dailies.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48EFC1DE-0CAB-4F59-B280-E5DECF4DB7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46051B5-C8C1-45B0-A3AA-6278BD20A5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5AECCF6F-801D-49D3-972A-947870F3C920}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2393" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2446" uniqueCount="19">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -444,11 +444,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D90D68-022F-4D80-B45F-E8F95C295EA5}">
-  <dimension ref="A1:O395"/>
+  <dimension ref="A1:O402"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A362" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N390" sqref="N390"/>
+      <pane ySplit="1" topLeftCell="A374" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O396" sqref="O396"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9609,6 +9609,200 @@
         <v>1</v>
       </c>
     </row>
+    <row r="396" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A396" s="1">
+        <v>45201</v>
+      </c>
+      <c r="B396" t="s">
+        <v>12</v>
+      </c>
+      <c r="D396" t="s">
+        <v>1</v>
+      </c>
+      <c r="E396" t="s">
+        <v>1</v>
+      </c>
+      <c r="F396" t="s">
+        <v>12</v>
+      </c>
+      <c r="G396" t="s">
+        <v>1</v>
+      </c>
+      <c r="H396" t="s">
+        <v>12</v>
+      </c>
+      <c r="M396" t="s">
+        <v>1</v>
+      </c>
+      <c r="N396" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A397" s="1">
+        <v>45202</v>
+      </c>
+      <c r="B397" t="s">
+        <v>12</v>
+      </c>
+      <c r="C397" t="s">
+        <v>1</v>
+      </c>
+      <c r="D397" t="s">
+        <v>1</v>
+      </c>
+      <c r="F397" t="s">
+        <v>1</v>
+      </c>
+      <c r="G397" t="s">
+        <v>1</v>
+      </c>
+      <c r="H397" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="398" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A398" s="1">
+        <v>45203</v>
+      </c>
+      <c r="B398" t="s">
+        <v>12</v>
+      </c>
+      <c r="D398" t="s">
+        <v>1</v>
+      </c>
+      <c r="F398" t="s">
+        <v>1</v>
+      </c>
+      <c r="G398" t="s">
+        <v>1</v>
+      </c>
+      <c r="H398" t="s">
+        <v>12</v>
+      </c>
+      <c r="I398" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A399" s="1">
+        <v>45204</v>
+      </c>
+      <c r="B399" t="s">
+        <v>12</v>
+      </c>
+      <c r="C399" t="s">
+        <v>1</v>
+      </c>
+      <c r="D399" t="s">
+        <v>1</v>
+      </c>
+      <c r="E399" t="s">
+        <v>1</v>
+      </c>
+      <c r="F399" t="s">
+        <v>1</v>
+      </c>
+      <c r="G399" t="s">
+        <v>1</v>
+      </c>
+      <c r="H399" t="s">
+        <v>12</v>
+      </c>
+      <c r="I399" t="s">
+        <v>1</v>
+      </c>
+      <c r="M399" t="s">
+        <v>1</v>
+      </c>
+      <c r="N399" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A400" s="1">
+        <v>45205</v>
+      </c>
+      <c r="B400" t="s">
+        <v>12</v>
+      </c>
+      <c r="D400" t="s">
+        <v>1</v>
+      </c>
+      <c r="E400" t="s">
+        <v>1</v>
+      </c>
+      <c r="F400" t="s">
+        <v>1</v>
+      </c>
+      <c r="G400" t="s">
+        <v>1</v>
+      </c>
+      <c r="H400" t="s">
+        <v>12</v>
+      </c>
+      <c r="M400" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A401" s="1">
+        <v>45206</v>
+      </c>
+      <c r="B401" t="s">
+        <v>12</v>
+      </c>
+      <c r="C401" t="s">
+        <v>1</v>
+      </c>
+      <c r="D401" t="s">
+        <v>1</v>
+      </c>
+      <c r="E401" t="s">
+        <v>1</v>
+      </c>
+      <c r="F401" t="s">
+        <v>1</v>
+      </c>
+      <c r="G401" t="s">
+        <v>1</v>
+      </c>
+      <c r="H401" t="s">
+        <v>12</v>
+      </c>
+      <c r="K401" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A402" s="1">
+        <v>45207</v>
+      </c>
+      <c r="B402" t="s">
+        <v>12</v>
+      </c>
+      <c r="D402" t="s">
+        <v>1</v>
+      </c>
+      <c r="F402" t="s">
+        <v>1</v>
+      </c>
+      <c r="G402" t="s">
+        <v>1</v>
+      </c>
+      <c r="H402" t="s">
+        <v>13</v>
+      </c>
+      <c r="I402" t="s">
+        <v>1</v>
+      </c>
+      <c r="K402" t="s">
+        <v>1</v>
+      </c>
+      <c r="M402" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/Dailies.xlsx
+++ b/Data/Dailies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46051B5-C8C1-45B0-A3AA-6278BD20A5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1AA54A6-3BFD-4DF3-9C65-FF9A91F597EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5AECCF6F-801D-49D3-972A-947870F3C920}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2446" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2538" uniqueCount="19">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -444,11 +444,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D90D68-022F-4D80-B45F-E8F95C295EA5}">
-  <dimension ref="A1:O402"/>
+  <dimension ref="A1:O416"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A374" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O396" sqref="O396"/>
+      <pane ySplit="1" topLeftCell="A386" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N415" sqref="N415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9745,7 +9745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>45206</v>
       </c>
@@ -9774,7 +9774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>45207</v>
       </c>
@@ -9800,6 +9800,352 @@
         <v>1</v>
       </c>
       <c r="M402" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A403" s="1">
+        <v>45208</v>
+      </c>
+      <c r="B403" t="s">
+        <v>12</v>
+      </c>
+      <c r="C403" t="s">
+        <v>1</v>
+      </c>
+      <c r="D403" t="s">
+        <v>1</v>
+      </c>
+      <c r="E403" t="s">
+        <v>1</v>
+      </c>
+      <c r="F403" t="s">
+        <v>1</v>
+      </c>
+      <c r="G403" t="s">
+        <v>1</v>
+      </c>
+      <c r="H403" t="s">
+        <v>13</v>
+      </c>
+      <c r="I403" t="s">
+        <v>1</v>
+      </c>
+      <c r="M403" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A404" s="1">
+        <v>45209</v>
+      </c>
+      <c r="B404" t="s">
+        <v>12</v>
+      </c>
+      <c r="D404" t="s">
+        <v>1</v>
+      </c>
+      <c r="F404" t="s">
+        <v>1</v>
+      </c>
+      <c r="G404" t="s">
+        <v>1</v>
+      </c>
+      <c r="H404" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="405" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A405" s="1">
+        <v>45210</v>
+      </c>
+      <c r="B405" t="s">
+        <v>12</v>
+      </c>
+      <c r="C405" t="s">
+        <v>1</v>
+      </c>
+      <c r="D405" t="s">
+        <v>1</v>
+      </c>
+      <c r="F405" t="s">
+        <v>1</v>
+      </c>
+      <c r="G405" t="s">
+        <v>1</v>
+      </c>
+      <c r="H405" t="s">
+        <v>12</v>
+      </c>
+      <c r="I405" t="s">
+        <v>1</v>
+      </c>
+      <c r="L405" t="s">
+        <v>1</v>
+      </c>
+      <c r="N405" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A406" s="1">
+        <v>45211</v>
+      </c>
+      <c r="B406" t="s">
+        <v>13</v>
+      </c>
+      <c r="G406" t="s">
+        <v>1</v>
+      </c>
+      <c r="H406" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="407" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A407" s="1">
+        <v>45212</v>
+      </c>
+      <c r="B407" t="s">
+        <v>12</v>
+      </c>
+      <c r="C407" t="s">
+        <v>1</v>
+      </c>
+      <c r="D407" t="s">
+        <v>1</v>
+      </c>
+      <c r="F407" t="s">
+        <v>1</v>
+      </c>
+      <c r="G407" t="s">
+        <v>1</v>
+      </c>
+      <c r="H407" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="408" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A408" s="1">
+        <v>45213</v>
+      </c>
+      <c r="B408" t="s">
+        <v>12</v>
+      </c>
+      <c r="D408" t="s">
+        <v>1</v>
+      </c>
+      <c r="E408" t="s">
+        <v>1</v>
+      </c>
+      <c r="F408" t="s">
+        <v>12</v>
+      </c>
+      <c r="G408" t="s">
+        <v>1</v>
+      </c>
+      <c r="H408" t="s">
+        <v>13</v>
+      </c>
+      <c r="I408" t="s">
+        <v>1</v>
+      </c>
+      <c r="M408" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A409" s="1">
+        <v>45214</v>
+      </c>
+      <c r="B409" t="s">
+        <v>12</v>
+      </c>
+      <c r="C409" t="s">
+        <v>1</v>
+      </c>
+      <c r="D409" t="s">
+        <v>1</v>
+      </c>
+      <c r="E409" t="s">
+        <v>1</v>
+      </c>
+      <c r="G409" t="s">
+        <v>1</v>
+      </c>
+      <c r="N409" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A410" s="1">
+        <v>45215</v>
+      </c>
+      <c r="B410" t="s">
+        <v>12</v>
+      </c>
+      <c r="D410" t="s">
+        <v>1</v>
+      </c>
+      <c r="E410" t="s">
+        <v>1</v>
+      </c>
+      <c r="F410" t="s">
+        <v>1</v>
+      </c>
+      <c r="G410" t="s">
+        <v>1</v>
+      </c>
+      <c r="H410" t="s">
+        <v>12</v>
+      </c>
+      <c r="I410" t="s">
+        <v>1</v>
+      </c>
+      <c r="N410" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A411" s="1">
+        <v>45216</v>
+      </c>
+      <c r="B411" t="s">
+        <v>12</v>
+      </c>
+      <c r="C411" t="s">
+        <v>1</v>
+      </c>
+      <c r="D411" t="s">
+        <v>1</v>
+      </c>
+      <c r="E411" t="s">
+        <v>1</v>
+      </c>
+      <c r="F411" t="s">
+        <v>12</v>
+      </c>
+      <c r="G411" t="s">
+        <v>1</v>
+      </c>
+      <c r="H411" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="412" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A412" s="1">
+        <v>45217</v>
+      </c>
+      <c r="B412" t="s">
+        <v>12</v>
+      </c>
+      <c r="D412" t="s">
+        <v>1</v>
+      </c>
+      <c r="F412" t="s">
+        <v>1</v>
+      </c>
+      <c r="G412" t="s">
+        <v>1</v>
+      </c>
+      <c r="I412" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A413" s="1">
+        <v>45218</v>
+      </c>
+      <c r="B413" t="s">
+        <v>12</v>
+      </c>
+      <c r="C413" t="s">
+        <v>1</v>
+      </c>
+      <c r="D413" t="s">
+        <v>1</v>
+      </c>
+      <c r="E413" t="s">
+        <v>1</v>
+      </c>
+      <c r="G413" t="s">
+        <v>1</v>
+      </c>
+      <c r="N413" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A414" s="1">
+        <v>45219</v>
+      </c>
+      <c r="B414" t="s">
+        <v>12</v>
+      </c>
+      <c r="D414" t="s">
+        <v>1</v>
+      </c>
+      <c r="E414" t="s">
+        <v>1</v>
+      </c>
+      <c r="F414" t="s">
+        <v>1</v>
+      </c>
+      <c r="G414" t="s">
+        <v>1</v>
+      </c>
+      <c r="H414" t="s">
+        <v>12</v>
+      </c>
+      <c r="I414" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A415" s="1">
+        <v>45220</v>
+      </c>
+      <c r="B415" t="s">
+        <v>12</v>
+      </c>
+      <c r="C415" t="s">
+        <v>1</v>
+      </c>
+      <c r="D415" t="s">
+        <v>1</v>
+      </c>
+      <c r="F415" t="s">
+        <v>1</v>
+      </c>
+      <c r="G415" t="s">
+        <v>1</v>
+      </c>
+      <c r="H415" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="416" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A416" s="1">
+        <v>45221</v>
+      </c>
+      <c r="B416" t="s">
+        <v>12</v>
+      </c>
+      <c r="D416" t="s">
+        <v>1</v>
+      </c>
+      <c r="F416" t="s">
+        <v>12</v>
+      </c>
+      <c r="G416" t="s">
+        <v>1</v>
+      </c>
+      <c r="H416" t="s">
+        <v>13</v>
+      </c>
+      <c r="I416" t="s">
+        <v>1</v>
+      </c>
+      <c r="M416" t="s">
         <v>1</v>
       </c>
     </row>

--- a/Data/Dailies.xlsx
+++ b/Data/Dailies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1AA54A6-3BFD-4DF3-9C65-FF9A91F597EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D531338F-CE42-40A9-B161-E9465964DC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5AECCF6F-801D-49D3-972A-947870F3C920}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2538" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2577" uniqueCount="19">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -444,11 +444,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D90D68-022F-4D80-B45F-E8F95C295EA5}">
-  <dimension ref="A1:O416"/>
+  <dimension ref="A1:O423"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A386" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N415" sqref="N415"/>
+      <pane ySplit="1" topLeftCell="A395" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O417" sqref="O417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10149,6 +10149,158 @@
         <v>1</v>
       </c>
     </row>
+    <row r="417" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A417" s="1">
+        <v>45222</v>
+      </c>
+      <c r="B417" t="s">
+        <v>12</v>
+      </c>
+      <c r="C417" t="s">
+        <v>1</v>
+      </c>
+      <c r="D417" t="s">
+        <v>1</v>
+      </c>
+      <c r="E417" t="s">
+        <v>1</v>
+      </c>
+      <c r="G417" t="s">
+        <v>1</v>
+      </c>
+      <c r="H417" t="s">
+        <v>12</v>
+      </c>
+      <c r="N417" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A418" s="1">
+        <v>45223</v>
+      </c>
+      <c r="B418" t="s">
+        <v>12</v>
+      </c>
+      <c r="D418" t="s">
+        <v>1</v>
+      </c>
+      <c r="E418" t="s">
+        <v>1</v>
+      </c>
+      <c r="F418" t="s">
+        <v>1</v>
+      </c>
+      <c r="G418" t="s">
+        <v>1</v>
+      </c>
+      <c r="H418" t="s">
+        <v>13</v>
+      </c>
+      <c r="J418" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A419" s="1">
+        <v>45224</v>
+      </c>
+      <c r="B419" t="s">
+        <v>12</v>
+      </c>
+      <c r="C419" t="s">
+        <v>1</v>
+      </c>
+      <c r="D419" t="s">
+        <v>1</v>
+      </c>
+      <c r="F419" t="s">
+        <v>1</v>
+      </c>
+      <c r="G419" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A420" s="1">
+        <v>45225</v>
+      </c>
+      <c r="B420" t="s">
+        <v>1</v>
+      </c>
+      <c r="F420" t="s">
+        <v>1</v>
+      </c>
+      <c r="G420" t="s">
+        <v>1</v>
+      </c>
+      <c r="J420" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A421" s="1">
+        <v>45226</v>
+      </c>
+      <c r="B421" t="s">
+        <v>12</v>
+      </c>
+      <c r="C421" t="s">
+        <v>1</v>
+      </c>
+      <c r="D421" t="s">
+        <v>1</v>
+      </c>
+      <c r="E421" t="s">
+        <v>1</v>
+      </c>
+      <c r="F421" t="s">
+        <v>1</v>
+      </c>
+      <c r="G421" t="s">
+        <v>1</v>
+      </c>
+      <c r="H421" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A422" s="1">
+        <v>45227</v>
+      </c>
+      <c r="B422" t="s">
+        <v>13</v>
+      </c>
+      <c r="G422" t="s">
+        <v>1</v>
+      </c>
+      <c r="H422" t="s">
+        <v>13</v>
+      </c>
+      <c r="I422" t="s">
+        <v>1</v>
+      </c>
+      <c r="M422" t="s">
+        <v>1</v>
+      </c>
+      <c r="N422" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A423" s="1">
+        <v>45228</v>
+      </c>
+      <c r="B423" t="s">
+        <v>12</v>
+      </c>
+      <c r="G423" t="s">
+        <v>1</v>
+      </c>
+      <c r="N423" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/Dailies.xlsx
+++ b/Data/Dailies.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D531338F-CE42-40A9-B161-E9465964DC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5971908-4818-4679-B373-B671B878FC63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5AECCF6F-801D-49D3-972A-947870F3C920}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2577" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2628" uniqueCount="19">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -444,11 +444,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D90D68-022F-4D80-B45F-E8F95C295EA5}">
-  <dimension ref="A1:O423"/>
+  <dimension ref="A1:O430"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A395" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O417" sqref="O417"/>
+      <pane ySplit="1" topLeftCell="A407" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O424" sqref="O424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10301,6 +10301,194 @@
         <v>1</v>
       </c>
     </row>
+    <row r="424" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A424" s="1">
+        <v>45229</v>
+      </c>
+      <c r="B424" t="s">
+        <v>13</v>
+      </c>
+      <c r="C424" t="s">
+        <v>1</v>
+      </c>
+      <c r="D424" t="s">
+        <v>1</v>
+      </c>
+      <c r="E424" t="s">
+        <v>1</v>
+      </c>
+      <c r="F424" t="s">
+        <v>1</v>
+      </c>
+      <c r="G424" t="s">
+        <v>1</v>
+      </c>
+      <c r="H424" t="s">
+        <v>1</v>
+      </c>
+      <c r="M424" t="s">
+        <v>1</v>
+      </c>
+      <c r="N424" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A425" s="1">
+        <v>45230</v>
+      </c>
+      <c r="B425" t="s">
+        <v>12</v>
+      </c>
+      <c r="D425" t="s">
+        <v>1</v>
+      </c>
+      <c r="E425" t="s">
+        <v>1</v>
+      </c>
+      <c r="F425" t="s">
+        <v>1</v>
+      </c>
+      <c r="G425" t="s">
+        <v>1</v>
+      </c>
+      <c r="H425" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="426" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A426" s="1">
+        <v>45231</v>
+      </c>
+      <c r="B426" t="s">
+        <v>12</v>
+      </c>
+      <c r="C426" t="s">
+        <v>1</v>
+      </c>
+      <c r="D426" t="s">
+        <v>1</v>
+      </c>
+      <c r="E426" t="s">
+        <v>1</v>
+      </c>
+      <c r="F426" t="s">
+        <v>1</v>
+      </c>
+      <c r="G426" t="s">
+        <v>1</v>
+      </c>
+      <c r="I426" t="s">
+        <v>1</v>
+      </c>
+      <c r="L426" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A427" s="1">
+        <v>45232</v>
+      </c>
+      <c r="B427" t="s">
+        <v>12</v>
+      </c>
+      <c r="D427" t="s">
+        <v>1</v>
+      </c>
+      <c r="E427" t="s">
+        <v>1</v>
+      </c>
+      <c r="F427" t="s">
+        <v>12</v>
+      </c>
+      <c r="G427" t="s">
+        <v>1</v>
+      </c>
+      <c r="I427" t="s">
+        <v>1</v>
+      </c>
+      <c r="L427" t="s">
+        <v>1</v>
+      </c>
+      <c r="M427" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A428" s="1">
+        <v>45233</v>
+      </c>
+      <c r="B428" t="s">
+        <v>12</v>
+      </c>
+      <c r="C428" t="s">
+        <v>1</v>
+      </c>
+      <c r="D428" t="s">
+        <v>1</v>
+      </c>
+      <c r="F428" t="s">
+        <v>1</v>
+      </c>
+      <c r="G428" t="s">
+        <v>1</v>
+      </c>
+      <c r="H428" t="s">
+        <v>13</v>
+      </c>
+      <c r="L428" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A429" s="1">
+        <v>45234</v>
+      </c>
+      <c r="B429" t="s">
+        <v>12</v>
+      </c>
+      <c r="D429" t="s">
+        <v>1</v>
+      </c>
+      <c r="E429" t="s">
+        <v>1</v>
+      </c>
+      <c r="F429" t="s">
+        <v>1</v>
+      </c>
+      <c r="G429" t="s">
+        <v>1</v>
+      </c>
+      <c r="I429" t="s">
+        <v>1</v>
+      </c>
+      <c r="L429" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A430" s="1">
+        <v>45235</v>
+      </c>
+      <c r="B430" t="s">
+        <v>12</v>
+      </c>
+      <c r="C430" t="s">
+        <v>1</v>
+      </c>
+      <c r="D430" t="s">
+        <v>1</v>
+      </c>
+      <c r="E430" t="s">
+        <v>1</v>
+      </c>
+      <c r="G430" t="s">
+        <v>1</v>
+      </c>
+      <c r="N430" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/Dailies.xlsx
+++ b/Data/Dailies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5971908-4818-4679-B373-B671B878FC63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3EA289E-9F01-47E4-908E-0B39AB2C017D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5AECCF6F-801D-49D3-972A-947870F3C920}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2628" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2716" uniqueCount="19">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -444,11 +444,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D90D68-022F-4D80-B45F-E8F95C295EA5}">
-  <dimension ref="A1:O430"/>
+  <dimension ref="A1:O444"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A407" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O424" sqref="O424"/>
+      <selection pane="bottomLeft" activeCell="O438" sqref="O438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10489,6 +10489,340 @@
         <v>1</v>
       </c>
     </row>
+    <row r="431" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A431" s="1">
+        <v>45236</v>
+      </c>
+      <c r="B431" t="s">
+        <v>12</v>
+      </c>
+      <c r="D431" t="s">
+        <v>1</v>
+      </c>
+      <c r="E431" t="s">
+        <v>1</v>
+      </c>
+      <c r="F431" t="s">
+        <v>1</v>
+      </c>
+      <c r="G431" t="s">
+        <v>1</v>
+      </c>
+      <c r="L431" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A432" s="1">
+        <v>45237</v>
+      </c>
+      <c r="B432" t="s">
+        <v>12</v>
+      </c>
+      <c r="C432" t="s">
+        <v>1</v>
+      </c>
+      <c r="D432" t="s">
+        <v>1</v>
+      </c>
+      <c r="E432" t="s">
+        <v>1</v>
+      </c>
+      <c r="F432" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A433" s="1">
+        <v>45238</v>
+      </c>
+      <c r="B433" t="s">
+        <v>12</v>
+      </c>
+      <c r="D433" t="s">
+        <v>1</v>
+      </c>
+      <c r="F433" t="s">
+        <v>1</v>
+      </c>
+      <c r="G433" t="s">
+        <v>1</v>
+      </c>
+      <c r="I433" t="s">
+        <v>1</v>
+      </c>
+      <c r="L433" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A434" s="1">
+        <v>45239</v>
+      </c>
+      <c r="B434" t="s">
+        <v>13</v>
+      </c>
+      <c r="D434" t="s">
+        <v>1</v>
+      </c>
+      <c r="F434" t="s">
+        <v>1</v>
+      </c>
+      <c r="G434" t="s">
+        <v>1</v>
+      </c>
+      <c r="H434" t="s">
+        <v>13</v>
+      </c>
+      <c r="I434" t="s">
+        <v>1</v>
+      </c>
+      <c r="N434" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A435" s="1">
+        <v>45240</v>
+      </c>
+      <c r="B435" t="s">
+        <v>1</v>
+      </c>
+      <c r="C435" t="s">
+        <v>1</v>
+      </c>
+      <c r="D435" t="s">
+        <v>1</v>
+      </c>
+      <c r="E435" t="s">
+        <v>1</v>
+      </c>
+      <c r="F435" t="s">
+        <v>1</v>
+      </c>
+      <c r="G435" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A436" s="1">
+        <v>45241</v>
+      </c>
+      <c r="B436" t="s">
+        <v>12</v>
+      </c>
+      <c r="D436" t="s">
+        <v>1</v>
+      </c>
+      <c r="E436" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A437" s="1">
+        <v>45242</v>
+      </c>
+      <c r="B437" t="s">
+        <v>13</v>
+      </c>
+      <c r="C437" t="s">
+        <v>1</v>
+      </c>
+      <c r="F437" t="s">
+        <v>12</v>
+      </c>
+      <c r="G437" t="s">
+        <v>1</v>
+      </c>
+      <c r="N437" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A438" s="1">
+        <v>45243</v>
+      </c>
+      <c r="B438" t="s">
+        <v>12</v>
+      </c>
+      <c r="D438" t="s">
+        <v>1</v>
+      </c>
+      <c r="E438" t="s">
+        <v>1</v>
+      </c>
+      <c r="F438" t="s">
+        <v>12</v>
+      </c>
+      <c r="G438" t="s">
+        <v>1</v>
+      </c>
+      <c r="H438" t="s">
+        <v>13</v>
+      </c>
+      <c r="I438" t="s">
+        <v>1</v>
+      </c>
+      <c r="N438" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A439" s="1">
+        <v>45244</v>
+      </c>
+      <c r="B439" t="s">
+        <v>12</v>
+      </c>
+      <c r="C439" t="s">
+        <v>1</v>
+      </c>
+      <c r="D439" t="s">
+        <v>1</v>
+      </c>
+      <c r="E439" t="s">
+        <v>1</v>
+      </c>
+      <c r="F439" t="s">
+        <v>1</v>
+      </c>
+      <c r="G439" t="s">
+        <v>1</v>
+      </c>
+      <c r="H439" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="440" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A440" s="1">
+        <v>45245</v>
+      </c>
+      <c r="B440" t="s">
+        <v>12</v>
+      </c>
+      <c r="D440" t="s">
+        <v>1</v>
+      </c>
+      <c r="F440" t="s">
+        <v>12</v>
+      </c>
+      <c r="G440" t="s">
+        <v>1</v>
+      </c>
+      <c r="I440" t="s">
+        <v>1</v>
+      </c>
+      <c r="N440" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A441" s="1">
+        <v>45246</v>
+      </c>
+      <c r="B441" t="s">
+        <v>12</v>
+      </c>
+      <c r="C441" t="s">
+        <v>1</v>
+      </c>
+      <c r="F441" t="s">
+        <v>1</v>
+      </c>
+      <c r="G441" t="s">
+        <v>1</v>
+      </c>
+      <c r="H441" t="s">
+        <v>13</v>
+      </c>
+      <c r="I441" t="s">
+        <v>1</v>
+      </c>
+      <c r="L441" t="s">
+        <v>1</v>
+      </c>
+      <c r="M441" t="s">
+        <v>1</v>
+      </c>
+      <c r="N441" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A442" s="1">
+        <v>45247</v>
+      </c>
+      <c r="B442" t="s">
+        <v>12</v>
+      </c>
+      <c r="D442" t="s">
+        <v>1</v>
+      </c>
+      <c r="E442" t="s">
+        <v>1</v>
+      </c>
+      <c r="F442" t="s">
+        <v>1</v>
+      </c>
+      <c r="G442" t="s">
+        <v>1</v>
+      </c>
+      <c r="I442" t="s">
+        <v>1</v>
+      </c>
+      <c r="N442" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A443" s="1">
+        <v>45248</v>
+      </c>
+      <c r="B443" t="s">
+        <v>12</v>
+      </c>
+      <c r="C443" t="s">
+        <v>1</v>
+      </c>
+      <c r="D443" t="s">
+        <v>1</v>
+      </c>
+      <c r="E443" t="s">
+        <v>1</v>
+      </c>
+      <c r="F443" t="s">
+        <v>1</v>
+      </c>
+      <c r="G443" t="s">
+        <v>1</v>
+      </c>
+      <c r="H443" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="444" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A444" s="1">
+        <v>45249</v>
+      </c>
+      <c r="B444" t="s">
+        <v>12</v>
+      </c>
+      <c r="D444" t="s">
+        <v>1</v>
+      </c>
+      <c r="E444" t="s">
+        <v>1</v>
+      </c>
+      <c r="F444" t="s">
+        <v>12</v>
+      </c>
+      <c r="G444" t="s">
+        <v>1</v>
+      </c>
+      <c r="H444" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/Dailies.xlsx
+++ b/Data/Dailies.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3EA289E-9F01-47E4-908E-0B39AB2C017D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4AA2C1-DC0C-4F75-9010-FEF0F8E91522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5AECCF6F-801D-49D3-972A-947870F3C920}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2716" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2890" uniqueCount="20">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>XXY</t>
   </si>
 </sst>
 </file>
@@ -444,11 +447,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D90D68-022F-4D80-B45F-E8F95C295EA5}">
-  <dimension ref="A1:O444"/>
+  <dimension ref="A1:O472"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A407" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O438" sqref="O438"/>
+      <pane ySplit="1" topLeftCell="A436" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O466" sqref="O466"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10823,6 +10826,668 @@
         <v>13</v>
       </c>
     </row>
+    <row r="445" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A445" s="1">
+        <v>45250</v>
+      </c>
+      <c r="B445" t="s">
+        <v>12</v>
+      </c>
+      <c r="C445" t="s">
+        <v>1</v>
+      </c>
+      <c r="E445" t="s">
+        <v>1</v>
+      </c>
+      <c r="F445" t="s">
+        <v>1</v>
+      </c>
+      <c r="G445" t="s">
+        <v>1</v>
+      </c>
+      <c r="H445" t="s">
+        <v>13</v>
+      </c>
+      <c r="I445" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A446" s="1">
+        <v>45251</v>
+      </c>
+      <c r="B446" t="s">
+        <v>12</v>
+      </c>
+      <c r="D446" t="s">
+        <v>1</v>
+      </c>
+      <c r="E446" t="s">
+        <v>1</v>
+      </c>
+      <c r="F446" t="s">
+        <v>12</v>
+      </c>
+      <c r="G446" t="s">
+        <v>1</v>
+      </c>
+      <c r="H446" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="447" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A447" s="1">
+        <v>45252</v>
+      </c>
+      <c r="B447" t="s">
+        <v>12</v>
+      </c>
+      <c r="C447" t="s">
+        <v>1</v>
+      </c>
+      <c r="D447" t="s">
+        <v>1</v>
+      </c>
+      <c r="F447" t="s">
+        <v>12</v>
+      </c>
+      <c r="G447" t="s">
+        <v>1</v>
+      </c>
+      <c r="H447" t="s">
+        <v>13</v>
+      </c>
+      <c r="I447" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A448" s="1">
+        <v>45253</v>
+      </c>
+      <c r="B448" t="s">
+        <v>12</v>
+      </c>
+      <c r="D448" t="s">
+        <v>1</v>
+      </c>
+      <c r="G448" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A449" s="1">
+        <v>45254</v>
+      </c>
+      <c r="B449" t="s">
+        <v>12</v>
+      </c>
+      <c r="C449" t="s">
+        <v>1</v>
+      </c>
+      <c r="D449" t="s">
+        <v>1</v>
+      </c>
+      <c r="E449" t="s">
+        <v>1</v>
+      </c>
+      <c r="F449" t="s">
+        <v>1</v>
+      </c>
+      <c r="G449" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A450" s="1">
+        <v>45255</v>
+      </c>
+      <c r="B450" t="s">
+        <v>12</v>
+      </c>
+      <c r="F450" t="s">
+        <v>1</v>
+      </c>
+      <c r="G450" t="s">
+        <v>1</v>
+      </c>
+      <c r="H450" t="s">
+        <v>13</v>
+      </c>
+      <c r="I450" t="s">
+        <v>1</v>
+      </c>
+      <c r="L450" t="s">
+        <v>1</v>
+      </c>
+      <c r="N450" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A451" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B451" t="s">
+        <v>12</v>
+      </c>
+      <c r="C451" t="s">
+        <v>1</v>
+      </c>
+      <c r="D451" t="s">
+        <v>1</v>
+      </c>
+      <c r="E451" t="s">
+        <v>1</v>
+      </c>
+      <c r="F451" t="s">
+        <v>1</v>
+      </c>
+      <c r="G451" t="s">
+        <v>1</v>
+      </c>
+      <c r="H451" t="s">
+        <v>13</v>
+      </c>
+      <c r="K451" t="s">
+        <v>1</v>
+      </c>
+      <c r="N451" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A452" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B452" t="s">
+        <v>12</v>
+      </c>
+      <c r="D452" t="s">
+        <v>1</v>
+      </c>
+      <c r="E452" t="s">
+        <v>1</v>
+      </c>
+      <c r="F452" t="s">
+        <v>1</v>
+      </c>
+      <c r="G452" t="s">
+        <v>1</v>
+      </c>
+      <c r="I452" t="s">
+        <v>1</v>
+      </c>
+      <c r="N452" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A453" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B453" t="s">
+        <v>12</v>
+      </c>
+      <c r="C453" t="s">
+        <v>1</v>
+      </c>
+      <c r="E453" t="s">
+        <v>1</v>
+      </c>
+      <c r="F453" t="s">
+        <v>1</v>
+      </c>
+      <c r="G453" t="s">
+        <v>1</v>
+      </c>
+      <c r="K453" t="s">
+        <v>1</v>
+      </c>
+      <c r="L453" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A454" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B454" t="s">
+        <v>12</v>
+      </c>
+      <c r="D454" t="s">
+        <v>1</v>
+      </c>
+      <c r="E454" t="s">
+        <v>1</v>
+      </c>
+      <c r="F454" t="s">
+        <v>1</v>
+      </c>
+      <c r="G454" t="s">
+        <v>1</v>
+      </c>
+      <c r="I454" t="s">
+        <v>1</v>
+      </c>
+      <c r="L454" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A455" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B455" t="s">
+        <v>12</v>
+      </c>
+      <c r="C455" t="s">
+        <v>1</v>
+      </c>
+      <c r="D455" t="s">
+        <v>1</v>
+      </c>
+      <c r="E455" t="s">
+        <v>1</v>
+      </c>
+      <c r="G455" t="s">
+        <v>1</v>
+      </c>
+      <c r="K455" t="s">
+        <v>1</v>
+      </c>
+      <c r="M455" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A456" s="1">
+        <v>45261</v>
+      </c>
+      <c r="B456" t="s">
+        <v>12</v>
+      </c>
+      <c r="D456" t="s">
+        <v>1</v>
+      </c>
+      <c r="F456" t="s">
+        <v>1</v>
+      </c>
+      <c r="G456" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A457" s="1">
+        <v>45262</v>
+      </c>
+      <c r="B457" t="s">
+        <v>12</v>
+      </c>
+      <c r="C457" t="s">
+        <v>1</v>
+      </c>
+      <c r="D457" t="s">
+        <v>1</v>
+      </c>
+      <c r="G457" t="s">
+        <v>1</v>
+      </c>
+      <c r="K457" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A458" s="1">
+        <v>45263</v>
+      </c>
+      <c r="B458" t="s">
+        <v>12</v>
+      </c>
+      <c r="D458" t="s">
+        <v>1</v>
+      </c>
+      <c r="E458" t="s">
+        <v>1</v>
+      </c>
+      <c r="F458" t="s">
+        <v>12</v>
+      </c>
+      <c r="G458" t="s">
+        <v>1</v>
+      </c>
+      <c r="I458" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A459" s="1">
+        <v>45264</v>
+      </c>
+      <c r="B459" t="s">
+        <v>12</v>
+      </c>
+      <c r="C459" t="s">
+        <v>1</v>
+      </c>
+      <c r="D459" t="s">
+        <v>1</v>
+      </c>
+      <c r="F459" t="s">
+        <v>1</v>
+      </c>
+      <c r="G459" t="s">
+        <v>1</v>
+      </c>
+      <c r="I459" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A460" s="1">
+        <v>45265</v>
+      </c>
+      <c r="B460" t="s">
+        <v>12</v>
+      </c>
+      <c r="D460" t="s">
+        <v>1</v>
+      </c>
+      <c r="E460" t="s">
+        <v>1</v>
+      </c>
+      <c r="F460" t="s">
+        <v>1</v>
+      </c>
+      <c r="G460" t="s">
+        <v>1</v>
+      </c>
+      <c r="L460" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A461" s="1">
+        <v>45266</v>
+      </c>
+      <c r="B461" t="s">
+        <v>12</v>
+      </c>
+      <c r="C461" t="s">
+        <v>1</v>
+      </c>
+      <c r="D461" t="s">
+        <v>1</v>
+      </c>
+      <c r="E461" t="s">
+        <v>1</v>
+      </c>
+      <c r="F461" t="s">
+        <v>12</v>
+      </c>
+      <c r="G461" t="s">
+        <v>1</v>
+      </c>
+      <c r="H461" t="s">
+        <v>13</v>
+      </c>
+      <c r="I461" t="s">
+        <v>1</v>
+      </c>
+      <c r="L461" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A462" s="1">
+        <v>45267</v>
+      </c>
+      <c r="B462" t="s">
+        <v>13</v>
+      </c>
+      <c r="G462" t="s">
+        <v>1</v>
+      </c>
+      <c r="N462" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A463" s="1">
+        <v>45268</v>
+      </c>
+      <c r="B463" t="s">
+        <v>12</v>
+      </c>
+      <c r="C463" t="s">
+        <v>1</v>
+      </c>
+      <c r="D463" t="s">
+        <v>1</v>
+      </c>
+      <c r="E463" t="s">
+        <v>1</v>
+      </c>
+      <c r="F463" t="s">
+        <v>12</v>
+      </c>
+      <c r="G463" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A464" s="1">
+        <v>45269</v>
+      </c>
+      <c r="B464" t="s">
+        <v>12</v>
+      </c>
+      <c r="D464" t="s">
+        <v>1</v>
+      </c>
+      <c r="F464" t="s">
+        <v>12</v>
+      </c>
+      <c r="G464" t="s">
+        <v>1</v>
+      </c>
+      <c r="H464" t="s">
+        <v>12</v>
+      </c>
+      <c r="I464" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A465" s="1">
+        <v>45270</v>
+      </c>
+      <c r="B465" t="s">
+        <v>12</v>
+      </c>
+      <c r="C465" t="s">
+        <v>1</v>
+      </c>
+      <c r="D465" t="s">
+        <v>1</v>
+      </c>
+      <c r="E465" t="s">
+        <v>1</v>
+      </c>
+      <c r="F465" t="s">
+        <v>1</v>
+      </c>
+      <c r="G465" t="s">
+        <v>1</v>
+      </c>
+      <c r="H465" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="466" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A466" s="1">
+        <v>45271</v>
+      </c>
+      <c r="B466" t="s">
+        <v>13</v>
+      </c>
+      <c r="F466" t="s">
+        <v>12</v>
+      </c>
+      <c r="G466" t="s">
+        <v>1</v>
+      </c>
+      <c r="H466" t="s">
+        <v>13</v>
+      </c>
+      <c r="I466" t="s">
+        <v>1</v>
+      </c>
+      <c r="N466" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A467" s="1">
+        <v>45272</v>
+      </c>
+      <c r="B467" t="s">
+        <v>12</v>
+      </c>
+      <c r="C467" t="s">
+        <v>1</v>
+      </c>
+      <c r="D467" t="s">
+        <v>1</v>
+      </c>
+      <c r="E467" t="s">
+        <v>1</v>
+      </c>
+      <c r="F467" t="s">
+        <v>19</v>
+      </c>
+      <c r="G467" t="s">
+        <v>1</v>
+      </c>
+      <c r="H467" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="468" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A468" s="1">
+        <v>45273</v>
+      </c>
+      <c r="B468" t="s">
+        <v>12</v>
+      </c>
+      <c r="D468" t="s">
+        <v>1</v>
+      </c>
+      <c r="E468" t="s">
+        <v>1</v>
+      </c>
+      <c r="F468" t="s">
+        <v>12</v>
+      </c>
+      <c r="G468" t="s">
+        <v>1</v>
+      </c>
+      <c r="H468" t="s">
+        <v>13</v>
+      </c>
+      <c r="I468" t="s">
+        <v>1</v>
+      </c>
+      <c r="N468" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A469" s="1">
+        <v>45274</v>
+      </c>
+      <c r="B469" t="s">
+        <v>12</v>
+      </c>
+      <c r="C469" t="s">
+        <v>1</v>
+      </c>
+      <c r="D469" t="s">
+        <v>1</v>
+      </c>
+      <c r="E469" t="s">
+        <v>1</v>
+      </c>
+      <c r="F469" t="s">
+        <v>19</v>
+      </c>
+      <c r="G469" t="s">
+        <v>1</v>
+      </c>
+      <c r="H469" t="s">
+        <v>12</v>
+      </c>
+      <c r="N469" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A470" s="1">
+        <v>45275</v>
+      </c>
+      <c r="B470" t="s">
+        <v>12</v>
+      </c>
+      <c r="F470" t="s">
+        <v>12</v>
+      </c>
+      <c r="G470" t="s">
+        <v>1</v>
+      </c>
+      <c r="H470" t="s">
+        <v>13</v>
+      </c>
+      <c r="I470" t="s">
+        <v>1</v>
+      </c>
+      <c r="N470" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A471" s="1">
+        <v>45276</v>
+      </c>
+      <c r="B471" t="s">
+        <v>12</v>
+      </c>
+      <c r="C471" t="s">
+        <v>1</v>
+      </c>
+      <c r="D471" t="s">
+        <v>1</v>
+      </c>
+      <c r="E471" t="s">
+        <v>1</v>
+      </c>
+      <c r="F471" t="s">
+        <v>1</v>
+      </c>
+      <c r="G471" t="s">
+        <v>1</v>
+      </c>
+      <c r="H471" t="s">
+        <v>13</v>
+      </c>
+      <c r="L471" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A472" s="1">
+        <v>45277</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/Dailies.xlsx
+++ b/Data/Dailies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4AA2C1-DC0C-4F75-9010-FEF0F8E91522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD333F2-5ED8-48A4-ACB5-508AC7DB8EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5AECCF6F-801D-49D3-972A-947870F3C920}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2890" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2948" uniqueCount="20">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -447,11 +447,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D90D68-022F-4D80-B45F-E8F95C295EA5}">
-  <dimension ref="A1:O472"/>
+  <dimension ref="A1:O479"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A436" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O466" sqref="O466"/>
+      <pane ySplit="1" topLeftCell="A461" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O473" sqref="O473"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11487,6 +11487,215 @@
       <c r="A472" s="1">
         <v>45277</v>
       </c>
+      <c r="B472" t="s">
+        <v>12</v>
+      </c>
+      <c r="D472" t="s">
+        <v>1</v>
+      </c>
+      <c r="E472" t="s">
+        <v>1</v>
+      </c>
+      <c r="F472" t="s">
+        <v>12</v>
+      </c>
+      <c r="G472" t="s">
+        <v>1</v>
+      </c>
+      <c r="H472" t="s">
+        <v>13</v>
+      </c>
+      <c r="N472" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A473" s="1">
+        <v>45278</v>
+      </c>
+      <c r="B473" t="s">
+        <v>12</v>
+      </c>
+      <c r="C473" t="s">
+        <v>1</v>
+      </c>
+      <c r="D473" t="s">
+        <v>1</v>
+      </c>
+      <c r="E473" t="s">
+        <v>1</v>
+      </c>
+      <c r="F473" t="s">
+        <v>12</v>
+      </c>
+      <c r="G473" t="s">
+        <v>1</v>
+      </c>
+      <c r="H473" t="s">
+        <v>13</v>
+      </c>
+      <c r="I473" t="s">
+        <v>1</v>
+      </c>
+      <c r="N473" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A474" s="1">
+        <v>45279</v>
+      </c>
+      <c r="B474" t="s">
+        <v>12</v>
+      </c>
+      <c r="D474" t="s">
+        <v>1</v>
+      </c>
+      <c r="E474" t="s">
+        <v>1</v>
+      </c>
+      <c r="F474" t="s">
+        <v>1</v>
+      </c>
+      <c r="G474" t="s">
+        <v>1</v>
+      </c>
+      <c r="H474" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="475" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A475" s="1">
+        <v>45280</v>
+      </c>
+      <c r="B475" t="s">
+        <v>12</v>
+      </c>
+      <c r="C475" t="s">
+        <v>1</v>
+      </c>
+      <c r="D475" t="s">
+        <v>1</v>
+      </c>
+      <c r="E475" t="s">
+        <v>1</v>
+      </c>
+      <c r="F475" t="s">
+        <v>1</v>
+      </c>
+      <c r="G475" t="s">
+        <v>1</v>
+      </c>
+      <c r="H475" t="s">
+        <v>13</v>
+      </c>
+      <c r="I475" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A476" s="1">
+        <v>45281</v>
+      </c>
+      <c r="B476" t="s">
+        <v>12</v>
+      </c>
+      <c r="D476" t="s">
+        <v>1</v>
+      </c>
+      <c r="G476" t="s">
+        <v>1</v>
+      </c>
+      <c r="H476" t="s">
+        <v>13</v>
+      </c>
+      <c r="L476" t="s">
+        <v>1</v>
+      </c>
+      <c r="M476" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A477" s="1">
+        <v>45282</v>
+      </c>
+      <c r="B477" t="s">
+        <v>12</v>
+      </c>
+      <c r="C477" t="s">
+        <v>1</v>
+      </c>
+      <c r="D477" t="s">
+        <v>1</v>
+      </c>
+      <c r="E477" t="s">
+        <v>1</v>
+      </c>
+      <c r="F477" t="s">
+        <v>1</v>
+      </c>
+      <c r="G477" t="s">
+        <v>1</v>
+      </c>
+      <c r="H477" t="s">
+        <v>13</v>
+      </c>
+      <c r="K477" t="s">
+        <v>1</v>
+      </c>
+      <c r="M477" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A478" s="1">
+        <v>45283</v>
+      </c>
+      <c r="B478" t="s">
+        <v>12</v>
+      </c>
+      <c r="D478" t="s">
+        <v>1</v>
+      </c>
+      <c r="F478" t="s">
+        <v>1</v>
+      </c>
+      <c r="G478" t="s">
+        <v>1</v>
+      </c>
+      <c r="H478" t="s">
+        <v>13</v>
+      </c>
+      <c r="I478" t="s">
+        <v>1</v>
+      </c>
+      <c r="M478" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A479" s="1">
+        <v>45284</v>
+      </c>
+      <c r="B479" t="s">
+        <v>12</v>
+      </c>
+      <c r="C479" t="s">
+        <v>1</v>
+      </c>
+      <c r="D479" t="s">
+        <v>1</v>
+      </c>
+      <c r="E479" t="s">
+        <v>1</v>
+      </c>
+      <c r="F479" t="s">
+        <v>1</v>
+      </c>
+      <c r="G479" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Dailies.xlsx
+++ b/Data/Dailies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD333F2-5ED8-48A4-ACB5-508AC7DB8EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA464568-1E02-4BAD-8D04-FF49F74BFE4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5AECCF6F-801D-49D3-972A-947870F3C920}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2948" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2990" uniqueCount="20">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -447,11 +447,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D90D68-022F-4D80-B45F-E8F95C295EA5}">
-  <dimension ref="A1:O479"/>
+  <dimension ref="A1:O487"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A461" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O473" sqref="O473"/>
+      <selection pane="bottomLeft" activeCell="N482" sqref="N482"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11697,6 +11697,170 @@
         <v>1</v>
       </c>
     </row>
+    <row r="480" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A480" s="1">
+        <v>45285</v>
+      </c>
+      <c r="B480" t="s">
+        <v>13</v>
+      </c>
+      <c r="F480" t="s">
+        <v>1</v>
+      </c>
+      <c r="G480" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A481" s="1">
+        <v>45286</v>
+      </c>
+      <c r="B481" t="s">
+        <v>12</v>
+      </c>
+      <c r="C481" t="s">
+        <v>1</v>
+      </c>
+      <c r="D481" t="s">
+        <v>1</v>
+      </c>
+      <c r="E481" t="s">
+        <v>1</v>
+      </c>
+      <c r="G481" t="s">
+        <v>1</v>
+      </c>
+      <c r="H481" t="s">
+        <v>12</v>
+      </c>
+      <c r="L481" t="s">
+        <v>1</v>
+      </c>
+      <c r="M481" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A482" s="1">
+        <v>45287</v>
+      </c>
+      <c r="B482" t="s">
+        <v>12</v>
+      </c>
+      <c r="D482" t="s">
+        <v>1</v>
+      </c>
+      <c r="E482" t="s">
+        <v>1</v>
+      </c>
+      <c r="F482" t="s">
+        <v>12</v>
+      </c>
+      <c r="G482" t="s">
+        <v>1</v>
+      </c>
+      <c r="I482" t="s">
+        <v>1</v>
+      </c>
+      <c r="L482" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A483" s="1">
+        <v>45288</v>
+      </c>
+      <c r="B483" t="s">
+        <v>12</v>
+      </c>
+      <c r="C483" t="s">
+        <v>1</v>
+      </c>
+      <c r="F483" t="s">
+        <v>1</v>
+      </c>
+      <c r="G483" t="s">
+        <v>1</v>
+      </c>
+      <c r="H483" t="s">
+        <v>13</v>
+      </c>
+      <c r="M483" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A484" s="1">
+        <v>45289</v>
+      </c>
+      <c r="B484" t="s">
+        <v>12</v>
+      </c>
+      <c r="D484" t="s">
+        <v>1</v>
+      </c>
+      <c r="E484" t="s">
+        <v>1</v>
+      </c>
+      <c r="F484" t="s">
+        <v>1</v>
+      </c>
+      <c r="G484" t="s">
+        <v>1</v>
+      </c>
+      <c r="H484" t="s">
+        <v>13</v>
+      </c>
+      <c r="M484" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A485" s="1">
+        <v>45290</v>
+      </c>
+      <c r="B485" t="s">
+        <v>1</v>
+      </c>
+      <c r="C485" t="s">
+        <v>1</v>
+      </c>
+      <c r="F485" t="s">
+        <v>1</v>
+      </c>
+      <c r="G485" t="s">
+        <v>1</v>
+      </c>
+      <c r="I485" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A486" s="1">
+        <v>45291</v>
+      </c>
+      <c r="B486" t="s">
+        <v>13</v>
+      </c>
+      <c r="D486" t="s">
+        <v>1</v>
+      </c>
+      <c r="E486" t="s">
+        <v>1</v>
+      </c>
+      <c r="G486" t="s">
+        <v>1</v>
+      </c>
+      <c r="H486" t="s">
+        <v>13</v>
+      </c>
+      <c r="L486" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A487" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/Dailies.xlsx
+++ b/Data/Dailies.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA464568-1E02-4BAD-8D04-FF49F74BFE4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50C84D5-26F7-477D-9354-5C8231FA83DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5AECCF6F-801D-49D3-972A-947870F3C920}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2990" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3086" uniqueCount="20">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -447,11 +447,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D90D68-022F-4D80-B45F-E8F95C295EA5}">
-  <dimension ref="A1:O487"/>
+  <dimension ref="A1:O500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A461" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N482" sqref="N482"/>
+      <pane ySplit="1" topLeftCell="A479" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N497" sqref="N497"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11859,7 +11859,362 @@
       </c>
     </row>
     <row r="487" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A487" s="1"/>
+      <c r="A487" s="1">
+        <v>45292</v>
+      </c>
+      <c r="B487" t="s">
+        <v>13</v>
+      </c>
+      <c r="C487" t="s">
+        <v>1</v>
+      </c>
+      <c r="D487" t="s">
+        <v>1</v>
+      </c>
+      <c r="F487" t="s">
+        <v>1</v>
+      </c>
+      <c r="G487" t="s">
+        <v>1</v>
+      </c>
+      <c r="I487" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A488" s="1">
+        <v>45293</v>
+      </c>
+      <c r="B488" t="s">
+        <v>12</v>
+      </c>
+      <c r="D488" t="s">
+        <v>1</v>
+      </c>
+      <c r="E488" t="s">
+        <v>1</v>
+      </c>
+      <c r="F488" t="s">
+        <v>1</v>
+      </c>
+      <c r="G488" t="s">
+        <v>1</v>
+      </c>
+      <c r="H488" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="489" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A489" s="1">
+        <v>45294</v>
+      </c>
+      <c r="B489" t="s">
+        <v>12</v>
+      </c>
+      <c r="C489" t="s">
+        <v>1</v>
+      </c>
+      <c r="D489" t="s">
+        <v>1</v>
+      </c>
+      <c r="E489" t="s">
+        <v>1</v>
+      </c>
+      <c r="F489" t="s">
+        <v>12</v>
+      </c>
+      <c r="G489" t="s">
+        <v>1</v>
+      </c>
+      <c r="H489" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="490" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A490" s="1">
+        <v>45295</v>
+      </c>
+      <c r="B490" t="s">
+        <v>12</v>
+      </c>
+      <c r="D490" t="s">
+        <v>1</v>
+      </c>
+      <c r="E490" t="s">
+        <v>1</v>
+      </c>
+      <c r="F490" t="s">
+        <v>1</v>
+      </c>
+      <c r="G490" t="s">
+        <v>1</v>
+      </c>
+      <c r="H490" t="s">
+        <v>13</v>
+      </c>
+      <c r="I490" t="s">
+        <v>1</v>
+      </c>
+      <c r="M490" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A491" s="1">
+        <v>45296</v>
+      </c>
+      <c r="B491" t="s">
+        <v>12</v>
+      </c>
+      <c r="C491" t="s">
+        <v>1</v>
+      </c>
+      <c r="D491" t="s">
+        <v>1</v>
+      </c>
+      <c r="E491" t="s">
+        <v>1</v>
+      </c>
+      <c r="F491" t="s">
+        <v>12</v>
+      </c>
+      <c r="G491" t="s">
+        <v>1</v>
+      </c>
+      <c r="H491" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="492" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A492" s="1">
+        <v>45297</v>
+      </c>
+      <c r="B492" t="s">
+        <v>12</v>
+      </c>
+      <c r="D492" t="s">
+        <v>1</v>
+      </c>
+      <c r="E492" t="s">
+        <v>1</v>
+      </c>
+      <c r="F492" t="s">
+        <v>1</v>
+      </c>
+      <c r="G492" t="s">
+        <v>1</v>
+      </c>
+      <c r="H492" t="s">
+        <v>13</v>
+      </c>
+      <c r="I492" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A493" s="1">
+        <v>45298</v>
+      </c>
+      <c r="B493" t="s">
+        <v>12</v>
+      </c>
+      <c r="C493" t="s">
+        <v>1</v>
+      </c>
+      <c r="D493" t="s">
+        <v>1</v>
+      </c>
+      <c r="G493" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A494" s="1">
+        <v>45299</v>
+      </c>
+      <c r="B494" t="s">
+        <v>13</v>
+      </c>
+      <c r="D494" t="s">
+        <v>1</v>
+      </c>
+      <c r="E494" t="s">
+        <v>1</v>
+      </c>
+      <c r="F494" t="s">
+        <v>1</v>
+      </c>
+      <c r="G494" t="s">
+        <v>1</v>
+      </c>
+      <c r="H494" t="s">
+        <v>13</v>
+      </c>
+      <c r="I494" t="s">
+        <v>1</v>
+      </c>
+      <c r="L494" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A495" s="1">
+        <v>45300</v>
+      </c>
+      <c r="B495" t="s">
+        <v>12</v>
+      </c>
+      <c r="C495" t="s">
+        <v>1</v>
+      </c>
+      <c r="D495" t="s">
+        <v>1</v>
+      </c>
+      <c r="E495" t="s">
+        <v>1</v>
+      </c>
+      <c r="F495" t="s">
+        <v>1</v>
+      </c>
+      <c r="G495" t="s">
+        <v>1</v>
+      </c>
+      <c r="H495" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="496" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A496" s="1">
+        <v>45301</v>
+      </c>
+      <c r="B496" t="s">
+        <v>12</v>
+      </c>
+      <c r="D496" t="s">
+        <v>1</v>
+      </c>
+      <c r="E496" t="s">
+        <v>1</v>
+      </c>
+      <c r="F496" t="s">
+        <v>12</v>
+      </c>
+      <c r="G496" t="s">
+        <v>1</v>
+      </c>
+      <c r="H496" t="s">
+        <v>13</v>
+      </c>
+      <c r="L496" t="s">
+        <v>1</v>
+      </c>
+      <c r="M496" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A497" s="1">
+        <v>45302</v>
+      </c>
+      <c r="B497" t="s">
+        <v>12</v>
+      </c>
+      <c r="C497" t="s">
+        <v>1</v>
+      </c>
+      <c r="D497" t="s">
+        <v>1</v>
+      </c>
+      <c r="E497" t="s">
+        <v>1</v>
+      </c>
+      <c r="F497" t="s">
+        <v>1</v>
+      </c>
+      <c r="G497" t="s">
+        <v>1</v>
+      </c>
+      <c r="I497" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A498" s="1">
+        <v>45303</v>
+      </c>
+      <c r="B498" t="s">
+        <v>13</v>
+      </c>
+      <c r="F498" t="s">
+        <v>1</v>
+      </c>
+      <c r="G498" t="s">
+        <v>1</v>
+      </c>
+      <c r="H498" t="s">
+        <v>13</v>
+      </c>
+      <c r="I498" t="s">
+        <v>1</v>
+      </c>
+      <c r="N498" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A499" s="1">
+        <v>45304</v>
+      </c>
+      <c r="B499" t="s">
+        <v>12</v>
+      </c>
+      <c r="C499" t="s">
+        <v>1</v>
+      </c>
+      <c r="D499" t="s">
+        <v>1</v>
+      </c>
+      <c r="E499" t="s">
+        <v>1</v>
+      </c>
+      <c r="G499" t="s">
+        <v>1</v>
+      </c>
+      <c r="H499" t="s">
+        <v>12</v>
+      </c>
+      <c r="M499" t="s">
+        <v>1</v>
+      </c>
+      <c r="N499" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A500" s="1">
+        <v>45305</v>
+      </c>
+      <c r="B500" t="s">
+        <v>12</v>
+      </c>
+      <c r="D500" t="s">
+        <v>1</v>
+      </c>
+      <c r="E500" t="s">
+        <v>1</v>
+      </c>
+      <c r="F500" t="s">
+        <v>12</v>
+      </c>
+      <c r="G500" t="s">
+        <v>1</v>
+      </c>
+      <c r="L500" t="s">
+        <v>1</v>
+      </c>
+      <c r="N500" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Dailies.xlsx
+++ b/Data/Dailies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50C84D5-26F7-477D-9354-5C8231FA83DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F698B616-C6BE-47AA-9364-D712D3E7F629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5AECCF6F-801D-49D3-972A-947870F3C920}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3086" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3135" uniqueCount="20">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -447,11 +447,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D90D68-022F-4D80-B45F-E8F95C295EA5}">
-  <dimension ref="A1:O500"/>
+  <dimension ref="A1:O507"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A479" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N497" sqref="N497"/>
+      <selection pane="bottomLeft" activeCell="N508" sqref="N508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12216,6 +12216,188 @@
         <v>1</v>
       </c>
     </row>
+    <row r="501" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A501" s="1">
+        <v>45306</v>
+      </c>
+      <c r="B501" t="s">
+        <v>12</v>
+      </c>
+      <c r="C501" t="s">
+        <v>1</v>
+      </c>
+      <c r="D501" t="s">
+        <v>1</v>
+      </c>
+      <c r="E501" t="s">
+        <v>1</v>
+      </c>
+      <c r="F501" t="s">
+        <v>12</v>
+      </c>
+      <c r="G501" t="s">
+        <v>1</v>
+      </c>
+      <c r="H501" t="s">
+        <v>13</v>
+      </c>
+      <c r="I501" t="s">
+        <v>1</v>
+      </c>
+      <c r="N501" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A502" s="1">
+        <v>45307</v>
+      </c>
+      <c r="B502" t="s">
+        <v>12</v>
+      </c>
+      <c r="D502" t="s">
+        <v>1</v>
+      </c>
+      <c r="E502" t="s">
+        <v>1</v>
+      </c>
+      <c r="F502" t="s">
+        <v>1</v>
+      </c>
+      <c r="G502" t="s">
+        <v>1</v>
+      </c>
+      <c r="H502" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="503" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A503" s="1">
+        <v>45308</v>
+      </c>
+      <c r="B503" t="s">
+        <v>12</v>
+      </c>
+      <c r="C503" t="s">
+        <v>1</v>
+      </c>
+      <c r="D503" t="s">
+        <v>1</v>
+      </c>
+      <c r="E503" t="s">
+        <v>1</v>
+      </c>
+      <c r="F503" t="s">
+        <v>1</v>
+      </c>
+      <c r="G503" t="s">
+        <v>1</v>
+      </c>
+      <c r="H503" t="s">
+        <v>13</v>
+      </c>
+      <c r="L503" t="s">
+        <v>1</v>
+      </c>
+      <c r="M503" t="s">
+        <v>1</v>
+      </c>
+      <c r="N503" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A504" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B504" t="s">
+        <v>12</v>
+      </c>
+      <c r="E504" t="s">
+        <v>1</v>
+      </c>
+      <c r="F504" t="s">
+        <v>1</v>
+      </c>
+      <c r="G504" t="s">
+        <v>1</v>
+      </c>
+      <c r="H504" t="s">
+        <v>13</v>
+      </c>
+      <c r="I504" t="s">
+        <v>1</v>
+      </c>
+      <c r="N504" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A505" s="1">
+        <v>45310</v>
+      </c>
+      <c r="B505" t="s">
+        <v>1</v>
+      </c>
+      <c r="C505" t="s">
+        <v>1</v>
+      </c>
+      <c r="D505" t="s">
+        <v>1</v>
+      </c>
+      <c r="E505" t="s">
+        <v>1</v>
+      </c>
+      <c r="F505" t="s">
+        <v>1</v>
+      </c>
+      <c r="G505" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A506" s="1">
+        <v>45311</v>
+      </c>
+      <c r="B506" t="s">
+        <v>12</v>
+      </c>
+      <c r="E506" t="s">
+        <v>1</v>
+      </c>
+      <c r="G506" t="s">
+        <v>1</v>
+      </c>
+      <c r="H506" t="s">
+        <v>1</v>
+      </c>
+      <c r="N506" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A507" s="1">
+        <v>45312</v>
+      </c>
+      <c r="B507" t="s">
+        <v>12</v>
+      </c>
+      <c r="F507" t="s">
+        <v>12</v>
+      </c>
+      <c r="G507" t="s">
+        <v>1</v>
+      </c>
+      <c r="H507" t="s">
+        <v>13</v>
+      </c>
+      <c r="I507" t="s">
+        <v>1</v>
+      </c>
+      <c r="N507" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/Dailies.xlsx
+++ b/Data/Dailies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F698B616-C6BE-47AA-9364-D712D3E7F629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1B6FB6-4300-4369-93AF-7F761FC4B41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5AECCF6F-801D-49D3-972A-947870F3C920}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3135" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3186" uniqueCount="20">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -447,11 +447,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D90D68-022F-4D80-B45F-E8F95C295EA5}">
-  <dimension ref="A1:O507"/>
+  <dimension ref="A1:O514"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A479" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N508" sqref="N508"/>
+      <pane ySplit="1" topLeftCell="A485" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O508" sqref="O508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12398,6 +12398,194 @@
         <v>1</v>
       </c>
     </row>
+    <row r="508" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A508" s="1">
+        <v>45313</v>
+      </c>
+      <c r="B508" t="s">
+        <v>12</v>
+      </c>
+      <c r="C508" t="s">
+        <v>1</v>
+      </c>
+      <c r="D508" t="s">
+        <v>1</v>
+      </c>
+      <c r="E508" t="s">
+        <v>1</v>
+      </c>
+      <c r="F508" t="s">
+        <v>1</v>
+      </c>
+      <c r="G508" t="s">
+        <v>1</v>
+      </c>
+      <c r="H508" t="s">
+        <v>13</v>
+      </c>
+      <c r="I508" t="s">
+        <v>1</v>
+      </c>
+      <c r="N508" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A509" s="1">
+        <v>45314</v>
+      </c>
+      <c r="B509" t="s">
+        <v>12</v>
+      </c>
+      <c r="D509" t="s">
+        <v>1</v>
+      </c>
+      <c r="E509" t="s">
+        <v>1</v>
+      </c>
+      <c r="F509" t="s">
+        <v>1</v>
+      </c>
+      <c r="G509" t="s">
+        <v>1</v>
+      </c>
+      <c r="H509" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="510" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A510" s="1">
+        <v>45315</v>
+      </c>
+      <c r="B510" t="s">
+        <v>12</v>
+      </c>
+      <c r="C510" t="s">
+        <v>1</v>
+      </c>
+      <c r="E510" t="s">
+        <v>1</v>
+      </c>
+      <c r="F510" t="s">
+        <v>12</v>
+      </c>
+      <c r="G510" t="s">
+        <v>1</v>
+      </c>
+      <c r="H510" t="s">
+        <v>13</v>
+      </c>
+      <c r="I510" t="s">
+        <v>1</v>
+      </c>
+      <c r="L510" t="s">
+        <v>1</v>
+      </c>
+      <c r="N510" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A511" s="1">
+        <v>45316</v>
+      </c>
+      <c r="B511" t="s">
+        <v>12</v>
+      </c>
+      <c r="D511" t="s">
+        <v>1</v>
+      </c>
+      <c r="E511" t="s">
+        <v>1</v>
+      </c>
+      <c r="G511" t="s">
+        <v>1</v>
+      </c>
+      <c r="H511" t="s">
+        <v>13</v>
+      </c>
+      <c r="N511" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A512" s="1">
+        <v>45317</v>
+      </c>
+      <c r="B512" t="s">
+        <v>12</v>
+      </c>
+      <c r="C512" t="s">
+        <v>1</v>
+      </c>
+      <c r="D512" t="s">
+        <v>1</v>
+      </c>
+      <c r="E512" t="s">
+        <v>1</v>
+      </c>
+      <c r="F512" t="s">
+        <v>1</v>
+      </c>
+      <c r="G512" t="s">
+        <v>1</v>
+      </c>
+      <c r="H512" t="s">
+        <v>13</v>
+      </c>
+      <c r="L512" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A513" s="1">
+        <v>45318</v>
+      </c>
+      <c r="B513" t="s">
+        <v>13</v>
+      </c>
+      <c r="F513" t="s">
+        <v>1</v>
+      </c>
+      <c r="G513" t="s">
+        <v>1</v>
+      </c>
+      <c r="H513" t="s">
+        <v>13</v>
+      </c>
+      <c r="I513" t="s">
+        <v>1</v>
+      </c>
+      <c r="N513" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A514" s="1">
+        <v>45319</v>
+      </c>
+      <c r="B514" t="s">
+        <v>12</v>
+      </c>
+      <c r="C514" t="s">
+        <v>1</v>
+      </c>
+      <c r="D514" t="s">
+        <v>1</v>
+      </c>
+      <c r="E514" t="s">
+        <v>1</v>
+      </c>
+      <c r="F514" t="s">
+        <v>1</v>
+      </c>
+      <c r="G514" t="s">
+        <v>1</v>
+      </c>
+      <c r="H514" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/Dailies.xlsx
+++ b/Data/Dailies.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1B6FB6-4300-4369-93AF-7F761FC4B41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B46BE1-6349-4A90-A4E7-CA98C382DAB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5AECCF6F-801D-49D3-972A-947870F3C920}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3186" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3234" uniqueCount="20">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -447,11 +447,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D90D68-022F-4D80-B45F-E8F95C295EA5}">
-  <dimension ref="A1:O514"/>
+  <dimension ref="A1:O521"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A485" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O508" sqref="O508"/>
+      <pane ySplit="1" topLeftCell="A494" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O515" sqref="O515"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12586,6 +12586,185 @@
         <v>13</v>
       </c>
     </row>
+    <row r="515" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A515" s="1">
+        <v>45320</v>
+      </c>
+      <c r="B515" t="s">
+        <v>12</v>
+      </c>
+      <c r="D515" t="s">
+        <v>1</v>
+      </c>
+      <c r="E515" t="s">
+        <v>1</v>
+      </c>
+      <c r="F515" t="s">
+        <v>1</v>
+      </c>
+      <c r="G515" t="s">
+        <v>1</v>
+      </c>
+      <c r="H515" t="s">
+        <v>13</v>
+      </c>
+      <c r="I515" t="s">
+        <v>1</v>
+      </c>
+      <c r="N515" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A516" s="1">
+        <v>45321</v>
+      </c>
+      <c r="B516" t="s">
+        <v>12</v>
+      </c>
+      <c r="C516" t="s">
+        <v>1</v>
+      </c>
+      <c r="D516" t="s">
+        <v>1</v>
+      </c>
+      <c r="E516" t="s">
+        <v>1</v>
+      </c>
+      <c r="F516" t="s">
+        <v>1</v>
+      </c>
+      <c r="G516" t="s">
+        <v>1</v>
+      </c>
+      <c r="H516" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="517" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A517" s="1">
+        <v>45322</v>
+      </c>
+      <c r="B517" t="s">
+        <v>12</v>
+      </c>
+      <c r="D517" t="s">
+        <v>1</v>
+      </c>
+      <c r="E517" t="s">
+        <v>1</v>
+      </c>
+      <c r="F517" t="s">
+        <v>1</v>
+      </c>
+      <c r="G517" t="s">
+        <v>1</v>
+      </c>
+      <c r="I517" t="s">
+        <v>1</v>
+      </c>
+      <c r="L517" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A518" s="1">
+        <v>45323</v>
+      </c>
+      <c r="B518" t="s">
+        <v>13</v>
+      </c>
+      <c r="C518" t="s">
+        <v>1</v>
+      </c>
+      <c r="F518" t="s">
+        <v>12</v>
+      </c>
+      <c r="G518" t="s">
+        <v>1</v>
+      </c>
+      <c r="N518" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A519" s="1">
+        <v>45324</v>
+      </c>
+      <c r="B519" t="s">
+        <v>12</v>
+      </c>
+      <c r="D519" t="s">
+        <v>1</v>
+      </c>
+      <c r="E519" t="s">
+        <v>1</v>
+      </c>
+      <c r="F519" t="s">
+        <v>1</v>
+      </c>
+      <c r="G519" t="s">
+        <v>1</v>
+      </c>
+      <c r="H519" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="520" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A520" s="1">
+        <v>45325</v>
+      </c>
+      <c r="B520" t="s">
+        <v>12</v>
+      </c>
+      <c r="C520" t="s">
+        <v>1</v>
+      </c>
+      <c r="D520" t="s">
+        <v>1</v>
+      </c>
+      <c r="E520" t="s">
+        <v>1</v>
+      </c>
+      <c r="F520" t="s">
+        <v>1</v>
+      </c>
+      <c r="G520" t="s">
+        <v>1</v>
+      </c>
+      <c r="N520" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A521" s="1">
+        <v>45326</v>
+      </c>
+      <c r="B521" t="s">
+        <v>12</v>
+      </c>
+      <c r="D521" t="s">
+        <v>1</v>
+      </c>
+      <c r="E521" t="s">
+        <v>1</v>
+      </c>
+      <c r="F521" t="s">
+        <v>12</v>
+      </c>
+      <c r="G521" t="s">
+        <v>1</v>
+      </c>
+      <c r="H521" t="s">
+        <v>13</v>
+      </c>
+      <c r="I521" t="s">
+        <v>1</v>
+      </c>
+      <c r="N521" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/Dailies.xlsx
+++ b/Data/Dailies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B46BE1-6349-4A90-A4E7-CA98C382DAB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CA5715-77BE-489E-9D84-DFB2A8D9F465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5AECCF6F-801D-49D3-972A-947870F3C920}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3234" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3286" uniqueCount="20">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -447,11 +447,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D90D68-022F-4D80-B45F-E8F95C295EA5}">
-  <dimension ref="A1:O521"/>
+  <dimension ref="A1:O528"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A494" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O515" sqref="O515"/>
+      <pane ySplit="1" topLeftCell="A500" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N529" sqref="N529"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12765,6 +12765,197 @@
         <v>1</v>
       </c>
     </row>
+    <row r="522" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A522" s="1">
+        <v>45327</v>
+      </c>
+      <c r="B522" t="s">
+        <v>12</v>
+      </c>
+      <c r="C522" t="s">
+        <v>1</v>
+      </c>
+      <c r="D522" t="s">
+        <v>1</v>
+      </c>
+      <c r="E522" t="s">
+        <v>1</v>
+      </c>
+      <c r="F522" t="s">
+        <v>1</v>
+      </c>
+      <c r="G522" t="s">
+        <v>1</v>
+      </c>
+      <c r="I522" t="s">
+        <v>1</v>
+      </c>
+      <c r="N522" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A523" s="1">
+        <v>45328</v>
+      </c>
+      <c r="B523" t="s">
+        <v>12</v>
+      </c>
+      <c r="D523" t="s">
+        <v>1</v>
+      </c>
+      <c r="E523" t="s">
+        <v>1</v>
+      </c>
+      <c r="F523" t="s">
+        <v>1</v>
+      </c>
+      <c r="G523" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A524" s="1">
+        <v>45329</v>
+      </c>
+      <c r="B524" t="s">
+        <v>12</v>
+      </c>
+      <c r="C524" t="s">
+        <v>1</v>
+      </c>
+      <c r="D524" t="s">
+        <v>1</v>
+      </c>
+      <c r="E524" t="s">
+        <v>1</v>
+      </c>
+      <c r="F524" t="s">
+        <v>1</v>
+      </c>
+      <c r="G524" t="s">
+        <v>1</v>
+      </c>
+      <c r="I524" t="s">
+        <v>1</v>
+      </c>
+      <c r="L524" t="s">
+        <v>1</v>
+      </c>
+      <c r="N524" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A525" s="1">
+        <v>45330</v>
+      </c>
+      <c r="B525" t="s">
+        <v>12</v>
+      </c>
+      <c r="D525" t="s">
+        <v>1</v>
+      </c>
+      <c r="E525" t="s">
+        <v>1</v>
+      </c>
+      <c r="F525" t="s">
+        <v>12</v>
+      </c>
+      <c r="G525" t="s">
+        <v>1</v>
+      </c>
+      <c r="H525" t="s">
+        <v>13</v>
+      </c>
+      <c r="N525" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A526" s="1">
+        <v>45331</v>
+      </c>
+      <c r="B526" t="s">
+        <v>12</v>
+      </c>
+      <c r="C526" t="s">
+        <v>1</v>
+      </c>
+      <c r="D526" t="s">
+        <v>1</v>
+      </c>
+      <c r="E526" t="s">
+        <v>1</v>
+      </c>
+      <c r="F526" t="s">
+        <v>1</v>
+      </c>
+      <c r="G526" t="s">
+        <v>1</v>
+      </c>
+      <c r="H526" t="s">
+        <v>13</v>
+      </c>
+      <c r="I526" t="s">
+        <v>1</v>
+      </c>
+      <c r="L526" t="s">
+        <v>1</v>
+      </c>
+      <c r="N526" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A527" s="1">
+        <v>45332</v>
+      </c>
+      <c r="B527" t="s">
+        <v>12</v>
+      </c>
+      <c r="D527" t="s">
+        <v>1</v>
+      </c>
+      <c r="E527" t="s">
+        <v>1</v>
+      </c>
+      <c r="F527" t="s">
+        <v>1</v>
+      </c>
+      <c r="G527" t="s">
+        <v>1</v>
+      </c>
+      <c r="H527" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="528" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A528" s="1">
+        <v>45333</v>
+      </c>
+      <c r="B528" t="s">
+        <v>12</v>
+      </c>
+      <c r="C528" t="s">
+        <v>1</v>
+      </c>
+      <c r="D528" t="s">
+        <v>1</v>
+      </c>
+      <c r="E528" t="s">
+        <v>1</v>
+      </c>
+      <c r="F528" t="s">
+        <v>12</v>
+      </c>
+      <c r="G528" t="s">
+        <v>1</v>
+      </c>
+      <c r="H528" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/Dailies.xlsx
+++ b/Data/Dailies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CA5715-77BE-489E-9D84-DFB2A8D9F465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E4212C-371C-414E-B9D5-D69A3F44B124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5AECCF6F-801D-49D3-972A-947870F3C920}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3286" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3331" uniqueCount="20">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -447,11 +447,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D90D68-022F-4D80-B45F-E8F95C295EA5}">
-  <dimension ref="A1:O528"/>
+  <dimension ref="A1:O535"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A500" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N529" sqref="N529"/>
+      <selection pane="bottomLeft" activeCell="O529" sqref="O529"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12956,6 +12956,176 @@
         <v>13</v>
       </c>
     </row>
+    <row r="529" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A529" s="1">
+        <v>45334</v>
+      </c>
+      <c r="B529" t="s">
+        <v>12</v>
+      </c>
+      <c r="D529" t="s">
+        <v>1</v>
+      </c>
+      <c r="E529" t="s">
+        <v>1</v>
+      </c>
+      <c r="F529" t="s">
+        <v>1</v>
+      </c>
+      <c r="G529" t="s">
+        <v>1</v>
+      </c>
+      <c r="H529" t="s">
+        <v>13</v>
+      </c>
+      <c r="I529" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A530" s="1">
+        <v>45335</v>
+      </c>
+      <c r="B530" t="s">
+        <v>12</v>
+      </c>
+      <c r="C530" t="s">
+        <v>1</v>
+      </c>
+      <c r="D530" t="s">
+        <v>1</v>
+      </c>
+      <c r="E530" t="s">
+        <v>1</v>
+      </c>
+      <c r="F530" t="s">
+        <v>12</v>
+      </c>
+      <c r="G530" t="s">
+        <v>1</v>
+      </c>
+      <c r="H530" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="531" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A531" s="1">
+        <v>45336</v>
+      </c>
+      <c r="B531" t="s">
+        <v>12</v>
+      </c>
+      <c r="D531" t="s">
+        <v>1</v>
+      </c>
+      <c r="E531" t="s">
+        <v>1</v>
+      </c>
+      <c r="F531" t="s">
+        <v>1</v>
+      </c>
+      <c r="G531" t="s">
+        <v>1</v>
+      </c>
+      <c r="I531" t="s">
+        <v>1</v>
+      </c>
+      <c r="L531" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A532" s="1">
+        <v>45337</v>
+      </c>
+      <c r="B532" t="s">
+        <v>12</v>
+      </c>
+      <c r="C532" t="s">
+        <v>1</v>
+      </c>
+      <c r="G532" t="s">
+        <v>1</v>
+      </c>
+      <c r="H532" t="s">
+        <v>12</v>
+      </c>
+      <c r="N532" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A533" s="1">
+        <v>45338</v>
+      </c>
+      <c r="B533" t="s">
+        <v>12</v>
+      </c>
+      <c r="D533" t="s">
+        <v>1</v>
+      </c>
+      <c r="E533" t="s">
+        <v>1</v>
+      </c>
+      <c r="F533" t="s">
+        <v>12</v>
+      </c>
+      <c r="G533" t="s">
+        <v>1</v>
+      </c>
+      <c r="I533" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A534" s="1">
+        <v>45339</v>
+      </c>
+      <c r="B534" t="s">
+        <v>12</v>
+      </c>
+      <c r="C534" t="s">
+        <v>1</v>
+      </c>
+      <c r="D534" t="s">
+        <v>1</v>
+      </c>
+      <c r="E534" t="s">
+        <v>1</v>
+      </c>
+      <c r="F534" t="s">
+        <v>1</v>
+      </c>
+      <c r="G534" t="s">
+        <v>1</v>
+      </c>
+      <c r="H534" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="535" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A535" s="1">
+        <v>45340</v>
+      </c>
+      <c r="B535" t="s">
+        <v>12</v>
+      </c>
+      <c r="D535" t="s">
+        <v>1</v>
+      </c>
+      <c r="E535" t="s">
+        <v>1</v>
+      </c>
+      <c r="F535" t="s">
+        <v>1</v>
+      </c>
+      <c r="G535" t="s">
+        <v>1</v>
+      </c>
+      <c r="H535" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/Dailies.xlsx
+++ b/Data/Dailies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E4212C-371C-414E-B9D5-D69A3F44B124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7421134-32FD-4A9C-8A09-045029D2188F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5AECCF6F-801D-49D3-972A-947870F3C920}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3331" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3379" uniqueCount="21">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -96,6 +96,9 @@
   <si>
     <t>XXY</t>
   </si>
+  <si>
+    <t>S</t>
+  </si>
 </sst>
 </file>
 
@@ -151,9 +154,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -191,7 +194,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -297,7 +300,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -439,7 +442,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -447,11 +450,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D90D68-022F-4D80-B45F-E8F95C295EA5}">
-  <dimension ref="A1:O535"/>
+  <dimension ref="A1:O544"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A500" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O529" sqref="O529"/>
+      <pane ySplit="1" topLeftCell="A506" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O544" sqref="O544"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12956,7 +12959,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="529" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A529" s="1">
         <v>45334</v>
       </c>
@@ -12982,7 +12985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A530" s="1">
         <v>45335</v>
       </c>
@@ -13008,7 +13011,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="531" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A531" s="1">
         <v>45336</v>
       </c>
@@ -13034,7 +13037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A532" s="1">
         <v>45337</v>
       </c>
@@ -13054,7 +13057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A533" s="1">
         <v>45338</v>
       </c>
@@ -13077,7 +13080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A534" s="1">
         <v>45339</v>
       </c>
@@ -13103,7 +13106,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="535" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A535" s="1">
         <v>45340</v>
       </c>
@@ -13124,6 +13127,187 @@
       </c>
       <c r="H535" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="536" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A536" s="1">
+        <v>45341</v>
+      </c>
+      <c r="B536" t="s">
+        <v>12</v>
+      </c>
+      <c r="D536" t="s">
+        <v>1</v>
+      </c>
+      <c r="E536" t="s">
+        <v>1</v>
+      </c>
+      <c r="F536" t="s">
+        <v>1</v>
+      </c>
+      <c r="G536" t="s">
+        <v>1</v>
+      </c>
+      <c r="H536" t="s">
+        <v>13</v>
+      </c>
+      <c r="I536" t="s">
+        <v>1</v>
+      </c>
+      <c r="L536" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A537" s="1">
+        <v>45342</v>
+      </c>
+      <c r="B537" t="s">
+        <v>12</v>
+      </c>
+      <c r="C537" t="s">
+        <v>1</v>
+      </c>
+      <c r="D537" t="s">
+        <v>1</v>
+      </c>
+      <c r="E537" t="s">
+        <v>1</v>
+      </c>
+      <c r="F537" t="s">
+        <v>1</v>
+      </c>
+      <c r="G537" t="s">
+        <v>1</v>
+      </c>
+      <c r="H537" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="538" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A538" s="1">
+        <v>45343</v>
+      </c>
+      <c r="B538" t="s">
+        <v>12</v>
+      </c>
+      <c r="D538" t="s">
+        <v>1</v>
+      </c>
+      <c r="E538" t="s">
+        <v>1</v>
+      </c>
+      <c r="F538" t="s">
+        <v>1</v>
+      </c>
+      <c r="G538" t="s">
+        <v>1</v>
+      </c>
+      <c r="H538" t="s">
+        <v>13</v>
+      </c>
+      <c r="I538" t="s">
+        <v>1</v>
+      </c>
+      <c r="L538" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A539" s="1">
+        <v>45344</v>
+      </c>
+      <c r="B539" t="s">
+        <v>12</v>
+      </c>
+      <c r="C539" t="s">
+        <v>1</v>
+      </c>
+      <c r="G539" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A540" s="1">
+        <v>45345</v>
+      </c>
+      <c r="B540" t="s">
+        <v>12</v>
+      </c>
+      <c r="D540" t="s">
+        <v>1</v>
+      </c>
+      <c r="E540" t="s">
+        <v>1</v>
+      </c>
+      <c r="F540" t="s">
+        <v>12</v>
+      </c>
+      <c r="G540" t="s">
+        <v>1</v>
+      </c>
+      <c r="H540" t="s">
+        <v>13</v>
+      </c>
+      <c r="K540" t="s">
+        <v>1</v>
+      </c>
+      <c r="L540" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A541" s="1">
+        <v>45346</v>
+      </c>
+      <c r="B541" t="s">
+        <v>12</v>
+      </c>
+      <c r="C541" t="s">
+        <v>1</v>
+      </c>
+      <c r="D541" t="s">
+        <v>1</v>
+      </c>
+      <c r="E541" t="s">
+        <v>1</v>
+      </c>
+      <c r="F541" t="s">
+        <v>1</v>
+      </c>
+      <c r="G541" t="s">
+        <v>1</v>
+      </c>
+      <c r="I541" t="s">
+        <v>1</v>
+      </c>
+      <c r="N541" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A542" s="1">
+        <v>45347</v>
+      </c>
+      <c r="B542" t="s">
+        <v>12</v>
+      </c>
+      <c r="G542" t="s">
+        <v>1</v>
+      </c>
+      <c r="H542" t="s">
+        <v>13</v>
+      </c>
+      <c r="L542" t="s">
+        <v>1</v>
+      </c>
+      <c r="O542" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O544" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Dailies.xlsx
+++ b/Data/Dailies.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7421134-32FD-4A9C-8A09-045029D2188F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387D9463-1D6A-439C-9194-C76F9195A25D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5AECCF6F-801D-49D3-972A-947870F3C920}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3379" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3494" uniqueCount="20">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>XXY</t>
-  </si>
-  <si>
-    <t>S</t>
   </si>
 </sst>
 </file>
@@ -450,11 +447,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D90D68-022F-4D80-B45F-E8F95C295EA5}">
-  <dimension ref="A1:O544"/>
+  <dimension ref="A1:O556"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A506" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O544" sqref="O544"/>
+      <pane ySplit="1" topLeftCell="A524" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O554" sqref="O554"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13305,9 +13302,422 @@
         <v>1</v>
       </c>
     </row>
+    <row r="543" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A543" s="1">
+        <v>45348</v>
+      </c>
+      <c r="B543" t="s">
+        <v>12</v>
+      </c>
+      <c r="C543" t="s">
+        <v>1</v>
+      </c>
+      <c r="D543" t="s">
+        <v>1</v>
+      </c>
+      <c r="E543" t="s">
+        <v>1</v>
+      </c>
+      <c r="F543" t="s">
+        <v>12</v>
+      </c>
+      <c r="G543" t="s">
+        <v>1</v>
+      </c>
+      <c r="I543" t="s">
+        <v>1</v>
+      </c>
+      <c r="O543" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="544" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="O544" t="s">
-        <v>20</v>
+      <c r="A544" s="1">
+        <v>45349</v>
+      </c>
+      <c r="B544" t="s">
+        <v>12</v>
+      </c>
+      <c r="D544" t="s">
+        <v>1</v>
+      </c>
+      <c r="E544" t="s">
+        <v>1</v>
+      </c>
+      <c r="F544" t="s">
+        <v>1</v>
+      </c>
+      <c r="G544" t="s">
+        <v>1</v>
+      </c>
+      <c r="H544" t="s">
+        <v>13</v>
+      </c>
+      <c r="K544" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A545" s="1">
+        <v>45350</v>
+      </c>
+      <c r="B545" t="s">
+        <v>12</v>
+      </c>
+      <c r="C545" t="s">
+        <v>1</v>
+      </c>
+      <c r="D545" t="s">
+        <v>1</v>
+      </c>
+      <c r="F545" t="s">
+        <v>1</v>
+      </c>
+      <c r="G545" t="s">
+        <v>1</v>
+      </c>
+      <c r="I545" t="s">
+        <v>1</v>
+      </c>
+      <c r="L545" t="s">
+        <v>1</v>
+      </c>
+      <c r="N545" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A546" s="1">
+        <v>45351</v>
+      </c>
+      <c r="B546" t="s">
+        <v>12</v>
+      </c>
+      <c r="D546" t="s">
+        <v>1</v>
+      </c>
+      <c r="E546" t="s">
+        <v>1</v>
+      </c>
+      <c r="G546" t="s">
+        <v>1</v>
+      </c>
+      <c r="H546" t="s">
+        <v>13</v>
+      </c>
+      <c r="K546" t="s">
+        <v>1</v>
+      </c>
+      <c r="L546" t="s">
+        <v>1</v>
+      </c>
+      <c r="N546" t="s">
+        <v>1</v>
+      </c>
+      <c r="O546" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A547" s="1">
+        <v>45352</v>
+      </c>
+      <c r="B547" t="s">
+        <v>1</v>
+      </c>
+      <c r="C547" t="s">
+        <v>1</v>
+      </c>
+      <c r="D547" t="s">
+        <v>1</v>
+      </c>
+      <c r="E547" t="s">
+        <v>1</v>
+      </c>
+      <c r="F547" t="s">
+        <v>1</v>
+      </c>
+      <c r="G547" t="s">
+        <v>1</v>
+      </c>
+      <c r="H547" t="s">
+        <v>13</v>
+      </c>
+      <c r="K547" t="s">
+        <v>1</v>
+      </c>
+      <c r="N547" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A548" s="1">
+        <v>45353</v>
+      </c>
+      <c r="B548" t="s">
+        <v>12</v>
+      </c>
+      <c r="D548" t="s">
+        <v>1</v>
+      </c>
+      <c r="E548" t="s">
+        <v>1</v>
+      </c>
+      <c r="F548" t="s">
+        <v>1</v>
+      </c>
+      <c r="G548" t="s">
+        <v>1</v>
+      </c>
+      <c r="H548" t="s">
+        <v>13</v>
+      </c>
+      <c r="I548" t="s">
+        <v>1</v>
+      </c>
+      <c r="N548" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A549" s="1">
+        <v>45354</v>
+      </c>
+      <c r="B549" t="s">
+        <v>1</v>
+      </c>
+      <c r="C549" t="s">
+        <v>1</v>
+      </c>
+      <c r="D549" t="s">
+        <v>1</v>
+      </c>
+      <c r="E549" t="s">
+        <v>1</v>
+      </c>
+      <c r="F549" t="s">
+        <v>1</v>
+      </c>
+      <c r="G549" t="s">
+        <v>1</v>
+      </c>
+      <c r="H549" t="s">
+        <v>12</v>
+      </c>
+      <c r="K549" t="s">
+        <v>1</v>
+      </c>
+      <c r="L549" t="s">
+        <v>1</v>
+      </c>
+      <c r="N549" t="s">
+        <v>1</v>
+      </c>
+      <c r="O549" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A550" s="1">
+        <v>45355</v>
+      </c>
+      <c r="B550" t="s">
+        <v>13</v>
+      </c>
+      <c r="F550" t="s">
+        <v>12</v>
+      </c>
+      <c r="G550" t="s">
+        <v>1</v>
+      </c>
+      <c r="I550" t="s">
+        <v>1</v>
+      </c>
+      <c r="K550" t="s">
+        <v>1</v>
+      </c>
+      <c r="N550" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A551" s="1">
+        <v>45356</v>
+      </c>
+      <c r="B551" t="s">
+        <v>12</v>
+      </c>
+      <c r="C551" t="s">
+        <v>1</v>
+      </c>
+      <c r="D551" t="s">
+        <v>1</v>
+      </c>
+      <c r="E551" t="s">
+        <v>1</v>
+      </c>
+      <c r="F551" t="s">
+        <v>1</v>
+      </c>
+      <c r="G551" t="s">
+        <v>1</v>
+      </c>
+      <c r="H551" t="s">
+        <v>13</v>
+      </c>
+      <c r="K551" t="s">
+        <v>1</v>
+      </c>
+      <c r="L551" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A552" s="1">
+        <v>45357</v>
+      </c>
+      <c r="B552" t="s">
+        <v>12</v>
+      </c>
+      <c r="D552" t="s">
+        <v>1</v>
+      </c>
+      <c r="E552" t="s">
+        <v>1</v>
+      </c>
+      <c r="F552" t="s">
+        <v>1</v>
+      </c>
+      <c r="G552" t="s">
+        <v>1</v>
+      </c>
+      <c r="H552" t="s">
+        <v>13</v>
+      </c>
+      <c r="I552" t="s">
+        <v>1</v>
+      </c>
+      <c r="L552" t="s">
+        <v>1</v>
+      </c>
+      <c r="N552" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A553" s="1">
+        <v>45358</v>
+      </c>
+      <c r="B553" t="s">
+        <v>12</v>
+      </c>
+      <c r="C553" t="s">
+        <v>1</v>
+      </c>
+      <c r="D553" t="s">
+        <v>1</v>
+      </c>
+      <c r="E553" t="s">
+        <v>1</v>
+      </c>
+      <c r="F553" t="s">
+        <v>1</v>
+      </c>
+      <c r="G553" t="s">
+        <v>1</v>
+      </c>
+      <c r="H553" t="s">
+        <v>13</v>
+      </c>
+      <c r="I553" t="s">
+        <v>1</v>
+      </c>
+      <c r="N553" t="s">
+        <v>1</v>
+      </c>
+      <c r="O553" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A554" s="1">
+        <v>45359</v>
+      </c>
+      <c r="B554" t="s">
+        <v>12</v>
+      </c>
+      <c r="D554" t="s">
+        <v>1</v>
+      </c>
+      <c r="E554" t="s">
+        <v>1</v>
+      </c>
+      <c r="F554" t="s">
+        <v>1</v>
+      </c>
+      <c r="G554" t="s">
+        <v>1</v>
+      </c>
+      <c r="H554" t="s">
+        <v>1</v>
+      </c>
+      <c r="K554" t="s">
+        <v>1</v>
+      </c>
+      <c r="L554" t="s">
+        <v>1</v>
+      </c>
+      <c r="M554" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A555" s="1">
+        <v>45360</v>
+      </c>
+      <c r="B555" t="s">
+        <v>1</v>
+      </c>
+      <c r="C555" t="s">
+        <v>1</v>
+      </c>
+      <c r="D555" t="s">
+        <v>1</v>
+      </c>
+      <c r="E555" t="s">
+        <v>1</v>
+      </c>
+      <c r="F555" t="s">
+        <v>1</v>
+      </c>
+      <c r="G555" t="s">
+        <v>1</v>
+      </c>
+      <c r="K555" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A556" s="1">
+        <v>45361</v>
+      </c>
+      <c r="B556" t="s">
+        <v>12</v>
+      </c>
+      <c r="D556" t="s">
+        <v>1</v>
+      </c>
+      <c r="E556" t="s">
+        <v>1</v>
+      </c>
+      <c r="F556" t="s">
+        <v>1</v>
+      </c>
+      <c r="G556" t="s">
+        <v>1</v>
+      </c>
+      <c r="H556" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Dailies.xlsx
+++ b/Data/Dailies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387D9463-1D6A-439C-9194-C76F9195A25D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44058230-4383-40E4-B364-2CA8B312276A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5AECCF6F-801D-49D3-972A-947870F3C920}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3494" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3614" uniqueCount="20">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -447,11 +447,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D90D68-022F-4D80-B45F-E8F95C295EA5}">
-  <dimension ref="A1:O556"/>
+  <dimension ref="A1:O570"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A524" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O554" sqref="O554"/>
+      <pane ySplit="1" topLeftCell="A536" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N566" sqref="N566"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13720,6 +13720,436 @@
         <v>13</v>
       </c>
     </row>
+    <row r="557" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A557" s="1">
+        <v>45362</v>
+      </c>
+      <c r="B557" t="s">
+        <v>1</v>
+      </c>
+      <c r="C557" t="s">
+        <v>1</v>
+      </c>
+      <c r="D557" t="s">
+        <v>1</v>
+      </c>
+      <c r="E557" t="s">
+        <v>1</v>
+      </c>
+      <c r="F557" t="s">
+        <v>12</v>
+      </c>
+      <c r="G557" t="s">
+        <v>1</v>
+      </c>
+      <c r="K557" t="s">
+        <v>1</v>
+      </c>
+      <c r="L557" t="s">
+        <v>1</v>
+      </c>
+      <c r="M557" t="s">
+        <v>1</v>
+      </c>
+      <c r="O557" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A558" s="1">
+        <v>45363</v>
+      </c>
+      <c r="B558" t="s">
+        <v>12</v>
+      </c>
+      <c r="D558" t="s">
+        <v>1</v>
+      </c>
+      <c r="E558" t="s">
+        <v>1</v>
+      </c>
+      <c r="F558" t="s">
+        <v>12</v>
+      </c>
+      <c r="G558" t="s">
+        <v>1</v>
+      </c>
+      <c r="H558" t="s">
+        <v>13</v>
+      </c>
+      <c r="K558" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A559" s="1">
+        <v>45364</v>
+      </c>
+      <c r="B559" t="s">
+        <v>12</v>
+      </c>
+      <c r="C559" t="s">
+        <v>1</v>
+      </c>
+      <c r="D559" t="s">
+        <v>1</v>
+      </c>
+      <c r="E559" t="s">
+        <v>1</v>
+      </c>
+      <c r="F559" t="s">
+        <v>1</v>
+      </c>
+      <c r="G559" t="s">
+        <v>1</v>
+      </c>
+      <c r="H559" t="s">
+        <v>13</v>
+      </c>
+      <c r="L559" t="s">
+        <v>1</v>
+      </c>
+      <c r="M559" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A560" s="1">
+        <v>45365</v>
+      </c>
+      <c r="B560" t="s">
+        <v>12</v>
+      </c>
+      <c r="F560" t="s">
+        <v>1</v>
+      </c>
+      <c r="G560" t="s">
+        <v>1</v>
+      </c>
+      <c r="H560" t="s">
+        <v>13</v>
+      </c>
+      <c r="I560" t="s">
+        <v>1</v>
+      </c>
+      <c r="M560" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A561" s="1">
+        <v>45366</v>
+      </c>
+      <c r="B561" t="s">
+        <v>12</v>
+      </c>
+      <c r="C561" t="s">
+        <v>1</v>
+      </c>
+      <c r="D561" t="s">
+        <v>1</v>
+      </c>
+      <c r="E561" t="s">
+        <v>1</v>
+      </c>
+      <c r="F561" t="s">
+        <v>1</v>
+      </c>
+      <c r="G561" t="s">
+        <v>1</v>
+      </c>
+      <c r="H561" t="s">
+        <v>13</v>
+      </c>
+      <c r="M561" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A562" s="1">
+        <v>45367</v>
+      </c>
+      <c r="F562" t="s">
+        <v>1</v>
+      </c>
+      <c r="G562" t="s">
+        <v>1</v>
+      </c>
+      <c r="H562" t="s">
+        <v>12</v>
+      </c>
+      <c r="I562" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A563" s="1">
+        <v>45368</v>
+      </c>
+      <c r="B563" t="s">
+        <v>12</v>
+      </c>
+      <c r="C563" t="s">
+        <v>1</v>
+      </c>
+      <c r="E563" t="s">
+        <v>1</v>
+      </c>
+      <c r="F563" t="s">
+        <v>1</v>
+      </c>
+      <c r="G563" t="s">
+        <v>1</v>
+      </c>
+      <c r="H563" t="s">
+        <v>13</v>
+      </c>
+      <c r="N563" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A564" s="1">
+        <v>45369</v>
+      </c>
+      <c r="B564" t="s">
+        <v>12</v>
+      </c>
+      <c r="D564" t="s">
+        <v>1</v>
+      </c>
+      <c r="E564" t="s">
+        <v>1</v>
+      </c>
+      <c r="F564" t="s">
+        <v>12</v>
+      </c>
+      <c r="G564" t="s">
+        <v>1</v>
+      </c>
+      <c r="H564" t="s">
+        <v>13</v>
+      </c>
+      <c r="I564" t="s">
+        <v>1</v>
+      </c>
+      <c r="L564" t="s">
+        <v>1</v>
+      </c>
+      <c r="M564" t="s">
+        <v>1</v>
+      </c>
+      <c r="N564" t="s">
+        <v>1</v>
+      </c>
+      <c r="O564" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A565" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B565" t="s">
+        <v>12</v>
+      </c>
+      <c r="C565" t="s">
+        <v>1</v>
+      </c>
+      <c r="D565" t="s">
+        <v>1</v>
+      </c>
+      <c r="E565" t="s">
+        <v>1</v>
+      </c>
+      <c r="F565" t="s">
+        <v>1</v>
+      </c>
+      <c r="G565" t="s">
+        <v>1</v>
+      </c>
+      <c r="H565" t="s">
+        <v>13</v>
+      </c>
+      <c r="K565" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A566" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B566" t="s">
+        <v>12</v>
+      </c>
+      <c r="D566" t="s">
+        <v>1</v>
+      </c>
+      <c r="E566" t="s">
+        <v>1</v>
+      </c>
+      <c r="F566" t="s">
+        <v>12</v>
+      </c>
+      <c r="G566" t="s">
+        <v>1</v>
+      </c>
+      <c r="H566" t="s">
+        <v>13</v>
+      </c>
+      <c r="I566" t="s">
+        <v>1</v>
+      </c>
+      <c r="L566" t="s">
+        <v>1</v>
+      </c>
+      <c r="N566" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A567" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B567" t="s">
+        <v>12</v>
+      </c>
+      <c r="C567" t="s">
+        <v>1</v>
+      </c>
+      <c r="D567" t="s">
+        <v>1</v>
+      </c>
+      <c r="E567" t="s">
+        <v>1</v>
+      </c>
+      <c r="F567" t="s">
+        <v>1</v>
+      </c>
+      <c r="G567" t="s">
+        <v>1</v>
+      </c>
+      <c r="H567" t="s">
+        <v>12</v>
+      </c>
+      <c r="J567" t="s">
+        <v>1</v>
+      </c>
+      <c r="K567" t="s">
+        <v>1</v>
+      </c>
+      <c r="L567" t="s">
+        <v>1</v>
+      </c>
+      <c r="M567" t="s">
+        <v>1</v>
+      </c>
+      <c r="N567" t="s">
+        <v>1</v>
+      </c>
+      <c r="O567" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A568" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B568" t="s">
+        <v>12</v>
+      </c>
+      <c r="D568" t="s">
+        <v>1</v>
+      </c>
+      <c r="E568" t="s">
+        <v>1</v>
+      </c>
+      <c r="F568" t="s">
+        <v>1</v>
+      </c>
+      <c r="G568" t="s">
+        <v>1</v>
+      </c>
+      <c r="H568" t="s">
+        <v>13</v>
+      </c>
+      <c r="I568" t="s">
+        <v>1</v>
+      </c>
+      <c r="K568" t="s">
+        <v>1</v>
+      </c>
+      <c r="N568" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A569" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B569" t="s">
+        <v>12</v>
+      </c>
+      <c r="C569" t="s">
+        <v>1</v>
+      </c>
+      <c r="D569" t="s">
+        <v>1</v>
+      </c>
+      <c r="E569" t="s">
+        <v>1</v>
+      </c>
+      <c r="G569" t="s">
+        <v>1</v>
+      </c>
+      <c r="H569" t="s">
+        <v>13</v>
+      </c>
+      <c r="K569" t="s">
+        <v>1</v>
+      </c>
+      <c r="N569" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A570" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B570" t="s">
+        <v>12</v>
+      </c>
+      <c r="D570" t="s">
+        <v>1</v>
+      </c>
+      <c r="E570" t="s">
+        <v>1</v>
+      </c>
+      <c r="F570" t="s">
+        <v>1</v>
+      </c>
+      <c r="G570" t="s">
+        <v>1</v>
+      </c>
+      <c r="H570" t="s">
+        <v>12</v>
+      </c>
+      <c r="K570" t="s">
+        <v>1</v>
+      </c>
+      <c r="L570" t="s">
+        <v>1</v>
+      </c>
+      <c r="M570" t="s">
+        <v>1</v>
+      </c>
+      <c r="N570" t="s">
+        <v>1</v>
+      </c>
+      <c r="O570" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/Dailies.xlsx
+++ b/Data/Dailies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44058230-4383-40E4-B364-2CA8B312276A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB58246-6958-4048-8D0C-CB7D1BFDD49A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5AECCF6F-801D-49D3-972A-947870F3C920}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3614" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3676" uniqueCount="20">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -447,11 +447,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D90D68-022F-4D80-B45F-E8F95C295EA5}">
-  <dimension ref="A1:O570"/>
+  <dimension ref="A1:O577"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A536" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N566" sqref="N566"/>
+      <pane ySplit="1" topLeftCell="A545" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O577" sqref="O577"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14150,6 +14150,227 @@
         <v>1</v>
       </c>
     </row>
+    <row r="571" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A571" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B571" t="s">
+        <v>12</v>
+      </c>
+      <c r="C571" t="s">
+        <v>1</v>
+      </c>
+      <c r="D571" t="s">
+        <v>1</v>
+      </c>
+      <c r="E571" t="s">
+        <v>1</v>
+      </c>
+      <c r="F571" t="s">
+        <v>12</v>
+      </c>
+      <c r="G571" t="s">
+        <v>1</v>
+      </c>
+      <c r="H571" t="s">
+        <v>13</v>
+      </c>
+      <c r="I571" t="s">
+        <v>1</v>
+      </c>
+      <c r="L571" t="s">
+        <v>1</v>
+      </c>
+      <c r="M571" t="s">
+        <v>1</v>
+      </c>
+      <c r="N571" t="s">
+        <v>1</v>
+      </c>
+      <c r="O571" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A572" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B572" t="s">
+        <v>12</v>
+      </c>
+      <c r="D572" t="s">
+        <v>1</v>
+      </c>
+      <c r="E572" t="s">
+        <v>1</v>
+      </c>
+      <c r="F572" t="s">
+        <v>1</v>
+      </c>
+      <c r="G572" t="s">
+        <v>1</v>
+      </c>
+      <c r="H572" t="s">
+        <v>13</v>
+      </c>
+      <c r="K572" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A573" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B573" t="s">
+        <v>12</v>
+      </c>
+      <c r="C573" t="s">
+        <v>1</v>
+      </c>
+      <c r="D573" t="s">
+        <v>1</v>
+      </c>
+      <c r="E573" t="s">
+        <v>1</v>
+      </c>
+      <c r="F573" t="s">
+        <v>12</v>
+      </c>
+      <c r="G573" t="s">
+        <v>1</v>
+      </c>
+      <c r="I573" t="s">
+        <v>1</v>
+      </c>
+      <c r="L573" t="s">
+        <v>1</v>
+      </c>
+      <c r="M573" t="s">
+        <v>1</v>
+      </c>
+      <c r="N573" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="574" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A574" s="1">
+        <v>45379</v>
+      </c>
+      <c r="B574" t="s">
+        <v>12</v>
+      </c>
+      <c r="D574" t="s">
+        <v>1</v>
+      </c>
+      <c r="E574" t="s">
+        <v>1</v>
+      </c>
+      <c r="F574" t="s">
+        <v>1</v>
+      </c>
+      <c r="H574" t="s">
+        <v>13</v>
+      </c>
+      <c r="K574" t="s">
+        <v>1</v>
+      </c>
+      <c r="M574" t="s">
+        <v>1</v>
+      </c>
+      <c r="N574" t="s">
+        <v>1</v>
+      </c>
+      <c r="O574" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A575" s="1">
+        <v>45380</v>
+      </c>
+      <c r="B575" t="s">
+        <v>12</v>
+      </c>
+      <c r="C575" t="s">
+        <v>1</v>
+      </c>
+      <c r="D575" t="s">
+        <v>1</v>
+      </c>
+      <c r="E575" t="s">
+        <v>1</v>
+      </c>
+      <c r="F575" t="s">
+        <v>1</v>
+      </c>
+      <c r="G575" t="s">
+        <v>1</v>
+      </c>
+      <c r="H575" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="576" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A576" s="1">
+        <v>45381</v>
+      </c>
+      <c r="B576" t="s">
+        <v>12</v>
+      </c>
+      <c r="D576" t="s">
+        <v>1</v>
+      </c>
+      <c r="F576" t="s">
+        <v>1</v>
+      </c>
+      <c r="G576" t="s">
+        <v>1</v>
+      </c>
+      <c r="H576" t="s">
+        <v>13</v>
+      </c>
+      <c r="I576" t="s">
+        <v>1</v>
+      </c>
+      <c r="L576" t="s">
+        <v>1</v>
+      </c>
+      <c r="M576" t="s">
+        <v>1</v>
+      </c>
+      <c r="N576" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A577" s="1">
+        <v>45382</v>
+      </c>
+      <c r="B577" t="s">
+        <v>13</v>
+      </c>
+      <c r="C577" t="s">
+        <v>1</v>
+      </c>
+      <c r="F577" t="s">
+        <v>1</v>
+      </c>
+      <c r="G577" t="s">
+        <v>1</v>
+      </c>
+      <c r="H577" t="s">
+        <v>13</v>
+      </c>
+      <c r="K577" t="s">
+        <v>1</v>
+      </c>
+      <c r="M577" t="s">
+        <v>1</v>
+      </c>
+      <c r="N577" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/Dailies.xlsx
+++ b/Data/Dailies.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB58246-6958-4048-8D0C-CB7D1BFDD49A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A46327-FC33-4B61-97BF-5AF1A04CD851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5AECCF6F-801D-49D3-972A-947870F3C920}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3676" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3787" uniqueCount="20">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -447,11 +447,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D90D68-022F-4D80-B45F-E8F95C295EA5}">
-  <dimension ref="A1:O577"/>
+  <dimension ref="A1:O591"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A545" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O577" sqref="O577"/>
+      <pane ySplit="1" topLeftCell="A551" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O585" sqref="O585"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14342,7 +14342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="577" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A577" s="1">
         <v>45382</v>
       </c>
@@ -14368,6 +14368,409 @@
         <v>1</v>
       </c>
       <c r="N577" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A578" s="1">
+        <v>45383</v>
+      </c>
+      <c r="B578" t="s">
+        <v>12</v>
+      </c>
+      <c r="D578" t="s">
+        <v>1</v>
+      </c>
+      <c r="E578" t="s">
+        <v>1</v>
+      </c>
+      <c r="F578" t="s">
+        <v>1</v>
+      </c>
+      <c r="G578" t="s">
+        <v>1</v>
+      </c>
+      <c r="I578" t="s">
+        <v>1</v>
+      </c>
+      <c r="J578" t="s">
+        <v>1</v>
+      </c>
+      <c r="K578" t="s">
+        <v>1</v>
+      </c>
+      <c r="N578" t="s">
+        <v>1</v>
+      </c>
+      <c r="O578" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A579" s="1">
+        <v>45384</v>
+      </c>
+      <c r="B579" t="s">
+        <v>12</v>
+      </c>
+      <c r="C579" t="s">
+        <v>1</v>
+      </c>
+      <c r="D579" t="s">
+        <v>1</v>
+      </c>
+      <c r="E579" t="s">
+        <v>1</v>
+      </c>
+      <c r="F579" t="s">
+        <v>12</v>
+      </c>
+      <c r="G579" t="s">
+        <v>1</v>
+      </c>
+      <c r="H579" t="s">
+        <v>13</v>
+      </c>
+      <c r="K579" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A580" s="1">
+        <v>45385</v>
+      </c>
+      <c r="B580" t="s">
+        <v>12</v>
+      </c>
+      <c r="D580" t="s">
+        <v>1</v>
+      </c>
+      <c r="E580" t="s">
+        <v>1</v>
+      </c>
+      <c r="F580" t="s">
+        <v>12</v>
+      </c>
+      <c r="G580" t="s">
+        <v>1</v>
+      </c>
+      <c r="H580" t="s">
+        <v>13</v>
+      </c>
+      <c r="I580" t="s">
+        <v>1</v>
+      </c>
+      <c r="N580" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A581" s="1">
+        <v>45386</v>
+      </c>
+      <c r="B581" t="s">
+        <v>12</v>
+      </c>
+      <c r="C581" t="s">
+        <v>1</v>
+      </c>
+      <c r="D581" t="s">
+        <v>1</v>
+      </c>
+      <c r="E581" t="s">
+        <v>1</v>
+      </c>
+      <c r="G581" t="s">
+        <v>1</v>
+      </c>
+      <c r="H581" t="s">
+        <v>13</v>
+      </c>
+      <c r="L581" t="s">
+        <v>1</v>
+      </c>
+      <c r="O581" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A582" s="1">
+        <v>45387</v>
+      </c>
+      <c r="B582" t="s">
+        <v>12</v>
+      </c>
+      <c r="D582" t="s">
+        <v>1</v>
+      </c>
+      <c r="E582" t="s">
+        <v>1</v>
+      </c>
+      <c r="F582" t="s">
+        <v>1</v>
+      </c>
+      <c r="G582" t="s">
+        <v>1</v>
+      </c>
+      <c r="H582" t="s">
+        <v>13</v>
+      </c>
+      <c r="I582" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A583" s="1">
+        <v>45388</v>
+      </c>
+      <c r="B583" t="s">
+        <v>12</v>
+      </c>
+      <c r="C583" t="s">
+        <v>1</v>
+      </c>
+      <c r="D583" t="s">
+        <v>1</v>
+      </c>
+      <c r="E583" t="s">
+        <v>1</v>
+      </c>
+      <c r="F583" t="s">
+        <v>12</v>
+      </c>
+      <c r="G583" t="s">
+        <v>1</v>
+      </c>
+      <c r="H583" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="584" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A584" s="1">
+        <v>45389</v>
+      </c>
+      <c r="B584" t="s">
+        <v>12</v>
+      </c>
+      <c r="D584" t="s">
+        <v>1</v>
+      </c>
+      <c r="E584" t="s">
+        <v>1</v>
+      </c>
+      <c r="F584" t="s">
+        <v>1</v>
+      </c>
+      <c r="G584" t="s">
+        <v>1</v>
+      </c>
+      <c r="H584" t="s">
+        <v>13</v>
+      </c>
+      <c r="L584" t="s">
+        <v>1</v>
+      </c>
+      <c r="N584" t="s">
+        <v>1</v>
+      </c>
+      <c r="O584" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A585" s="1">
+        <v>45390</v>
+      </c>
+      <c r="B585" t="s">
+        <v>12</v>
+      </c>
+      <c r="C585" t="s">
+        <v>1</v>
+      </c>
+      <c r="D585" t="s">
+        <v>1</v>
+      </c>
+      <c r="E585" t="s">
+        <v>1</v>
+      </c>
+      <c r="F585" t="s">
+        <v>12</v>
+      </c>
+      <c r="G585" t="s">
+        <v>1</v>
+      </c>
+      <c r="H585" t="s">
+        <v>13</v>
+      </c>
+      <c r="I585" t="s">
+        <v>1</v>
+      </c>
+      <c r="N585" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A586" s="1">
+        <v>45391</v>
+      </c>
+      <c r="B586" t="s">
+        <v>1</v>
+      </c>
+      <c r="D586" t="s">
+        <v>1</v>
+      </c>
+      <c r="E586" t="s">
+        <v>1</v>
+      </c>
+      <c r="F586" t="s">
+        <v>1</v>
+      </c>
+      <c r="G586" t="s">
+        <v>1</v>
+      </c>
+      <c r="H586" t="s">
+        <v>13</v>
+      </c>
+      <c r="K586" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A587" s="1">
+        <v>45392</v>
+      </c>
+      <c r="B587" t="s">
+        <v>12</v>
+      </c>
+      <c r="C587" t="s">
+        <v>1</v>
+      </c>
+      <c r="D587" t="s">
+        <v>1</v>
+      </c>
+      <c r="E587" t="s">
+        <v>1</v>
+      </c>
+      <c r="F587" t="s">
+        <v>12</v>
+      </c>
+      <c r="G587" t="s">
+        <v>1</v>
+      </c>
+      <c r="H587" t="s">
+        <v>13</v>
+      </c>
+      <c r="I587" t="s">
+        <v>1</v>
+      </c>
+      <c r="L587" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A588" s="1">
+        <v>45393</v>
+      </c>
+      <c r="B588" t="s">
+        <v>13</v>
+      </c>
+      <c r="F588" t="s">
+        <v>1</v>
+      </c>
+      <c r="G588" t="s">
+        <v>1</v>
+      </c>
+      <c r="H588" t="s">
+        <v>12</v>
+      </c>
+      <c r="N588" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="589" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A589" s="1">
+        <v>45394</v>
+      </c>
+      <c r="B589" t="s">
+        <v>12</v>
+      </c>
+      <c r="D589" t="s">
+        <v>1</v>
+      </c>
+      <c r="E589" t="s">
+        <v>1</v>
+      </c>
+      <c r="F589" t="s">
+        <v>1</v>
+      </c>
+      <c r="G589" t="s">
+        <v>1</v>
+      </c>
+      <c r="H589" t="s">
+        <v>13</v>
+      </c>
+      <c r="N589" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="590" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A590" s="1">
+        <v>45395</v>
+      </c>
+      <c r="B590" t="s">
+        <v>1</v>
+      </c>
+      <c r="C590" t="s">
+        <v>1</v>
+      </c>
+      <c r="D590" t="s">
+        <v>1</v>
+      </c>
+      <c r="E590" t="s">
+        <v>1</v>
+      </c>
+      <c r="F590" t="s">
+        <v>1</v>
+      </c>
+      <c r="G590" t="s">
+        <v>1</v>
+      </c>
+      <c r="H590" t="s">
+        <v>13</v>
+      </c>
+      <c r="I590" t="s">
+        <v>1</v>
+      </c>
+      <c r="N590" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="591" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A591" s="1">
+        <v>45396</v>
+      </c>
+      <c r="B591" t="s">
+        <v>12</v>
+      </c>
+      <c r="D591" t="s">
+        <v>1</v>
+      </c>
+      <c r="E591" t="s">
+        <v>1</v>
+      </c>
+      <c r="G591" t="s">
+        <v>1</v>
+      </c>
+      <c r="H591" t="s">
+        <v>13</v>
+      </c>
+      <c r="K591" t="s">
+        <v>1</v>
+      </c>
+      <c r="L591" t="s">
+        <v>1</v>
+      </c>
+      <c r="N591" t="s">
         <v>1</v>
       </c>
     </row>

--- a/Data/Dailies.xlsx
+++ b/Data/Dailies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A46327-FC33-4B61-97BF-5AF1A04CD851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D7EDF3-7384-46BD-A81E-5A46E7F09F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5AECCF6F-801D-49D3-972A-947870F3C920}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3787" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3840" uniqueCount="20">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -447,11 +447,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D90D68-022F-4D80-B45F-E8F95C295EA5}">
-  <dimension ref="A1:O591"/>
+  <dimension ref="A1:O598"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A551" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O585" sqref="O585"/>
+      <pane ySplit="1" topLeftCell="A563" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O592" sqref="O592"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14774,6 +14774,200 @@
         <v>1</v>
       </c>
     </row>
+    <row r="592" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A592" s="1">
+        <v>45397</v>
+      </c>
+      <c r="B592" t="s">
+        <v>12</v>
+      </c>
+      <c r="C592" t="s">
+        <v>1</v>
+      </c>
+      <c r="D592" t="s">
+        <v>1</v>
+      </c>
+      <c r="E592" t="s">
+        <v>1</v>
+      </c>
+      <c r="F592" t="s">
+        <v>1</v>
+      </c>
+      <c r="G592" t="s">
+        <v>1</v>
+      </c>
+      <c r="H592" t="s">
+        <v>13</v>
+      </c>
+      <c r="I592" t="s">
+        <v>1</v>
+      </c>
+      <c r="K592" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="593" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A593" s="1">
+        <v>45398</v>
+      </c>
+      <c r="B593" t="s">
+        <v>12</v>
+      </c>
+      <c r="D593" t="s">
+        <v>1</v>
+      </c>
+      <c r="E593" t="s">
+        <v>1</v>
+      </c>
+      <c r="F593" t="s">
+        <v>1</v>
+      </c>
+      <c r="G593" t="s">
+        <v>1</v>
+      </c>
+      <c r="H593" t="s">
+        <v>13</v>
+      </c>
+      <c r="K593" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A594" s="1">
+        <v>45399</v>
+      </c>
+      <c r="B594" t="s">
+        <v>12</v>
+      </c>
+      <c r="C594" t="s">
+        <v>1</v>
+      </c>
+      <c r="D594" t="s">
+        <v>1</v>
+      </c>
+      <c r="E594" t="s">
+        <v>1</v>
+      </c>
+      <c r="F594" t="s">
+        <v>1</v>
+      </c>
+      <c r="G594" t="s">
+        <v>1</v>
+      </c>
+      <c r="H594" t="s">
+        <v>12</v>
+      </c>
+      <c r="J594" t="s">
+        <v>1</v>
+      </c>
+      <c r="L594" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="595" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A595" s="1">
+        <v>45400</v>
+      </c>
+      <c r="B595" t="s">
+        <v>12</v>
+      </c>
+      <c r="D595" t="s">
+        <v>1</v>
+      </c>
+      <c r="E595" t="s">
+        <v>1</v>
+      </c>
+      <c r="G595" t="s">
+        <v>1</v>
+      </c>
+      <c r="H595" t="s">
+        <v>13</v>
+      </c>
+      <c r="N595" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="596" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A596" s="1">
+        <v>45401</v>
+      </c>
+      <c r="B596" t="s">
+        <v>12</v>
+      </c>
+      <c r="C596" t="s">
+        <v>1</v>
+      </c>
+      <c r="D596" t="s">
+        <v>1</v>
+      </c>
+      <c r="E596" t="s">
+        <v>1</v>
+      </c>
+      <c r="F596" t="s">
+        <v>1</v>
+      </c>
+      <c r="G596" t="s">
+        <v>1</v>
+      </c>
+      <c r="H596" t="s">
+        <v>13</v>
+      </c>
+      <c r="L596" t="s">
+        <v>1</v>
+      </c>
+      <c r="N596" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="597" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A597" s="1">
+        <v>45402</v>
+      </c>
+      <c r="B597" t="s">
+        <v>1</v>
+      </c>
+      <c r="F597" t="s">
+        <v>12</v>
+      </c>
+      <c r="G597" t="s">
+        <v>1</v>
+      </c>
+      <c r="I597" t="s">
+        <v>1</v>
+      </c>
+      <c r="J597" t="s">
+        <v>1</v>
+      </c>
+      <c r="N597" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="598" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A598" s="1">
+        <v>45403</v>
+      </c>
+      <c r="B598" t="s">
+        <v>1</v>
+      </c>
+      <c r="C598" t="s">
+        <v>1</v>
+      </c>
+      <c r="D598" t="s">
+        <v>1</v>
+      </c>
+      <c r="E598" t="s">
+        <v>1</v>
+      </c>
+      <c r="G598" t="s">
+        <v>1</v>
+      </c>
+      <c r="H598" t="s">
+        <v>13</v>
+      </c>
+      <c r="N598" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/Dailies.xlsx
+++ b/Data/Dailies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D7EDF3-7384-46BD-A81E-5A46E7F09F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4B1A2E-5523-4FD3-B81A-2241B59748D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5AECCF6F-801D-49D3-972A-947870F3C920}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3840" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3889" uniqueCount="20">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -447,11 +447,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D90D68-022F-4D80-B45F-E8F95C295EA5}">
-  <dimension ref="A1:O598"/>
+  <dimension ref="A1:O605"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A563" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O592" sqref="O592"/>
+      <pane ySplit="1" topLeftCell="A572" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O599" sqref="O599"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14968,6 +14968,188 @@
         <v>1</v>
       </c>
     </row>
+    <row r="599" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A599" s="1">
+        <v>45404</v>
+      </c>
+      <c r="B599" t="s">
+        <v>12</v>
+      </c>
+      <c r="D599" t="s">
+        <v>1</v>
+      </c>
+      <c r="E599" t="s">
+        <v>1</v>
+      </c>
+      <c r="F599" t="s">
+        <v>1</v>
+      </c>
+      <c r="G599" t="s">
+        <v>1</v>
+      </c>
+      <c r="H599" t="s">
+        <v>13</v>
+      </c>
+      <c r="I599" t="s">
+        <v>1</v>
+      </c>
+      <c r="J599" t="s">
+        <v>1</v>
+      </c>
+      <c r="N599" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="600" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A600" s="1">
+        <v>45405</v>
+      </c>
+      <c r="B600" t="s">
+        <v>12</v>
+      </c>
+      <c r="C600" t="s">
+        <v>1</v>
+      </c>
+      <c r="D600" t="s">
+        <v>1</v>
+      </c>
+      <c r="E600" t="s">
+        <v>1</v>
+      </c>
+      <c r="F600" t="s">
+        <v>1</v>
+      </c>
+      <c r="G600" t="s">
+        <v>1</v>
+      </c>
+      <c r="H600" t="s">
+        <v>13</v>
+      </c>
+      <c r="K600" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="601" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A601" s="1">
+        <v>45406</v>
+      </c>
+      <c r="B601" t="s">
+        <v>1</v>
+      </c>
+      <c r="D601" t="s">
+        <v>1</v>
+      </c>
+      <c r="E601" t="s">
+        <v>1</v>
+      </c>
+      <c r="F601" t="s">
+        <v>1</v>
+      </c>
+      <c r="G601" t="s">
+        <v>1</v>
+      </c>
+      <c r="H601" t="s">
+        <v>13</v>
+      </c>
+      <c r="J601" t="s">
+        <v>1</v>
+      </c>
+      <c r="L601" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="602" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A602" s="1">
+        <v>45407</v>
+      </c>
+      <c r="B602" t="s">
+        <v>13</v>
+      </c>
+      <c r="C602" t="s">
+        <v>1</v>
+      </c>
+      <c r="G602" t="s">
+        <v>1</v>
+      </c>
+      <c r="H602" t="s">
+        <v>13</v>
+      </c>
+      <c r="L602" t="s">
+        <v>1</v>
+      </c>
+      <c r="N602" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="603" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A603" s="1">
+        <v>45408</v>
+      </c>
+      <c r="B603" t="s">
+        <v>12</v>
+      </c>
+      <c r="D603" t="s">
+        <v>1</v>
+      </c>
+      <c r="E603" t="s">
+        <v>1</v>
+      </c>
+      <c r="F603" t="s">
+        <v>1</v>
+      </c>
+      <c r="G603" t="s">
+        <v>1</v>
+      </c>
+      <c r="H603" t="s">
+        <v>13</v>
+      </c>
+      <c r="K603" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="604" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A604" s="1">
+        <v>45409</v>
+      </c>
+      <c r="B604" t="s">
+        <v>13</v>
+      </c>
+      <c r="C604" t="s">
+        <v>1</v>
+      </c>
+      <c r="F604" t="s">
+        <v>1</v>
+      </c>
+      <c r="G604" t="s">
+        <v>1</v>
+      </c>
+      <c r="I604" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="605" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A605" s="1">
+        <v>45410</v>
+      </c>
+      <c r="B605" t="s">
+        <v>12</v>
+      </c>
+      <c r="F605" t="s">
+        <v>1</v>
+      </c>
+      <c r="G605" t="s">
+        <v>1</v>
+      </c>
+      <c r="I605" t="s">
+        <v>1</v>
+      </c>
+      <c r="K605" t="s">
+        <v>1</v>
+      </c>
+      <c r="N605" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/Dailies.xlsx
+++ b/Data/Dailies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4B1A2E-5523-4FD3-B81A-2241B59748D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FFCAC1-37B0-4F97-B1F0-E03C03494437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5AECCF6F-801D-49D3-972A-947870F3C920}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3889" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3939" uniqueCount="20">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -447,11 +447,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D90D68-022F-4D80-B45F-E8F95C295EA5}">
-  <dimension ref="A1:O605"/>
+  <dimension ref="A1:O612"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A572" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O599" sqref="O599"/>
+      <pane ySplit="1" topLeftCell="A578" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O606" sqref="O606"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15150,6 +15150,191 @@
         <v>1</v>
       </c>
     </row>
+    <row r="606" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A606" s="1">
+        <v>45411</v>
+      </c>
+      <c r="B606" t="s">
+        <v>12</v>
+      </c>
+      <c r="C606" t="s">
+        <v>1</v>
+      </c>
+      <c r="D606" t="s">
+        <v>1</v>
+      </c>
+      <c r="E606" t="s">
+        <v>1</v>
+      </c>
+      <c r="F606" t="s">
+        <v>12</v>
+      </c>
+      <c r="G606" t="s">
+        <v>1</v>
+      </c>
+      <c r="J606" t="s">
+        <v>1</v>
+      </c>
+      <c r="K606" t="s">
+        <v>1</v>
+      </c>
+      <c r="L606" t="s">
+        <v>1</v>
+      </c>
+      <c r="N606" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="607" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A607" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B607" t="s">
+        <v>12</v>
+      </c>
+      <c r="D607" t="s">
+        <v>1</v>
+      </c>
+      <c r="E607" t="s">
+        <v>1</v>
+      </c>
+      <c r="F607" t="s">
+        <v>12</v>
+      </c>
+      <c r="G607" t="s">
+        <v>1</v>
+      </c>
+      <c r="K607" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="608" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A608" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B608" t="s">
+        <v>12</v>
+      </c>
+      <c r="C608" t="s">
+        <v>1</v>
+      </c>
+      <c r="D608" t="s">
+        <v>1</v>
+      </c>
+      <c r="E608" t="s">
+        <v>1</v>
+      </c>
+      <c r="F608" t="s">
+        <v>12</v>
+      </c>
+      <c r="G608" t="s">
+        <v>1</v>
+      </c>
+      <c r="I608" t="s">
+        <v>1</v>
+      </c>
+      <c r="L608" t="s">
+        <v>1</v>
+      </c>
+      <c r="N608" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="609" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A609" s="1">
+        <v>45414</v>
+      </c>
+      <c r="G609" t="s">
+        <v>1</v>
+      </c>
+      <c r="K609" t="s">
+        <v>1</v>
+      </c>
+      <c r="N609" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="610" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A610" s="1">
+        <v>45415</v>
+      </c>
+      <c r="B610" t="s">
+        <v>12</v>
+      </c>
+      <c r="C610" t="s">
+        <v>1</v>
+      </c>
+      <c r="D610" t="s">
+        <v>1</v>
+      </c>
+      <c r="E610" t="s">
+        <v>1</v>
+      </c>
+      <c r="F610" t="s">
+        <v>1</v>
+      </c>
+      <c r="G610" t="s">
+        <v>1</v>
+      </c>
+      <c r="I610" t="s">
+        <v>1</v>
+      </c>
+      <c r="N610" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="611" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A611" s="1">
+        <v>45416</v>
+      </c>
+      <c r="B611" t="s">
+        <v>12</v>
+      </c>
+      <c r="D611" t="s">
+        <v>1</v>
+      </c>
+      <c r="E611" t="s">
+        <v>1</v>
+      </c>
+      <c r="F611" t="s">
+        <v>1</v>
+      </c>
+      <c r="G611" t="s">
+        <v>1</v>
+      </c>
+      <c r="H611" t="s">
+        <v>13</v>
+      </c>
+      <c r="L611" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="612" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A612" s="1">
+        <v>45417</v>
+      </c>
+      <c r="B612" t="s">
+        <v>12</v>
+      </c>
+      <c r="C612" t="s">
+        <v>1</v>
+      </c>
+      <c r="D612" t="s">
+        <v>1</v>
+      </c>
+      <c r="E612" t="s">
+        <v>1</v>
+      </c>
+      <c r="F612" t="s">
+        <v>1</v>
+      </c>
+      <c r="G612" t="s">
+        <v>1</v>
+      </c>
+      <c r="N612" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/Dailies.xlsx
+++ b/Data/Dailies.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FFCAC1-37B0-4F97-B1F0-E03C03494437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70DAD61-0902-4BA2-9F74-FBABC89BAEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5AECCF6F-801D-49D3-972A-947870F3C920}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3939" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3987" uniqueCount="20">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -447,11 +447,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D90D68-022F-4D80-B45F-E8F95C295EA5}">
-  <dimension ref="A1:O612"/>
+  <dimension ref="A1:O619"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A578" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O606" sqref="O606"/>
+      <pane ySplit="1" topLeftCell="A587" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M613" sqref="M613"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15335,6 +15335,185 @@
         <v>1</v>
       </c>
     </row>
+    <row r="613" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A613" s="1">
+        <v>45418</v>
+      </c>
+      <c r="B613" t="s">
+        <v>12</v>
+      </c>
+      <c r="D613" t="s">
+        <v>1</v>
+      </c>
+      <c r="E613" t="s">
+        <v>1</v>
+      </c>
+      <c r="F613" t="s">
+        <v>1</v>
+      </c>
+      <c r="G613" t="s">
+        <v>1</v>
+      </c>
+      <c r="H613" t="s">
+        <v>13</v>
+      </c>
+      <c r="I613" t="s">
+        <v>1</v>
+      </c>
+      <c r="J613" t="s">
+        <v>1</v>
+      </c>
+      <c r="N613" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="614" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A614" s="1">
+        <v>45419</v>
+      </c>
+      <c r="B614" t="s">
+        <v>12</v>
+      </c>
+      <c r="C614" t="s">
+        <v>1</v>
+      </c>
+      <c r="D614" t="s">
+        <v>1</v>
+      </c>
+      <c r="E614" t="s">
+        <v>1</v>
+      </c>
+      <c r="F614" t="s">
+        <v>12</v>
+      </c>
+      <c r="G614" t="s">
+        <v>1</v>
+      </c>
+      <c r="H614" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="615" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A615" s="1">
+        <v>45420</v>
+      </c>
+      <c r="B615" t="s">
+        <v>12</v>
+      </c>
+      <c r="D615" t="s">
+        <v>1</v>
+      </c>
+      <c r="E615" t="s">
+        <v>1</v>
+      </c>
+      <c r="F615" t="s">
+        <v>1</v>
+      </c>
+      <c r="G615" t="s">
+        <v>1</v>
+      </c>
+      <c r="J615" t="s">
+        <v>1</v>
+      </c>
+      <c r="L615" t="s">
+        <v>1</v>
+      </c>
+      <c r="N615" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="616" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A616" s="1">
+        <v>45421</v>
+      </c>
+      <c r="B616" t="s">
+        <v>12</v>
+      </c>
+      <c r="C616" t="s">
+        <v>1</v>
+      </c>
+      <c r="E616" t="s">
+        <v>1</v>
+      </c>
+      <c r="F616" t="s">
+        <v>1</v>
+      </c>
+      <c r="G616" t="s">
+        <v>1</v>
+      </c>
+      <c r="H616" t="s">
+        <v>13</v>
+      </c>
+      <c r="N616" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="617" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A617" s="1">
+        <v>45422</v>
+      </c>
+      <c r="B617" t="s">
+        <v>12</v>
+      </c>
+      <c r="D617" t="s">
+        <v>1</v>
+      </c>
+      <c r="E617" t="s">
+        <v>1</v>
+      </c>
+      <c r="F617" t="s">
+        <v>12</v>
+      </c>
+      <c r="G617" t="s">
+        <v>1</v>
+      </c>
+      <c r="L617" t="s">
+        <v>1</v>
+      </c>
+      <c r="N617" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="618" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A618" s="1">
+        <v>45423</v>
+      </c>
+      <c r="B618" t="s">
+        <v>13</v>
+      </c>
+      <c r="C618" t="s">
+        <v>1</v>
+      </c>
+      <c r="F618" t="s">
+        <v>1</v>
+      </c>
+      <c r="G618" t="s">
+        <v>1</v>
+      </c>
+      <c r="J618" t="s">
+        <v>1</v>
+      </c>
+      <c r="L618" t="s">
+        <v>1</v>
+      </c>
+      <c r="N618" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="619" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A619" s="1">
+        <v>45424</v>
+      </c>
+      <c r="B619" t="s">
+        <v>13</v>
+      </c>
+      <c r="G619" t="s">
+        <v>1</v>
+      </c>
+      <c r="N619" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/Dailies.xlsx
+++ b/Data/Dailies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70DAD61-0902-4BA2-9F74-FBABC89BAEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41DC1A3-33B5-457C-8783-226B582942E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5AECCF6F-801D-49D3-972A-947870F3C920}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3987" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4043" uniqueCount="20">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -447,11 +447,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D90D68-022F-4D80-B45F-E8F95C295EA5}">
-  <dimension ref="A1:O619"/>
+  <dimension ref="A1:O626"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A587" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M613" sqref="M613"/>
+      <pane ySplit="1" topLeftCell="A593" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N622" sqref="N622"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15514,6 +15514,209 @@
         <v>1</v>
       </c>
     </row>
+    <row r="620" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A620" s="1">
+        <v>45425</v>
+      </c>
+      <c r="B620" t="s">
+        <v>12</v>
+      </c>
+      <c r="C620" t="s">
+        <v>1</v>
+      </c>
+      <c r="D620" t="s">
+        <v>1</v>
+      </c>
+      <c r="E620" t="s">
+        <v>1</v>
+      </c>
+      <c r="F620" t="s">
+        <v>1</v>
+      </c>
+      <c r="G620" t="s">
+        <v>1</v>
+      </c>
+      <c r="I620" t="s">
+        <v>1</v>
+      </c>
+      <c r="L620" t="s">
+        <v>1</v>
+      </c>
+      <c r="N620" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="621" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A621" s="1">
+        <v>45426</v>
+      </c>
+      <c r="B621" t="s">
+        <v>12</v>
+      </c>
+      <c r="D621" t="s">
+        <v>1</v>
+      </c>
+      <c r="E621" t="s">
+        <v>1</v>
+      </c>
+      <c r="F621" t="s">
+        <v>1</v>
+      </c>
+      <c r="G621" t="s">
+        <v>1</v>
+      </c>
+      <c r="H621" t="s">
+        <v>13</v>
+      </c>
+      <c r="K621" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="622" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A622" s="1">
+        <v>45427</v>
+      </c>
+      <c r="B622" t="s">
+        <v>12</v>
+      </c>
+      <c r="C622" t="s">
+        <v>1</v>
+      </c>
+      <c r="D622" t="s">
+        <v>1</v>
+      </c>
+      <c r="E622" t="s">
+        <v>1</v>
+      </c>
+      <c r="F622" t="s">
+        <v>12</v>
+      </c>
+      <c r="G622" t="s">
+        <v>1</v>
+      </c>
+      <c r="H622" t="s">
+        <v>13</v>
+      </c>
+      <c r="I622" t="s">
+        <v>1</v>
+      </c>
+      <c r="L622" t="s">
+        <v>1</v>
+      </c>
+      <c r="N622" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="623" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A623" s="1">
+        <v>45428</v>
+      </c>
+      <c r="B623" t="s">
+        <v>13</v>
+      </c>
+      <c r="G623" t="s">
+        <v>1</v>
+      </c>
+      <c r="H623" t="s">
+        <v>13</v>
+      </c>
+      <c r="L623" t="s">
+        <v>1</v>
+      </c>
+      <c r="N623" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="624" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A624" s="1">
+        <v>45429</v>
+      </c>
+      <c r="B624" t="s">
+        <v>12</v>
+      </c>
+      <c r="C624" t="s">
+        <v>1</v>
+      </c>
+      <c r="D624" t="s">
+        <v>1</v>
+      </c>
+      <c r="E624" t="s">
+        <v>1</v>
+      </c>
+      <c r="F624" t="s">
+        <v>12</v>
+      </c>
+      <c r="G624" t="s">
+        <v>1</v>
+      </c>
+      <c r="H624" t="s">
+        <v>13</v>
+      </c>
+      <c r="K624" t="s">
+        <v>1</v>
+      </c>
+      <c r="N624" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="625" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A625" s="1">
+        <v>45430</v>
+      </c>
+      <c r="B625" t="s">
+        <v>13</v>
+      </c>
+      <c r="F625" t="s">
+        <v>1</v>
+      </c>
+      <c r="G625" t="s">
+        <v>1</v>
+      </c>
+      <c r="H625" t="s">
+        <v>13</v>
+      </c>
+      <c r="I625" t="s">
+        <v>1</v>
+      </c>
+      <c r="N625" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="626" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A626" s="1">
+        <v>45431</v>
+      </c>
+      <c r="B626" t="s">
+        <v>12</v>
+      </c>
+      <c r="C626" t="s">
+        <v>1</v>
+      </c>
+      <c r="D626" t="s">
+        <v>1</v>
+      </c>
+      <c r="E626" t="s">
+        <v>1</v>
+      </c>
+      <c r="F626" t="s">
+        <v>1</v>
+      </c>
+      <c r="G626" t="s">
+        <v>1</v>
+      </c>
+      <c r="H626" t="s">
+        <v>13</v>
+      </c>
+      <c r="J626" t="s">
+        <v>1</v>
+      </c>
+      <c r="L626" t="s">
+        <v>1</v>
+      </c>
+      <c r="N626" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/Dailies.xlsx
+++ b/Data/Dailies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41DC1A3-33B5-457C-8783-226B582942E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9A06D8-D423-40F0-A5BA-4881E9E44A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5AECCF6F-801D-49D3-972A-947870F3C920}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4043" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4093" uniqueCount="20">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -447,11 +447,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D90D68-022F-4D80-B45F-E8F95C295EA5}">
-  <dimension ref="A1:O626"/>
+  <dimension ref="A1:O633"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A593" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N622" sqref="N622"/>
+      <pane ySplit="1" topLeftCell="A602" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N630" sqref="N630"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15717,6 +15717,191 @@
         <v>1</v>
       </c>
     </row>
+    <row r="627" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A627" s="1">
+        <v>45432</v>
+      </c>
+      <c r="B627" t="s">
+        <v>12</v>
+      </c>
+      <c r="D627" t="s">
+        <v>1</v>
+      </c>
+      <c r="F627" t="s">
+        <v>1</v>
+      </c>
+      <c r="G627" t="s">
+        <v>1</v>
+      </c>
+      <c r="H627" t="s">
+        <v>13</v>
+      </c>
+      <c r="I627" t="s">
+        <v>1</v>
+      </c>
+      <c r="M627" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="628" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A628" s="1">
+        <v>45433</v>
+      </c>
+      <c r="B628" t="s">
+        <v>12</v>
+      </c>
+      <c r="C628" t="s">
+        <v>1</v>
+      </c>
+      <c r="D628" t="s">
+        <v>1</v>
+      </c>
+      <c r="E628" t="s">
+        <v>1</v>
+      </c>
+      <c r="F628" t="s">
+        <v>1</v>
+      </c>
+      <c r="G628" t="s">
+        <v>1</v>
+      </c>
+      <c r="H628" t="s">
+        <v>13</v>
+      </c>
+      <c r="N628" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="629" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A629" s="1">
+        <v>45434</v>
+      </c>
+      <c r="B629" t="s">
+        <v>12</v>
+      </c>
+      <c r="C629" t="s">
+        <v>1</v>
+      </c>
+      <c r="D629" t="s">
+        <v>1</v>
+      </c>
+      <c r="E629" t="s">
+        <v>1</v>
+      </c>
+      <c r="F629" t="s">
+        <v>1</v>
+      </c>
+      <c r="G629" t="s">
+        <v>1</v>
+      </c>
+      <c r="L629" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="630" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A630" s="1">
+        <v>45435</v>
+      </c>
+      <c r="B630" t="s">
+        <v>12</v>
+      </c>
+      <c r="D630" t="s">
+        <v>1</v>
+      </c>
+      <c r="E630" t="s">
+        <v>1</v>
+      </c>
+      <c r="G630" t="s">
+        <v>1</v>
+      </c>
+      <c r="H630" t="s">
+        <v>13</v>
+      </c>
+      <c r="L630" t="s">
+        <v>1</v>
+      </c>
+      <c r="M630" t="s">
+        <v>1</v>
+      </c>
+      <c r="N630" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="631" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A631" s="1">
+        <v>45436</v>
+      </c>
+      <c r="B631" t="s">
+        <v>1</v>
+      </c>
+      <c r="C631" t="s">
+        <v>1</v>
+      </c>
+      <c r="D631" t="s">
+        <v>1</v>
+      </c>
+      <c r="E631" t="s">
+        <v>1</v>
+      </c>
+      <c r="F631" t="s">
+        <v>12</v>
+      </c>
+      <c r="G631" t="s">
+        <v>1</v>
+      </c>
+      <c r="K631" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="632" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A632" s="1">
+        <v>45437</v>
+      </c>
+      <c r="B632" t="s">
+        <v>12</v>
+      </c>
+      <c r="D632" t="s">
+        <v>1</v>
+      </c>
+      <c r="E632" t="s">
+        <v>1</v>
+      </c>
+      <c r="F632" t="s">
+        <v>1</v>
+      </c>
+      <c r="G632" t="s">
+        <v>1</v>
+      </c>
+      <c r="H632" t="s">
+        <v>13</v>
+      </c>
+      <c r="L632" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="633" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A633" s="1">
+        <v>45438</v>
+      </c>
+      <c r="B633" t="s">
+        <v>13</v>
+      </c>
+      <c r="C633" t="s">
+        <v>1</v>
+      </c>
+      <c r="F633" t="s">
+        <v>12</v>
+      </c>
+      <c r="G633" t="s">
+        <v>1</v>
+      </c>
+      <c r="H633" t="s">
+        <v>13</v>
+      </c>
+      <c r="I633" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/Dailies.xlsx
+++ b/Data/Dailies.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9A06D8-D423-40F0-A5BA-4881E9E44A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA418F2D-DEE4-41DC-8D7D-3A678DE89759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5AECCF6F-801D-49D3-972A-947870F3C920}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4093" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4144" uniqueCount="20">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -447,11 +447,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D90D68-022F-4D80-B45F-E8F95C295EA5}">
-  <dimension ref="A1:O633"/>
+  <dimension ref="A1:O640"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A602" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N630" sqref="N630"/>
+      <pane ySplit="1" topLeftCell="A620" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O634" sqref="O634"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15902,6 +15902,194 @@
         <v>1</v>
       </c>
     </row>
+    <row r="634" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A634" s="1">
+        <v>45439</v>
+      </c>
+      <c r="B634" t="s">
+        <v>13</v>
+      </c>
+      <c r="F634" t="s">
+        <v>1</v>
+      </c>
+      <c r="G634" t="s">
+        <v>1</v>
+      </c>
+      <c r="H634" t="s">
+        <v>13</v>
+      </c>
+      <c r="I634" t="s">
+        <v>1</v>
+      </c>
+      <c r="N634" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="635" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A635" s="1">
+        <v>45440</v>
+      </c>
+      <c r="B635" t="s">
+        <v>12</v>
+      </c>
+      <c r="C635" t="s">
+        <v>1</v>
+      </c>
+      <c r="D635" t="s">
+        <v>1</v>
+      </c>
+      <c r="E635" t="s">
+        <v>1</v>
+      </c>
+      <c r="F635" t="s">
+        <v>1</v>
+      </c>
+      <c r="G635" t="s">
+        <v>1</v>
+      </c>
+      <c r="H635" t="s">
+        <v>13</v>
+      </c>
+      <c r="K635" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="636" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A636" s="1">
+        <v>45441</v>
+      </c>
+      <c r="B636" t="s">
+        <v>1</v>
+      </c>
+      <c r="D636" t="s">
+        <v>1</v>
+      </c>
+      <c r="E636" t="s">
+        <v>1</v>
+      </c>
+      <c r="F636" t="s">
+        <v>12</v>
+      </c>
+      <c r="G636" t="s">
+        <v>1</v>
+      </c>
+      <c r="H636" t="s">
+        <v>13</v>
+      </c>
+      <c r="I636" t="s">
+        <v>1</v>
+      </c>
+      <c r="L636" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="637" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A637" s="1">
+        <v>45442</v>
+      </c>
+      <c r="B637" t="s">
+        <v>12</v>
+      </c>
+      <c r="E637" t="s">
+        <v>1</v>
+      </c>
+      <c r="G637" t="s">
+        <v>1</v>
+      </c>
+      <c r="H637" t="s">
+        <v>13</v>
+      </c>
+      <c r="K637" t="s">
+        <v>1</v>
+      </c>
+      <c r="M637" t="s">
+        <v>1</v>
+      </c>
+      <c r="N637" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="638" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A638" s="1">
+        <v>45443</v>
+      </c>
+      <c r="B638" t="s">
+        <v>12</v>
+      </c>
+      <c r="C638" t="s">
+        <v>1</v>
+      </c>
+      <c r="D638" t="s">
+        <v>1</v>
+      </c>
+      <c r="E638" t="s">
+        <v>1</v>
+      </c>
+      <c r="F638" t="s">
+        <v>1</v>
+      </c>
+      <c r="G638" t="s">
+        <v>1</v>
+      </c>
+      <c r="H638" t="s">
+        <v>13</v>
+      </c>
+      <c r="K638" t="s">
+        <v>1</v>
+      </c>
+      <c r="M638" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="639" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A639" s="1">
+        <v>45444</v>
+      </c>
+      <c r="B639" t="s">
+        <v>12</v>
+      </c>
+      <c r="D639" t="s">
+        <v>1</v>
+      </c>
+      <c r="E639" t="s">
+        <v>1</v>
+      </c>
+      <c r="F639" t="s">
+        <v>12</v>
+      </c>
+      <c r="G639" t="s">
+        <v>1</v>
+      </c>
+      <c r="H639" t="s">
+        <v>13</v>
+      </c>
+      <c r="I639" t="s">
+        <v>1</v>
+      </c>
+      <c r="M639" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="640" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A640" s="1">
+        <v>45445</v>
+      </c>
+      <c r="B640" t="s">
+        <v>13</v>
+      </c>
+      <c r="C640" t="s">
+        <v>1</v>
+      </c>
+      <c r="G640" t="s">
+        <v>1</v>
+      </c>
+      <c r="H640" t="s">
+        <v>13</v>
+      </c>
+      <c r="N640" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/Dailies.xlsx
+++ b/Data/Dailies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA418F2D-DEE4-41DC-8D7D-3A678DE89759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5381002D-F3D4-481A-805F-994DECA29409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5AECCF6F-801D-49D3-972A-947870F3C920}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4144" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4198" uniqueCount="20">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -447,11 +447,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D90D68-022F-4D80-B45F-E8F95C295EA5}">
-  <dimension ref="A1:O640"/>
+  <dimension ref="A1:O647"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A620" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O634" sqref="O634"/>
+      <pane ySplit="1" topLeftCell="A626" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O641" sqref="O641"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16090,6 +16090,203 @@
         <v>1</v>
       </c>
     </row>
+    <row r="641" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A641" s="1">
+        <v>45446</v>
+      </c>
+      <c r="B641" t="s">
+        <v>12</v>
+      </c>
+      <c r="D641" t="s">
+        <v>1</v>
+      </c>
+      <c r="E641" t="s">
+        <v>1</v>
+      </c>
+      <c r="F641" t="s">
+        <v>1</v>
+      </c>
+      <c r="G641" t="s">
+        <v>1</v>
+      </c>
+      <c r="H641" t="s">
+        <v>13</v>
+      </c>
+      <c r="I641" t="s">
+        <v>1</v>
+      </c>
+      <c r="L641" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="642" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A642" s="1">
+        <v>45447</v>
+      </c>
+      <c r="B642" t="s">
+        <v>12</v>
+      </c>
+      <c r="C642" t="s">
+        <v>1</v>
+      </c>
+      <c r="D642" t="s">
+        <v>1</v>
+      </c>
+      <c r="E642" t="s">
+        <v>1</v>
+      </c>
+      <c r="F642" t="s">
+        <v>12</v>
+      </c>
+      <c r="G642" t="s">
+        <v>1</v>
+      </c>
+      <c r="H642" t="s">
+        <v>13</v>
+      </c>
+      <c r="K642" t="s">
+        <v>1</v>
+      </c>
+      <c r="N642" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="643" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A643" s="1">
+        <v>45448</v>
+      </c>
+      <c r="B643" t="s">
+        <v>12</v>
+      </c>
+      <c r="D643" t="s">
+        <v>1</v>
+      </c>
+      <c r="E643" t="s">
+        <v>1</v>
+      </c>
+      <c r="F643" t="s">
+        <v>1</v>
+      </c>
+      <c r="G643" t="s">
+        <v>1</v>
+      </c>
+      <c r="I643" t="s">
+        <v>1</v>
+      </c>
+      <c r="L643" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="644" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A644" s="1">
+        <v>45449</v>
+      </c>
+      <c r="B644" t="s">
+        <v>12</v>
+      </c>
+      <c r="C644" t="s">
+        <v>1</v>
+      </c>
+      <c r="G644" t="s">
+        <v>1</v>
+      </c>
+      <c r="M644" t="s">
+        <v>1</v>
+      </c>
+      <c r="N644" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="645" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A645" s="1">
+        <v>45450</v>
+      </c>
+      <c r="B645" t="s">
+        <v>13</v>
+      </c>
+      <c r="F645" t="s">
+        <v>12</v>
+      </c>
+      <c r="G645" t="s">
+        <v>1</v>
+      </c>
+      <c r="H645" t="s">
+        <v>13</v>
+      </c>
+      <c r="I645" t="s">
+        <v>1</v>
+      </c>
+      <c r="K645" t="s">
+        <v>1</v>
+      </c>
+      <c r="L645" t="s">
+        <v>1</v>
+      </c>
+      <c r="M645" t="s">
+        <v>1</v>
+      </c>
+      <c r="N645" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="646" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A646" s="1">
+        <v>45451</v>
+      </c>
+      <c r="B646" t="s">
+        <v>12</v>
+      </c>
+      <c r="C646" t="s">
+        <v>1</v>
+      </c>
+      <c r="D646" t="s">
+        <v>1</v>
+      </c>
+      <c r="E646" t="s">
+        <v>1</v>
+      </c>
+      <c r="F646" t="s">
+        <v>1</v>
+      </c>
+      <c r="G646" t="s">
+        <v>1</v>
+      </c>
+      <c r="K646" t="s">
+        <v>1</v>
+      </c>
+      <c r="N646" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="647" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A647" s="1">
+        <v>45452</v>
+      </c>
+      <c r="B647" t="s">
+        <v>12</v>
+      </c>
+      <c r="F647" t="s">
+        <v>12</v>
+      </c>
+      <c r="G647" t="s">
+        <v>1</v>
+      </c>
+      <c r="H647" t="s">
+        <v>13</v>
+      </c>
+      <c r="J647" t="s">
+        <v>1</v>
+      </c>
+      <c r="K647" t="s">
+        <v>1</v>
+      </c>
+      <c r="L647" t="s">
+        <v>1</v>
+      </c>
+      <c r="N647" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/Dailies.xlsx
+++ b/Data/Dailies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5381002D-F3D4-481A-805F-994DECA29409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2E75A8-3FD2-4647-93BE-9DD989DF2F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5AECCF6F-801D-49D3-972A-947870F3C920}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4198" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4249" uniqueCount="20">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -447,11 +447,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D90D68-022F-4D80-B45F-E8F95C295EA5}">
-  <dimension ref="A1:O647"/>
+  <dimension ref="A1:O654"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A626" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O641" sqref="O641"/>
+      <selection pane="bottomLeft" activeCell="N648" sqref="N648"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16287,6 +16287,194 @@
         <v>1</v>
       </c>
     </row>
+    <row r="648" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A648" s="1">
+        <v>45453</v>
+      </c>
+      <c r="B648" t="s">
+        <v>12</v>
+      </c>
+      <c r="C648" t="s">
+        <v>1</v>
+      </c>
+      <c r="D648" t="s">
+        <v>1</v>
+      </c>
+      <c r="E648" t="s">
+        <v>1</v>
+      </c>
+      <c r="F648" t="s">
+        <v>1</v>
+      </c>
+      <c r="G648" t="s">
+        <v>1</v>
+      </c>
+      <c r="I648" t="s">
+        <v>1</v>
+      </c>
+      <c r="M648" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="649" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A649" s="1">
+        <v>45454</v>
+      </c>
+      <c r="B649" t="s">
+        <v>12</v>
+      </c>
+      <c r="D649" t="s">
+        <v>1</v>
+      </c>
+      <c r="E649" t="s">
+        <v>1</v>
+      </c>
+      <c r="F649" t="s">
+        <v>12</v>
+      </c>
+      <c r="G649" t="s">
+        <v>1</v>
+      </c>
+      <c r="K649" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="650" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A650" s="1">
+        <v>45455</v>
+      </c>
+      <c r="B650" t="s">
+        <v>12</v>
+      </c>
+      <c r="C650" t="s">
+        <v>1</v>
+      </c>
+      <c r="D650" t="s">
+        <v>1</v>
+      </c>
+      <c r="E650" t="s">
+        <v>1</v>
+      </c>
+      <c r="F650" t="s">
+        <v>1</v>
+      </c>
+      <c r="G650" t="s">
+        <v>1</v>
+      </c>
+      <c r="I650" t="s">
+        <v>1</v>
+      </c>
+      <c r="L650" t="s">
+        <v>1</v>
+      </c>
+      <c r="M650" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="651" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A651" s="1">
+        <v>45456</v>
+      </c>
+      <c r="B651" t="s">
+        <v>13</v>
+      </c>
+      <c r="G651" t="s">
+        <v>1</v>
+      </c>
+      <c r="H651" t="s">
+        <v>13</v>
+      </c>
+      <c r="K651" t="s">
+        <v>1</v>
+      </c>
+      <c r="M651" t="s">
+        <v>1</v>
+      </c>
+      <c r="N651" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="652" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A652" s="1">
+        <v>45457</v>
+      </c>
+      <c r="B652" t="s">
+        <v>12</v>
+      </c>
+      <c r="C652" t="s">
+        <v>1</v>
+      </c>
+      <c r="D652" t="s">
+        <v>1</v>
+      </c>
+      <c r="E652" t="s">
+        <v>1</v>
+      </c>
+      <c r="F652" t="s">
+        <v>12</v>
+      </c>
+      <c r="G652" t="s">
+        <v>1</v>
+      </c>
+      <c r="H652" t="s">
+        <v>13</v>
+      </c>
+      <c r="K652" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="653" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A653" s="1">
+        <v>45458</v>
+      </c>
+      <c r="B653" t="s">
+        <v>13</v>
+      </c>
+      <c r="F653" t="s">
+        <v>1</v>
+      </c>
+      <c r="G653" t="s">
+        <v>1</v>
+      </c>
+      <c r="I653" t="s">
+        <v>1</v>
+      </c>
+      <c r="L653" t="s">
+        <v>1</v>
+      </c>
+      <c r="M653" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="654" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A654" s="1">
+        <v>45459</v>
+      </c>
+      <c r="B654" t="s">
+        <v>12</v>
+      </c>
+      <c r="C654" t="s">
+        <v>1</v>
+      </c>
+      <c r="D654" t="s">
+        <v>1</v>
+      </c>
+      <c r="E654" t="s">
+        <v>1</v>
+      </c>
+      <c r="G654" t="s">
+        <v>1</v>
+      </c>
+      <c r="H654" t="s">
+        <v>13</v>
+      </c>
+      <c r="M654" t="s">
+        <v>1</v>
+      </c>
+      <c r="N654" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/Dailies.xlsx
+++ b/Data/Dailies.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2E75A8-3FD2-4647-93BE-9DD989DF2F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6B56F8-91CC-4847-8CBF-5B3F390421D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5AECCF6F-801D-49D3-972A-947870F3C920}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4249" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4361" uniqueCount="20">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -447,11 +447,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D90D68-022F-4D80-B45F-E8F95C295EA5}">
-  <dimension ref="A1:O654"/>
+  <dimension ref="A1:O668"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A626" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N648" sqref="N648"/>
+      <pane ySplit="1" topLeftCell="A638" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N663" sqref="N663"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16475,6 +16475,412 @@
         <v>1</v>
       </c>
     </row>
+    <row r="655" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A655" s="1">
+        <v>45460</v>
+      </c>
+      <c r="B655" t="s">
+        <v>12</v>
+      </c>
+      <c r="D655" t="s">
+        <v>1</v>
+      </c>
+      <c r="E655" t="s">
+        <v>1</v>
+      </c>
+      <c r="F655" t="s">
+        <v>1</v>
+      </c>
+      <c r="G655" t="s">
+        <v>1</v>
+      </c>
+      <c r="H655" t="s">
+        <v>13</v>
+      </c>
+      <c r="I655" t="s">
+        <v>1</v>
+      </c>
+      <c r="K655" t="s">
+        <v>1</v>
+      </c>
+      <c r="M655" t="s">
+        <v>1</v>
+      </c>
+      <c r="N655" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="656" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A656" s="1">
+        <v>45461</v>
+      </c>
+      <c r="B656" t="s">
+        <v>12</v>
+      </c>
+      <c r="C656" t="s">
+        <v>1</v>
+      </c>
+      <c r="D656" t="s">
+        <v>1</v>
+      </c>
+      <c r="E656" t="s">
+        <v>1</v>
+      </c>
+      <c r="F656" t="s">
+        <v>12</v>
+      </c>
+      <c r="G656" t="s">
+        <v>1</v>
+      </c>
+      <c r="H656" t="s">
+        <v>13</v>
+      </c>
+      <c r="K656" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="657" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A657" s="1">
+        <v>45462</v>
+      </c>
+      <c r="B657" t="s">
+        <v>12</v>
+      </c>
+      <c r="D657" t="s">
+        <v>1</v>
+      </c>
+      <c r="E657" t="s">
+        <v>1</v>
+      </c>
+      <c r="F657" t="s">
+        <v>12</v>
+      </c>
+      <c r="G657" t="s">
+        <v>1</v>
+      </c>
+      <c r="H657" t="s">
+        <v>13</v>
+      </c>
+      <c r="I657" t="s">
+        <v>1</v>
+      </c>
+      <c r="L657" t="s">
+        <v>1</v>
+      </c>
+      <c r="M657" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="658" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A658" s="1">
+        <v>45463</v>
+      </c>
+      <c r="B658" t="s">
+        <v>12</v>
+      </c>
+      <c r="C658" t="s">
+        <v>1</v>
+      </c>
+      <c r="D658" t="s">
+        <v>1</v>
+      </c>
+      <c r="E658" t="s">
+        <v>1</v>
+      </c>
+      <c r="F658" t="s">
+        <v>1</v>
+      </c>
+      <c r="G658" t="s">
+        <v>1</v>
+      </c>
+      <c r="K658" t="s">
+        <v>1</v>
+      </c>
+      <c r="M658" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="659" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A659" s="1">
+        <v>45464</v>
+      </c>
+      <c r="B659" t="s">
+        <v>12</v>
+      </c>
+      <c r="D659" t="s">
+        <v>1</v>
+      </c>
+      <c r="E659" t="s">
+        <v>1</v>
+      </c>
+      <c r="G659" t="s">
+        <v>1</v>
+      </c>
+      <c r="H659" t="s">
+        <v>13</v>
+      </c>
+      <c r="M659" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="660" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A660" s="1">
+        <v>45465</v>
+      </c>
+      <c r="B660" t="s">
+        <v>13</v>
+      </c>
+      <c r="C660" t="s">
+        <v>1</v>
+      </c>
+      <c r="F660" t="s">
+        <v>1</v>
+      </c>
+      <c r="G660" t="s">
+        <v>1</v>
+      </c>
+      <c r="H660" t="s">
+        <v>13</v>
+      </c>
+      <c r="I660" t="s">
+        <v>1</v>
+      </c>
+      <c r="K660" t="s">
+        <v>1</v>
+      </c>
+      <c r="M660" t="s">
+        <v>1</v>
+      </c>
+      <c r="N660" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="661" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A661" s="1">
+        <v>45466</v>
+      </c>
+      <c r="B661" t="s">
+        <v>13</v>
+      </c>
+      <c r="G661" t="s">
+        <v>1</v>
+      </c>
+      <c r="H661" t="s">
+        <v>13</v>
+      </c>
+      <c r="K661" t="s">
+        <v>1</v>
+      </c>
+      <c r="L661" t="s">
+        <v>1</v>
+      </c>
+      <c r="M661" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="662" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A662" s="1">
+        <v>45467</v>
+      </c>
+      <c r="B662" t="s">
+        <v>13</v>
+      </c>
+      <c r="C662" t="s">
+        <v>1</v>
+      </c>
+      <c r="D662" t="s">
+        <v>1</v>
+      </c>
+      <c r="E662" t="s">
+        <v>1</v>
+      </c>
+      <c r="G662" t="s">
+        <v>1</v>
+      </c>
+      <c r="K662" t="s">
+        <v>1</v>
+      </c>
+      <c r="M662" t="s">
+        <v>1</v>
+      </c>
+      <c r="N662" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="663" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A663" s="1">
+        <v>45468</v>
+      </c>
+      <c r="B663" t="s">
+        <v>12</v>
+      </c>
+      <c r="D663" t="s">
+        <v>1</v>
+      </c>
+      <c r="E663" t="s">
+        <v>1</v>
+      </c>
+      <c r="F663" t="s">
+        <v>12</v>
+      </c>
+      <c r="G663" t="s">
+        <v>1</v>
+      </c>
+      <c r="K663" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="664" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A664" s="1">
+        <v>45469</v>
+      </c>
+      <c r="B664" t="s">
+        <v>1</v>
+      </c>
+      <c r="C664" t="s">
+        <v>1</v>
+      </c>
+      <c r="D664" t="s">
+        <v>1</v>
+      </c>
+      <c r="E664" t="s">
+        <v>1</v>
+      </c>
+      <c r="F664" t="s">
+        <v>1</v>
+      </c>
+      <c r="G664" t="s">
+        <v>1</v>
+      </c>
+      <c r="H664" t="s">
+        <v>13</v>
+      </c>
+      <c r="K664" t="s">
+        <v>1</v>
+      </c>
+      <c r="L664" t="s">
+        <v>1</v>
+      </c>
+      <c r="M664" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="665" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A665" s="1">
+        <v>45470</v>
+      </c>
+      <c r="B665" t="s">
+        <v>12</v>
+      </c>
+      <c r="D665" t="s">
+        <v>1</v>
+      </c>
+      <c r="E665" t="s">
+        <v>1</v>
+      </c>
+      <c r="F665" t="s">
+        <v>1</v>
+      </c>
+      <c r="G665" t="s">
+        <v>1</v>
+      </c>
+      <c r="K665" t="s">
+        <v>1</v>
+      </c>
+      <c r="M665" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="666" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A666" s="1">
+        <v>45471</v>
+      </c>
+      <c r="B666" t="s">
+        <v>12</v>
+      </c>
+      <c r="C666" t="s">
+        <v>1</v>
+      </c>
+      <c r="D666" t="s">
+        <v>1</v>
+      </c>
+      <c r="E666" t="s">
+        <v>1</v>
+      </c>
+      <c r="F666" t="s">
+        <v>1</v>
+      </c>
+      <c r="G666" t="s">
+        <v>1</v>
+      </c>
+      <c r="H666" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="667" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A667" s="1">
+        <v>45472</v>
+      </c>
+      <c r="B667" t="s">
+        <v>12</v>
+      </c>
+      <c r="D667" t="s">
+        <v>1</v>
+      </c>
+      <c r="E667" t="s">
+        <v>1</v>
+      </c>
+      <c r="G667" t="s">
+        <v>1</v>
+      </c>
+      <c r="H667" t="s">
+        <v>13</v>
+      </c>
+      <c r="K667" t="s">
+        <v>1</v>
+      </c>
+      <c r="M667" t="s">
+        <v>1</v>
+      </c>
+      <c r="N667" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="668" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A668" s="1">
+        <v>45473</v>
+      </c>
+      <c r="B668" t="s">
+        <v>12</v>
+      </c>
+      <c r="C668" t="s">
+        <v>1</v>
+      </c>
+      <c r="D668" t="s">
+        <v>1</v>
+      </c>
+      <c r="E668" t="s">
+        <v>1</v>
+      </c>
+      <c r="F668" t="s">
+        <v>12</v>
+      </c>
+      <c r="G668" t="s">
+        <v>1</v>
+      </c>
+      <c r="H668" t="s">
+        <v>13</v>
+      </c>
+      <c r="K668" t="s">
+        <v>1</v>
+      </c>
+      <c r="M668" t="s">
+        <v>1</v>
+      </c>
+      <c r="N668" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/Dailies.xlsx
+++ b/Data/Dailies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6B56F8-91CC-4847-8CBF-5B3F390421D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A48091-D2AA-4DD9-A1DE-6DAD96BCE162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5AECCF6F-801D-49D3-972A-947870F3C920}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4361" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4402" uniqueCount="20">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -447,11 +447,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D90D68-022F-4D80-B45F-E8F95C295EA5}">
-  <dimension ref="A1:O668"/>
+  <dimension ref="A1:O675"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A638" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N663" sqref="N663"/>
+      <pane ySplit="1" topLeftCell="A653" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O669" sqref="O669"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16881,6 +16881,164 @@
         <v>1</v>
       </c>
     </row>
+    <row r="669" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A669" s="1">
+        <v>45474</v>
+      </c>
+      <c r="B669" t="s">
+        <v>12</v>
+      </c>
+      <c r="D669" t="s">
+        <v>1</v>
+      </c>
+      <c r="E669" t="s">
+        <v>1</v>
+      </c>
+      <c r="G669" t="s">
+        <v>1</v>
+      </c>
+      <c r="H669" t="s">
+        <v>13</v>
+      </c>
+      <c r="I669" t="s">
+        <v>1</v>
+      </c>
+      <c r="K669" t="s">
+        <v>1</v>
+      </c>
+      <c r="M669" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="670" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A670" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B670" t="s">
+        <v>12</v>
+      </c>
+      <c r="C670" t="s">
+        <v>1</v>
+      </c>
+      <c r="D670" t="s">
+        <v>1</v>
+      </c>
+      <c r="E670" t="s">
+        <v>1</v>
+      </c>
+      <c r="F670" t="s">
+        <v>12</v>
+      </c>
+      <c r="G670" t="s">
+        <v>1</v>
+      </c>
+      <c r="K670" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="671" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A671" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B671" t="s">
+        <v>1</v>
+      </c>
+      <c r="D671" t="s">
+        <v>1</v>
+      </c>
+      <c r="E671" t="s">
+        <v>1</v>
+      </c>
+      <c r="F671" t="s">
+        <v>1</v>
+      </c>
+      <c r="G671" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="672" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A672" s="1">
+        <v>45477</v>
+      </c>
+      <c r="B672" t="s">
+        <v>1</v>
+      </c>
+      <c r="C672" t="s">
+        <v>1</v>
+      </c>
+      <c r="G672" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="673" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A673" s="1">
+        <v>45478</v>
+      </c>
+      <c r="B673" t="s">
+        <v>12</v>
+      </c>
+      <c r="G673" t="s">
+        <v>1</v>
+      </c>
+      <c r="H673" t="s">
+        <v>13</v>
+      </c>
+      <c r="K673" t="s">
+        <v>1</v>
+      </c>
+      <c r="M673" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="674" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A674" s="1">
+        <v>45479</v>
+      </c>
+      <c r="B674" t="s">
+        <v>12</v>
+      </c>
+      <c r="C674" t="s">
+        <v>1</v>
+      </c>
+      <c r="D674" t="s">
+        <v>1</v>
+      </c>
+      <c r="E674" t="s">
+        <v>1</v>
+      </c>
+      <c r="F674" t="s">
+        <v>1</v>
+      </c>
+      <c r="G674" t="s">
+        <v>1</v>
+      </c>
+      <c r="K674" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="675" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A675" s="1">
+        <v>45480</v>
+      </c>
+      <c r="B675" t="s">
+        <v>13</v>
+      </c>
+      <c r="D675" t="s">
+        <v>1</v>
+      </c>
+      <c r="F675" t="s">
+        <v>12</v>
+      </c>
+      <c r="G675" t="s">
+        <v>1</v>
+      </c>
+      <c r="M675" t="s">
+        <v>1</v>
+      </c>
+      <c r="N675" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/Dailies.xlsx
+++ b/Data/Dailies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A48091-D2AA-4DD9-A1DE-6DAD96BCE162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73B7FB2-1E52-4FEF-910E-074D8CDDFD16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5AECCF6F-801D-49D3-972A-947870F3C920}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4402" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4455" uniqueCount="20">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -447,11 +447,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D90D68-022F-4D80-B45F-E8F95C295EA5}">
-  <dimension ref="A1:O675"/>
+  <dimension ref="A1:O683"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A653" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O669" sqref="O669"/>
+      <selection pane="bottomLeft" activeCell="N680" sqref="N680"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17039,6 +17039,203 @@
         <v>1</v>
       </c>
     </row>
+    <row r="676" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A676" s="1">
+        <v>45481</v>
+      </c>
+      <c r="B676" t="s">
+        <v>1</v>
+      </c>
+      <c r="C676" t="s">
+        <v>1</v>
+      </c>
+      <c r="D676" t="s">
+        <v>1</v>
+      </c>
+      <c r="E676" t="s">
+        <v>1</v>
+      </c>
+      <c r="F676" t="s">
+        <v>1</v>
+      </c>
+      <c r="G676" t="s">
+        <v>1</v>
+      </c>
+      <c r="H676" t="s">
+        <v>13</v>
+      </c>
+      <c r="K676" t="s">
+        <v>1</v>
+      </c>
+      <c r="L676" t="s">
+        <v>1</v>
+      </c>
+      <c r="N676" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="677" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A677" s="1">
+        <v>45482</v>
+      </c>
+      <c r="B677" t="s">
+        <v>12</v>
+      </c>
+      <c r="D677" t="s">
+        <v>1</v>
+      </c>
+      <c r="E677" t="s">
+        <v>1</v>
+      </c>
+      <c r="F677" t="s">
+        <v>12</v>
+      </c>
+      <c r="G677" t="s">
+        <v>1</v>
+      </c>
+      <c r="H677" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="678" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A678" s="1">
+        <v>45483</v>
+      </c>
+      <c r="B678" t="s">
+        <v>12</v>
+      </c>
+      <c r="C678" t="s">
+        <v>1</v>
+      </c>
+      <c r="D678" t="s">
+        <v>1</v>
+      </c>
+      <c r="E678" t="s">
+        <v>1</v>
+      </c>
+      <c r="F678" t="s">
+        <v>12</v>
+      </c>
+      <c r="G678" t="s">
+        <v>1</v>
+      </c>
+      <c r="I678" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="679" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A679" s="1">
+        <v>45484</v>
+      </c>
+      <c r="B679" t="s">
+        <v>12</v>
+      </c>
+      <c r="D679" t="s">
+        <v>1</v>
+      </c>
+      <c r="E679" t="s">
+        <v>1</v>
+      </c>
+      <c r="F679" t="s">
+        <v>1</v>
+      </c>
+      <c r="G679" t="s">
+        <v>1</v>
+      </c>
+      <c r="H679" t="s">
+        <v>13</v>
+      </c>
+      <c r="L679" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="680" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A680" s="1">
+        <v>45485</v>
+      </c>
+      <c r="B680" t="s">
+        <v>12</v>
+      </c>
+      <c r="C680" t="s">
+        <v>1</v>
+      </c>
+      <c r="D680" t="s">
+        <v>1</v>
+      </c>
+      <c r="E680" t="s">
+        <v>1</v>
+      </c>
+      <c r="F680" t="s">
+        <v>12</v>
+      </c>
+      <c r="G680" t="s">
+        <v>1</v>
+      </c>
+      <c r="H680" t="s">
+        <v>13</v>
+      </c>
+      <c r="K680" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="681" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A681" s="1">
+        <v>45486</v>
+      </c>
+      <c r="B681" t="s">
+        <v>13</v>
+      </c>
+      <c r="F681" t="s">
+        <v>1</v>
+      </c>
+      <c r="G681" t="s">
+        <v>1</v>
+      </c>
+      <c r="H681" t="s">
+        <v>13</v>
+      </c>
+      <c r="I681" t="s">
+        <v>1</v>
+      </c>
+      <c r="K681" t="s">
+        <v>1</v>
+      </c>
+      <c r="N681" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="682" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A682" s="1">
+        <v>45487</v>
+      </c>
+      <c r="B682" t="s">
+        <v>12</v>
+      </c>
+      <c r="C682" t="s">
+        <v>1</v>
+      </c>
+      <c r="D682" t="s">
+        <v>1</v>
+      </c>
+      <c r="E682" t="s">
+        <v>1</v>
+      </c>
+      <c r="F682" t="s">
+        <v>1</v>
+      </c>
+      <c r="G682" t="s">
+        <v>1</v>
+      </c>
+      <c r="H682" t="s">
+        <v>13</v>
+      </c>
+      <c r="K682" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="683" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A683" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/Dailies.xlsx
+++ b/Data/Dailies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73B7FB2-1E52-4FEF-910E-074D8CDDFD16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94328F3-B79F-4E46-B3A4-AD9E4F21C63B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5AECCF6F-801D-49D3-972A-947870F3C920}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4455" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4506" uniqueCount="20">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -447,11 +447,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D90D68-022F-4D80-B45F-E8F95C295EA5}">
-  <dimension ref="A1:O683"/>
+  <dimension ref="A1:O689"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A653" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N680" sqref="N680"/>
+      <pane ySplit="1" topLeftCell="A662" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O683" sqref="O683"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17234,7 +17234,192 @@
       </c>
     </row>
     <row r="683" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A683" s="1"/>
+      <c r="A683" s="1">
+        <v>45488</v>
+      </c>
+      <c r="B683" t="s">
+        <v>12</v>
+      </c>
+      <c r="D683" t="s">
+        <v>1</v>
+      </c>
+      <c r="E683" t="s">
+        <v>1</v>
+      </c>
+      <c r="F683" t="s">
+        <v>12</v>
+      </c>
+      <c r="G683" t="s">
+        <v>1</v>
+      </c>
+      <c r="H683" t="s">
+        <v>13</v>
+      </c>
+      <c r="I683" t="s">
+        <v>1</v>
+      </c>
+      <c r="K683" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="684" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A684" s="1">
+        <v>45489</v>
+      </c>
+      <c r="B684" t="s">
+        <v>12</v>
+      </c>
+      <c r="C684" t="s">
+        <v>1</v>
+      </c>
+      <c r="D684" t="s">
+        <v>1</v>
+      </c>
+      <c r="E684" t="s">
+        <v>1</v>
+      </c>
+      <c r="F684" t="s">
+        <v>1</v>
+      </c>
+      <c r="G684" t="s">
+        <v>1</v>
+      </c>
+      <c r="H684" t="s">
+        <v>13</v>
+      </c>
+      <c r="K684" t="s">
+        <v>1</v>
+      </c>
+      <c r="L684" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="685" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A685" s="1">
+        <v>45490</v>
+      </c>
+      <c r="B685" t="s">
+        <v>12</v>
+      </c>
+      <c r="D685" t="s">
+        <v>1</v>
+      </c>
+      <c r="E685" t="s">
+        <v>1</v>
+      </c>
+      <c r="F685" t="s">
+        <v>12</v>
+      </c>
+      <c r="G685" t="s">
+        <v>1</v>
+      </c>
+      <c r="H685" t="s">
+        <v>13</v>
+      </c>
+      <c r="I685" t="s">
+        <v>1</v>
+      </c>
+      <c r="L685" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="686" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A686" s="1">
+        <v>45491</v>
+      </c>
+      <c r="B686" t="s">
+        <v>12</v>
+      </c>
+      <c r="C686" t="s">
+        <v>1</v>
+      </c>
+      <c r="D686" t="s">
+        <v>1</v>
+      </c>
+      <c r="E686" t="s">
+        <v>1</v>
+      </c>
+      <c r="F686" t="s">
+        <v>12</v>
+      </c>
+      <c r="G686" t="s">
+        <v>1</v>
+      </c>
+      <c r="K686" t="s">
+        <v>1</v>
+      </c>
+      <c r="N686" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="687" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A687" s="1">
+        <v>45492</v>
+      </c>
+      <c r="B687" t="s">
+        <v>12</v>
+      </c>
+      <c r="D687" t="s">
+        <v>1</v>
+      </c>
+      <c r="E687" t="s">
+        <v>1</v>
+      </c>
+      <c r="F687" t="s">
+        <v>1</v>
+      </c>
+      <c r="G687" t="s">
+        <v>1</v>
+      </c>
+      <c r="K687" t="s">
+        <v>1</v>
+      </c>
+      <c r="L687" t="s">
+        <v>1</v>
+      </c>
+      <c r="M687" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="688" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A688" s="1">
+        <v>45493</v>
+      </c>
+      <c r="B688" t="s">
+        <v>12</v>
+      </c>
+      <c r="C688" t="s">
+        <v>1</v>
+      </c>
+      <c r="F688" t="s">
+        <v>1</v>
+      </c>
+      <c r="G688" t="s">
+        <v>1</v>
+      </c>
+      <c r="I688" t="s">
+        <v>1</v>
+      </c>
+      <c r="N688" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A689" s="1">
+        <v>45494</v>
+      </c>
+      <c r="B689" t="s">
+        <v>12</v>
+      </c>
+      <c r="F689" t="s">
+        <v>1</v>
+      </c>
+      <c r="G689" t="s">
+        <v>1</v>
+      </c>
+      <c r="K689" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Dailies.xlsx
+++ b/Data/Dailies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94328F3-B79F-4E46-B3A4-AD9E4F21C63B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6211DDA2-0413-43EE-8DB9-4BED8E576BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5AECCF6F-801D-49D3-972A-947870F3C920}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4506" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4551" uniqueCount="20">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -447,11 +447,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D90D68-022F-4D80-B45F-E8F95C295EA5}">
-  <dimension ref="A1:O689"/>
+  <dimension ref="A1:O696"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A662" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O683" sqref="O683"/>
+      <selection pane="bottomLeft" activeCell="O690" sqref="O690"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17404,7 +17404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A689" s="1">
         <v>45494</v>
       </c>
@@ -17418,6 +17418,176 @@
         <v>1</v>
       </c>
       <c r="K689" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="690" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A690" s="1">
+        <v>45495</v>
+      </c>
+      <c r="B690" t="s">
+        <v>12</v>
+      </c>
+      <c r="C690" t="s">
+        <v>1</v>
+      </c>
+      <c r="D690" t="s">
+        <v>1</v>
+      </c>
+      <c r="E690" t="s">
+        <v>1</v>
+      </c>
+      <c r="F690" t="s">
+        <v>1</v>
+      </c>
+      <c r="G690" t="s">
+        <v>1</v>
+      </c>
+      <c r="I690" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="691" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A691" s="1">
+        <v>45496</v>
+      </c>
+      <c r="B691" t="s">
+        <v>12</v>
+      </c>
+      <c r="D691" t="s">
+        <v>1</v>
+      </c>
+      <c r="E691" t="s">
+        <v>1</v>
+      </c>
+      <c r="F691" t="s">
+        <v>1</v>
+      </c>
+      <c r="G691" t="s">
+        <v>1</v>
+      </c>
+      <c r="K691" t="s">
+        <v>1</v>
+      </c>
+      <c r="M691" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="692" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A692" s="1">
+        <v>45497</v>
+      </c>
+      <c r="B692" t="s">
+        <v>12</v>
+      </c>
+      <c r="C692" t="s">
+        <v>1</v>
+      </c>
+      <c r="D692" t="s">
+        <v>1</v>
+      </c>
+      <c r="E692" t="s">
+        <v>1</v>
+      </c>
+      <c r="F692" t="s">
+        <v>1</v>
+      </c>
+      <c r="G692" t="s">
+        <v>1</v>
+      </c>
+      <c r="I692" t="s">
+        <v>1</v>
+      </c>
+      <c r="L692" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="693" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A693" s="1">
+        <v>45498</v>
+      </c>
+      <c r="B693" t="s">
+        <v>13</v>
+      </c>
+      <c r="G693" t="s">
+        <v>1</v>
+      </c>
+      <c r="K693" t="s">
+        <v>1</v>
+      </c>
+      <c r="M693" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="694" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A694" s="1">
+        <v>45499</v>
+      </c>
+      <c r="B694" t="s">
+        <v>12</v>
+      </c>
+      <c r="C694" t="s">
+        <v>1</v>
+      </c>
+      <c r="D694" t="s">
+        <v>1</v>
+      </c>
+      <c r="E694" t="s">
+        <v>1</v>
+      </c>
+      <c r="F694" t="s">
+        <v>1</v>
+      </c>
+      <c r="G694" t="s">
+        <v>1</v>
+      </c>
+      <c r="K694" t="s">
+        <v>1</v>
+      </c>
+      <c r="L694" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="695" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A695" s="1">
+        <v>45500</v>
+      </c>
+      <c r="B695" t="s">
+        <v>13</v>
+      </c>
+      <c r="F695" t="s">
+        <v>12</v>
+      </c>
+      <c r="G695" t="s">
+        <v>1</v>
+      </c>
+      <c r="I695" t="s">
+        <v>1</v>
+      </c>
+      <c r="N695" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="696" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A696" s="1">
+        <v>45501</v>
+      </c>
+      <c r="B696" t="s">
+        <v>12</v>
+      </c>
+      <c r="C696" t="s">
+        <v>1</v>
+      </c>
+      <c r="D696" t="s">
+        <v>1</v>
+      </c>
+      <c r="E696" t="s">
+        <v>1</v>
+      </c>
+      <c r="G696" t="s">
+        <v>1</v>
+      </c>
+      <c r="K696" t="s">
         <v>1</v>
       </c>
     </row>

--- a/Data/Dailies.xlsx
+++ b/Data/Dailies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6211DDA2-0413-43EE-8DB9-4BED8E576BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C404292A-C6FD-4FA1-A3A4-66D75B960366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5AECCF6F-801D-49D3-972A-947870F3C920}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4551" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4597" uniqueCount="20">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -447,11 +447,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D90D68-022F-4D80-B45F-E8F95C295EA5}">
-  <dimension ref="A1:O696"/>
+  <dimension ref="A1:O703"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A662" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O690" sqref="O690"/>
+      <pane ySplit="1" topLeftCell="A677" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N697" sqref="N697"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17591,6 +17591,179 @@
         <v>1</v>
       </c>
     </row>
+    <row r="697" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A697" s="1">
+        <v>45502</v>
+      </c>
+      <c r="B697" t="s">
+        <v>12</v>
+      </c>
+      <c r="D697" t="s">
+        <v>1</v>
+      </c>
+      <c r="E697" t="s">
+        <v>1</v>
+      </c>
+      <c r="F697" t="s">
+        <v>12</v>
+      </c>
+      <c r="G697" t="s">
+        <v>1</v>
+      </c>
+      <c r="I697" t="s">
+        <v>1</v>
+      </c>
+      <c r="N697" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="698" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A698" s="1">
+        <v>45503</v>
+      </c>
+      <c r="B698" t="s">
+        <v>12</v>
+      </c>
+      <c r="C698" t="s">
+        <v>1</v>
+      </c>
+      <c r="D698" t="s">
+        <v>1</v>
+      </c>
+      <c r="E698" t="s">
+        <v>1</v>
+      </c>
+      <c r="F698" t="s">
+        <v>12</v>
+      </c>
+      <c r="G698" t="s">
+        <v>1</v>
+      </c>
+      <c r="H698" t="s">
+        <v>13</v>
+      </c>
+      <c r="K698" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="699" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A699" s="1">
+        <v>45504</v>
+      </c>
+      <c r="B699" t="s">
+        <v>12</v>
+      </c>
+      <c r="D699" t="s">
+        <v>1</v>
+      </c>
+      <c r="E699" t="s">
+        <v>1</v>
+      </c>
+      <c r="F699" t="s">
+        <v>12</v>
+      </c>
+      <c r="G699" t="s">
+        <v>1</v>
+      </c>
+      <c r="H699" t="s">
+        <v>13</v>
+      </c>
+      <c r="L699" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="700" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A700" s="1">
+        <v>45505</v>
+      </c>
+      <c r="B700" t="s">
+        <v>12</v>
+      </c>
+      <c r="C700" t="s">
+        <v>1</v>
+      </c>
+      <c r="D700" t="s">
+        <v>1</v>
+      </c>
+      <c r="E700" t="s">
+        <v>1</v>
+      </c>
+      <c r="G700" t="s">
+        <v>1</v>
+      </c>
+      <c r="I700" t="s">
+        <v>1</v>
+      </c>
+      <c r="M700" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="701" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A701" s="1">
+        <v>45506</v>
+      </c>
+      <c r="B701" t="s">
+        <v>12</v>
+      </c>
+      <c r="D701" t="s">
+        <v>1</v>
+      </c>
+      <c r="E701" t="s">
+        <v>1</v>
+      </c>
+      <c r="F701" t="s">
+        <v>1</v>
+      </c>
+      <c r="G701" t="s">
+        <v>1</v>
+      </c>
+      <c r="H701" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="702" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A702" s="1">
+        <v>45507</v>
+      </c>
+      <c r="B702" t="s">
+        <v>1</v>
+      </c>
+      <c r="C702" t="s">
+        <v>1</v>
+      </c>
+      <c r="D702" t="s">
+        <v>1</v>
+      </c>
+      <c r="E702" t="s">
+        <v>1</v>
+      </c>
+      <c r="F702" t="s">
+        <v>12</v>
+      </c>
+      <c r="G702" t="s">
+        <v>1</v>
+      </c>
+      <c r="K702" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="703" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A703" s="1">
+        <v>45508</v>
+      </c>
+      <c r="B703" t="s">
+        <v>13</v>
+      </c>
+      <c r="G703" t="s">
+        <v>1</v>
+      </c>
+      <c r="H703" t="s">
+        <v>13</v>
+      </c>
+      <c r="M703" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/Dailies.xlsx
+++ b/Data/Dailies.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C404292A-C6FD-4FA1-A3A4-66D75B960366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72D2E73-5B60-4D40-A173-FC3F49588EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5AECCF6F-801D-49D3-972A-947870F3C920}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4597" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4647" uniqueCount="20">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -447,11 +447,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D90D68-022F-4D80-B45F-E8F95C295EA5}">
-  <dimension ref="A1:O703"/>
+  <dimension ref="A1:O710"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A677" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N697" sqref="N697"/>
+      <pane ySplit="1" topLeftCell="A683" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O704" sqref="O704"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17764,6 +17764,191 @@
         <v>1</v>
       </c>
     </row>
+    <row r="704" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A704" s="1">
+        <v>45509</v>
+      </c>
+      <c r="B704" t="s">
+        <v>12</v>
+      </c>
+      <c r="C704" t="s">
+        <v>1</v>
+      </c>
+      <c r="D704" t="s">
+        <v>1</v>
+      </c>
+      <c r="E704" t="s">
+        <v>1</v>
+      </c>
+      <c r="F704" t="s">
+        <v>1</v>
+      </c>
+      <c r="G704" t="s">
+        <v>1</v>
+      </c>
+      <c r="H704" t="s">
+        <v>13</v>
+      </c>
+      <c r="I704" t="s">
+        <v>1</v>
+      </c>
+      <c r="J704" t="s">
+        <v>1</v>
+      </c>
+      <c r="L704" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="705" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A705" s="1">
+        <v>45510</v>
+      </c>
+      <c r="B705" t="s">
+        <v>12</v>
+      </c>
+      <c r="D705" t="s">
+        <v>1</v>
+      </c>
+      <c r="F705" t="s">
+        <v>1</v>
+      </c>
+      <c r="G705" t="s">
+        <v>1</v>
+      </c>
+      <c r="H705" t="s">
+        <v>13</v>
+      </c>
+      <c r="K705" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="706" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A706" s="1">
+        <v>45511</v>
+      </c>
+      <c r="B706" t="s">
+        <v>12</v>
+      </c>
+      <c r="C706" t="s">
+        <v>1</v>
+      </c>
+      <c r="D706" t="s">
+        <v>1</v>
+      </c>
+      <c r="E706" t="s">
+        <v>1</v>
+      </c>
+      <c r="F706" t="s">
+        <v>1</v>
+      </c>
+      <c r="G706" t="s">
+        <v>1</v>
+      </c>
+      <c r="H706" t="s">
+        <v>13</v>
+      </c>
+      <c r="J706" t="s">
+        <v>1</v>
+      </c>
+      <c r="L706" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="707" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A707" s="1">
+        <v>45512</v>
+      </c>
+      <c r="B707" t="s">
+        <v>13</v>
+      </c>
+      <c r="G707" t="s">
+        <v>1</v>
+      </c>
+      <c r="H707" t="s">
+        <v>13</v>
+      </c>
+      <c r="M707" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="708" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A708" s="1">
+        <v>45513</v>
+      </c>
+      <c r="B708" t="s">
+        <v>12</v>
+      </c>
+      <c r="C708" t="s">
+        <v>1</v>
+      </c>
+      <c r="D708" t="s">
+        <v>1</v>
+      </c>
+      <c r="E708" t="s">
+        <v>1</v>
+      </c>
+      <c r="F708" t="s">
+        <v>12</v>
+      </c>
+      <c r="G708" t="s">
+        <v>1</v>
+      </c>
+      <c r="H708" t="s">
+        <v>13</v>
+      </c>
+      <c r="K708" t="s">
+        <v>1</v>
+      </c>
+      <c r="L708" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="709" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A709" s="1">
+        <v>45514</v>
+      </c>
+      <c r="B709" t="s">
+        <v>12</v>
+      </c>
+      <c r="F709" t="s">
+        <v>1</v>
+      </c>
+      <c r="G709" t="s">
+        <v>1</v>
+      </c>
+      <c r="H709" t="s">
+        <v>12</v>
+      </c>
+      <c r="I709" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="710" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A710" s="1">
+        <v>45515</v>
+      </c>
+      <c r="B710" t="s">
+        <v>12</v>
+      </c>
+      <c r="C710" t="s">
+        <v>1</v>
+      </c>
+      <c r="D710" t="s">
+        <v>1</v>
+      </c>
+      <c r="E710" t="s">
+        <v>1</v>
+      </c>
+      <c r="F710" t="s">
+        <v>1</v>
+      </c>
+      <c r="G710" t="s">
+        <v>1</v>
+      </c>
+      <c r="H710" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/Dailies.xlsx
+++ b/Data/Dailies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72D2E73-5B60-4D40-A173-FC3F49588EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AE3765-B7B3-4EB1-A5D3-03AE7F21CC8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5AECCF6F-801D-49D3-972A-947870F3C920}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4647" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4692" uniqueCount="20">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -447,11 +447,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D90D68-022F-4D80-B45F-E8F95C295EA5}">
-  <dimension ref="A1:O710"/>
+  <dimension ref="A1:O717"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A683" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O704" sqref="O704"/>
+      <pane ySplit="1" topLeftCell="A689" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O711" sqref="O711"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17799,7 +17799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="705" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A705" s="1">
         <v>45510</v>
       </c>
@@ -17822,7 +17822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="706" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A706" s="1">
         <v>45511</v>
       </c>
@@ -17854,7 +17854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="707" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A707" s="1">
         <v>45512</v>
       </c>
@@ -17871,7 +17871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="708" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A708" s="1">
         <v>45513</v>
       </c>
@@ -17903,7 +17903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="709" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A709" s="1">
         <v>45514</v>
       </c>
@@ -17923,7 +17923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="710" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A710" s="1">
         <v>45515</v>
       </c>
@@ -17947,6 +17947,176 @@
       </c>
       <c r="H710" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="711" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A711" s="1">
+        <v>45516</v>
+      </c>
+      <c r="B711" t="s">
+        <v>1</v>
+      </c>
+      <c r="D711" t="s">
+        <v>1</v>
+      </c>
+      <c r="E711" t="s">
+        <v>1</v>
+      </c>
+      <c r="F711" t="s">
+        <v>1</v>
+      </c>
+      <c r="G711" t="s">
+        <v>1</v>
+      </c>
+      <c r="H711" t="s">
+        <v>13</v>
+      </c>
+      <c r="I711" t="s">
+        <v>1</v>
+      </c>
+      <c r="L711" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="712" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A712" s="1">
+        <v>45517</v>
+      </c>
+      <c r="B712" t="s">
+        <v>1</v>
+      </c>
+      <c r="C712" t="s">
+        <v>1</v>
+      </c>
+      <c r="D712" t="s">
+        <v>1</v>
+      </c>
+      <c r="E712" t="s">
+        <v>1</v>
+      </c>
+      <c r="F712" t="s">
+        <v>12</v>
+      </c>
+      <c r="G712" t="s">
+        <v>1</v>
+      </c>
+      <c r="H712" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="713" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A713" s="1">
+        <v>45518</v>
+      </c>
+      <c r="B713" t="s">
+        <v>1</v>
+      </c>
+      <c r="E713" t="s">
+        <v>1</v>
+      </c>
+      <c r="F713" t="s">
+        <v>1</v>
+      </c>
+      <c r="G713" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="714" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A714" s="1">
+        <v>45519</v>
+      </c>
+      <c r="B714" t="s">
+        <v>1</v>
+      </c>
+      <c r="C714" t="s">
+        <v>1</v>
+      </c>
+      <c r="D714" t="s">
+        <v>1</v>
+      </c>
+      <c r="E714" t="s">
+        <v>1</v>
+      </c>
+      <c r="F714" t="s">
+        <v>1</v>
+      </c>
+      <c r="G714" t="s">
+        <v>1</v>
+      </c>
+      <c r="H714" t="s">
+        <v>13</v>
+      </c>
+      <c r="L714" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="715" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A715" s="1">
+        <v>45520</v>
+      </c>
+      <c r="B715" t="s">
+        <v>12</v>
+      </c>
+      <c r="D715" t="s">
+        <v>1</v>
+      </c>
+      <c r="E715" t="s">
+        <v>1</v>
+      </c>
+      <c r="F715" t="s">
+        <v>12</v>
+      </c>
+      <c r="G715" t="s">
+        <v>1</v>
+      </c>
+      <c r="H715" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="716" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A716" s="1">
+        <v>45521</v>
+      </c>
+      <c r="C716" t="s">
+        <v>1</v>
+      </c>
+      <c r="F716" t="s">
+        <v>1</v>
+      </c>
+      <c r="G716" t="s">
+        <v>1</v>
+      </c>
+      <c r="H716" t="s">
+        <v>13</v>
+      </c>
+      <c r="I716" t="s">
+        <v>1</v>
+      </c>
+      <c r="K716" t="s">
+        <v>1</v>
+      </c>
+      <c r="M716" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="717" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A717" s="1">
+        <v>45522</v>
+      </c>
+      <c r="B717" t="s">
+        <v>12</v>
+      </c>
+      <c r="E717" t="s">
+        <v>1</v>
+      </c>
+      <c r="G717" t="s">
+        <v>1</v>
+      </c>
+      <c r="H717" t="s">
+        <v>13</v>
+      </c>
+      <c r="N717" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Dailies.xlsx
+++ b/Data/Dailies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AE3765-B7B3-4EB1-A5D3-03AE7F21CC8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC403B9-7D62-454E-8910-019FF854261B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5AECCF6F-801D-49D3-972A-947870F3C920}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4692" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4742" uniqueCount="20">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -447,11 +447,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D90D68-022F-4D80-B45F-E8F95C295EA5}">
-  <dimension ref="A1:O717"/>
+  <dimension ref="A1:O724"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A689" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O711" sqref="O711"/>
+      <selection pane="bottomLeft" activeCell="O718" sqref="O718"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18119,6 +18119,191 @@
         <v>1</v>
       </c>
     </row>
+    <row r="718" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A718" s="1">
+        <v>45523</v>
+      </c>
+      <c r="B718" t="s">
+        <v>12</v>
+      </c>
+      <c r="D718" t="s">
+        <v>1</v>
+      </c>
+      <c r="E718" t="s">
+        <v>1</v>
+      </c>
+      <c r="F718" t="s">
+        <v>1</v>
+      </c>
+      <c r="G718" t="s">
+        <v>1</v>
+      </c>
+      <c r="H718" t="s">
+        <v>13</v>
+      </c>
+      <c r="I718" t="s">
+        <v>1</v>
+      </c>
+      <c r="M718" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="719" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A719" s="1">
+        <v>45524</v>
+      </c>
+      <c r="B719" t="s">
+        <v>12</v>
+      </c>
+      <c r="C719" t="s">
+        <v>1</v>
+      </c>
+      <c r="D719" t="s">
+        <v>1</v>
+      </c>
+      <c r="E719" t="s">
+        <v>1</v>
+      </c>
+      <c r="F719" t="s">
+        <v>1</v>
+      </c>
+      <c r="G719" t="s">
+        <v>1</v>
+      </c>
+      <c r="H719" t="s">
+        <v>13</v>
+      </c>
+      <c r="K719" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="720" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A720" s="1">
+        <v>45525</v>
+      </c>
+      <c r="B720" t="s">
+        <v>12</v>
+      </c>
+      <c r="D720" t="s">
+        <v>1</v>
+      </c>
+      <c r="E720" t="s">
+        <v>1</v>
+      </c>
+      <c r="F720" t="s">
+        <v>1</v>
+      </c>
+      <c r="G720" t="s">
+        <v>1</v>
+      </c>
+      <c r="H720" t="s">
+        <v>13</v>
+      </c>
+      <c r="I720" t="s">
+        <v>1</v>
+      </c>
+      <c r="L720" t="s">
+        <v>1</v>
+      </c>
+      <c r="M720" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="721" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A721" s="1">
+        <v>45526</v>
+      </c>
+      <c r="B721" t="s">
+        <v>12</v>
+      </c>
+      <c r="C721" t="s">
+        <v>1</v>
+      </c>
+      <c r="D721" t="s">
+        <v>1</v>
+      </c>
+      <c r="E721" t="s">
+        <v>1</v>
+      </c>
+      <c r="G721" t="s">
+        <v>1</v>
+      </c>
+      <c r="H721" t="s">
+        <v>13</v>
+      </c>
+      <c r="K721" t="s">
+        <v>1</v>
+      </c>
+      <c r="M721" t="s">
+        <v>1</v>
+      </c>
+      <c r="N721" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="722" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A722" s="1">
+        <v>45527</v>
+      </c>
+      <c r="B722" t="s">
+        <v>12</v>
+      </c>
+      <c r="D722" t="s">
+        <v>1</v>
+      </c>
+      <c r="E722" t="s">
+        <v>1</v>
+      </c>
+      <c r="F722" t="s">
+        <v>12</v>
+      </c>
+      <c r="G722" t="s">
+        <v>1</v>
+      </c>
+      <c r="H722" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="723" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A723" s="1">
+        <v>45528</v>
+      </c>
+      <c r="B723" t="s">
+        <v>13</v>
+      </c>
+      <c r="C723" t="s">
+        <v>1</v>
+      </c>
+      <c r="F723" t="s">
+        <v>1</v>
+      </c>
+      <c r="G723" t="s">
+        <v>1</v>
+      </c>
+      <c r="H723" t="s">
+        <v>13</v>
+      </c>
+      <c r="I723" t="s">
+        <v>1</v>
+      </c>
+      <c r="M723" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="724" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A724" s="1">
+        <v>45529</v>
+      </c>
+      <c r="B724" t="s">
+        <v>13</v>
+      </c>
+      <c r="G724" t="s">
+        <v>1</v>
+      </c>
+      <c r="H724" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/Dailies.xlsx
+++ b/Data/Dailies.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC403B9-7D62-454E-8910-019FF854261B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC6D86A-1EC4-44B9-B1E1-D73F3C6BE18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5AECCF6F-801D-49D3-972A-947870F3C920}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4742" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4791" uniqueCount="20">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -447,11 +447,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D90D68-022F-4D80-B45F-E8F95C295EA5}">
-  <dimension ref="A1:O724"/>
+  <dimension ref="A1:O731"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A689" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O718" sqref="O718"/>
+      <pane ySplit="1" topLeftCell="A686" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N705" sqref="N705"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18304,6 +18304,188 @@
         <v>13</v>
       </c>
     </row>
+    <row r="725" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A725" s="1">
+        <v>45530</v>
+      </c>
+      <c r="B725" t="s">
+        <v>12</v>
+      </c>
+      <c r="C725" t="s">
+        <v>1</v>
+      </c>
+      <c r="D725" t="s">
+        <v>1</v>
+      </c>
+      <c r="E725" t="s">
+        <v>1</v>
+      </c>
+      <c r="F725" t="s">
+        <v>12</v>
+      </c>
+      <c r="G725" t="s">
+        <v>1</v>
+      </c>
+      <c r="H725" t="s">
+        <v>13</v>
+      </c>
+      <c r="I725" t="s">
+        <v>1</v>
+      </c>
+      <c r="M725" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="726" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A726" s="1">
+        <v>45531</v>
+      </c>
+      <c r="B726" t="s">
+        <v>1</v>
+      </c>
+      <c r="D726" t="s">
+        <v>1</v>
+      </c>
+      <c r="E726" t="s">
+        <v>1</v>
+      </c>
+      <c r="F726" t="s">
+        <v>1</v>
+      </c>
+      <c r="G726" t="s">
+        <v>1</v>
+      </c>
+      <c r="H726" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="727" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A727" s="1">
+        <v>45532</v>
+      </c>
+      <c r="B727" t="s">
+        <v>12</v>
+      </c>
+      <c r="C727" t="s">
+        <v>1</v>
+      </c>
+      <c r="D727" t="s">
+        <v>1</v>
+      </c>
+      <c r="E727" t="s">
+        <v>1</v>
+      </c>
+      <c r="F727" t="s">
+        <v>1</v>
+      </c>
+      <c r="G727" t="s">
+        <v>1</v>
+      </c>
+      <c r="H727" t="s">
+        <v>13</v>
+      </c>
+      <c r="L727" t="s">
+        <v>1</v>
+      </c>
+      <c r="M727" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="728" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A728" s="1">
+        <v>45533</v>
+      </c>
+      <c r="B728" t="s">
+        <v>12</v>
+      </c>
+      <c r="E728" t="s">
+        <v>1</v>
+      </c>
+      <c r="F728" t="s">
+        <v>1</v>
+      </c>
+      <c r="G728" t="s">
+        <v>1</v>
+      </c>
+      <c r="H728" t="s">
+        <v>13</v>
+      </c>
+      <c r="I728" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="729" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A729" s="1">
+        <v>45534</v>
+      </c>
+      <c r="B729" t="s">
+        <v>13</v>
+      </c>
+      <c r="C729" t="s">
+        <v>1</v>
+      </c>
+      <c r="G729" t="s">
+        <v>1</v>
+      </c>
+      <c r="H729" t="s">
+        <v>13</v>
+      </c>
+      <c r="K729" t="s">
+        <v>1</v>
+      </c>
+      <c r="M729" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="730" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A730" s="1">
+        <v>45535</v>
+      </c>
+      <c r="B730" t="s">
+        <v>12</v>
+      </c>
+      <c r="D730" t="s">
+        <v>1</v>
+      </c>
+      <c r="E730" t="s">
+        <v>1</v>
+      </c>
+      <c r="F730" t="s">
+        <v>12</v>
+      </c>
+      <c r="G730" t="s">
+        <v>1</v>
+      </c>
+      <c r="K730" t="s">
+        <v>1</v>
+      </c>
+      <c r="L730" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="731" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A731" s="1">
+        <v>45536</v>
+      </c>
+      <c r="B731" t="s">
+        <v>13</v>
+      </c>
+      <c r="F731" t="s">
+        <v>1</v>
+      </c>
+      <c r="G731" t="s">
+        <v>1</v>
+      </c>
+      <c r="H731" t="s">
+        <v>13</v>
+      </c>
+      <c r="J731" t="s">
+        <v>1</v>
+      </c>
+      <c r="M731" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/Dailies.xlsx
+++ b/Data/Dailies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC6D86A-1EC4-44B9-B1E1-D73F3C6BE18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C73A217-44BB-40BD-80F2-631F1951A86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5AECCF6F-801D-49D3-972A-947870F3C920}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4791" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4843" uniqueCount="20">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -447,11 +447,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D90D68-022F-4D80-B45F-E8F95C295EA5}">
-  <dimension ref="A1:O731"/>
+  <dimension ref="A1:O738"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A686" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N705" sqref="N705"/>
+      <pane ySplit="1" topLeftCell="A716" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O732" sqref="O732"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18486,6 +18486,197 @@
         <v>1</v>
       </c>
     </row>
+    <row r="732" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A732" s="1">
+        <v>45551</v>
+      </c>
+      <c r="B732" t="s">
+        <v>13</v>
+      </c>
+      <c r="C732" t="s">
+        <v>1</v>
+      </c>
+      <c r="F732" t="s">
+        <v>12</v>
+      </c>
+      <c r="G732" t="s">
+        <v>1</v>
+      </c>
+      <c r="H732" t="s">
+        <v>13</v>
+      </c>
+      <c r="I732" t="s">
+        <v>1</v>
+      </c>
+      <c r="L732" t="s">
+        <v>1</v>
+      </c>
+      <c r="M732" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="733" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A733" s="1">
+        <v>45552</v>
+      </c>
+      <c r="B733" t="s">
+        <v>12</v>
+      </c>
+      <c r="D733" t="s">
+        <v>1</v>
+      </c>
+      <c r="E733" t="s">
+        <v>1</v>
+      </c>
+      <c r="F733" t="s">
+        <v>1</v>
+      </c>
+      <c r="G733" t="s">
+        <v>1</v>
+      </c>
+      <c r="H733" t="s">
+        <v>13</v>
+      </c>
+      <c r="K733" t="s">
+        <v>1</v>
+      </c>
+      <c r="M733" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="734" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A734" s="1">
+        <v>45553</v>
+      </c>
+      <c r="B734" t="s">
+        <v>12</v>
+      </c>
+      <c r="C734" t="s">
+        <v>1</v>
+      </c>
+      <c r="E734" t="s">
+        <v>1</v>
+      </c>
+      <c r="F734" t="s">
+        <v>1</v>
+      </c>
+      <c r="G734" t="s">
+        <v>1</v>
+      </c>
+      <c r="I734" t="s">
+        <v>1</v>
+      </c>
+      <c r="L734" t="s">
+        <v>1</v>
+      </c>
+      <c r="M734" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="735" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A735" s="1">
+        <v>45554</v>
+      </c>
+      <c r="B735" t="s">
+        <v>12</v>
+      </c>
+      <c r="E735" t="s">
+        <v>1</v>
+      </c>
+      <c r="F735" t="s">
+        <v>1</v>
+      </c>
+      <c r="G735" t="s">
+        <v>1</v>
+      </c>
+      <c r="H735" t="s">
+        <v>13</v>
+      </c>
+      <c r="J735" t="s">
+        <v>1</v>
+      </c>
+      <c r="N735" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="736" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A736" s="1">
+        <v>45555</v>
+      </c>
+      <c r="B736" t="s">
+        <v>12</v>
+      </c>
+      <c r="C736" t="s">
+        <v>1</v>
+      </c>
+      <c r="D736" t="s">
+        <v>1</v>
+      </c>
+      <c r="E736" t="s">
+        <v>1</v>
+      </c>
+      <c r="F736" t="s">
+        <v>1</v>
+      </c>
+      <c r="G736" t="s">
+        <v>1</v>
+      </c>
+      <c r="H736" t="s">
+        <v>13</v>
+      </c>
+      <c r="M736" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="737" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A737" s="1">
+        <v>45556</v>
+      </c>
+      <c r="B737" t="s">
+        <v>13</v>
+      </c>
+      <c r="F737" t="s">
+        <v>12</v>
+      </c>
+      <c r="G737" t="s">
+        <v>1</v>
+      </c>
+      <c r="H737" t="s">
+        <v>13</v>
+      </c>
+      <c r="I737" t="s">
+        <v>1</v>
+      </c>
+      <c r="M737" t="s">
+        <v>1</v>
+      </c>
+      <c r="N737" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="738" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A738" s="1">
+        <v>45557</v>
+      </c>
+      <c r="B738" t="s">
+        <v>12</v>
+      </c>
+      <c r="C738" t="s">
+        <v>1</v>
+      </c>
+      <c r="E738" t="s">
+        <v>1</v>
+      </c>
+      <c r="G738" t="s">
+        <v>1</v>
+      </c>
+      <c r="H738" t="s">
+        <v>13</v>
+      </c>
+      <c r="N738" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/Dailies.xlsx
+++ b/Data/Dailies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C73A217-44BB-40BD-80F2-631F1951A86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C42A2DA-BB6A-4701-84E6-1EB3C14637D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5AECCF6F-801D-49D3-972A-947870F3C920}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4843" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4893" uniqueCount="20">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -447,11 +447,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D90D68-022F-4D80-B45F-E8F95C295EA5}">
-  <dimension ref="A1:O738"/>
+  <dimension ref="A1:O745"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A716" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O732" sqref="O732"/>
+      <selection pane="bottomLeft" activeCell="P729" sqref="P729"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18677,6 +18677,191 @@
         <v>1</v>
       </c>
     </row>
+    <row r="739" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A739" s="1">
+        <v>45558</v>
+      </c>
+      <c r="B739" t="s">
+        <v>12</v>
+      </c>
+      <c r="D739" t="s">
+        <v>1</v>
+      </c>
+      <c r="E739" t="s">
+        <v>1</v>
+      </c>
+      <c r="F739" t="s">
+        <v>1</v>
+      </c>
+      <c r="G739" t="s">
+        <v>1</v>
+      </c>
+      <c r="H739" t="s">
+        <v>13</v>
+      </c>
+      <c r="I739" t="s">
+        <v>1</v>
+      </c>
+      <c r="N739" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="740" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A740" s="1">
+        <v>45559</v>
+      </c>
+      <c r="B740" t="s">
+        <v>12</v>
+      </c>
+      <c r="C740" t="s">
+        <v>1</v>
+      </c>
+      <c r="D740" t="s">
+        <v>1</v>
+      </c>
+      <c r="E740" t="s">
+        <v>1</v>
+      </c>
+      <c r="F740" t="s">
+        <v>1</v>
+      </c>
+      <c r="G740" t="s">
+        <v>1</v>
+      </c>
+      <c r="H740" t="s">
+        <v>13</v>
+      </c>
+      <c r="K740" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="741" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A741" s="1">
+        <v>45560</v>
+      </c>
+      <c r="B741" t="s">
+        <v>12</v>
+      </c>
+      <c r="D741" t="s">
+        <v>1</v>
+      </c>
+      <c r="E741" t="s">
+        <v>1</v>
+      </c>
+      <c r="F741" t="s">
+        <v>1</v>
+      </c>
+      <c r="G741" t="s">
+        <v>1</v>
+      </c>
+      <c r="H741" t="s">
+        <v>13</v>
+      </c>
+      <c r="I741" t="s">
+        <v>1</v>
+      </c>
+      <c r="J741" t="s">
+        <v>1</v>
+      </c>
+      <c r="L741" t="s">
+        <v>1</v>
+      </c>
+      <c r="M741" t="s">
+        <v>1</v>
+      </c>
+      <c r="N741" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="742" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A742" s="1">
+        <v>45561</v>
+      </c>
+      <c r="B742" t="s">
+        <v>12</v>
+      </c>
+      <c r="C742" t="s">
+        <v>1</v>
+      </c>
+      <c r="D742" t="s">
+        <v>1</v>
+      </c>
+      <c r="E742" t="s">
+        <v>1</v>
+      </c>
+      <c r="M742" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="743" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A743" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B743" t="s">
+        <v>13</v>
+      </c>
+      <c r="F743" t="s">
+        <v>12</v>
+      </c>
+      <c r="G743" t="s">
+        <v>1</v>
+      </c>
+      <c r="I743" t="s">
+        <v>1</v>
+      </c>
+      <c r="M743" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="744" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A744" s="1">
+        <v>45563</v>
+      </c>
+      <c r="B744" t="s">
+        <v>12</v>
+      </c>
+      <c r="C744" t="s">
+        <v>1</v>
+      </c>
+      <c r="D744" t="s">
+        <v>1</v>
+      </c>
+      <c r="E744" t="s">
+        <v>1</v>
+      </c>
+      <c r="F744" t="s">
+        <v>12</v>
+      </c>
+      <c r="G744" t="s">
+        <v>1</v>
+      </c>
+      <c r="K744" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="745" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A745" s="1">
+        <v>45564</v>
+      </c>
+      <c r="B745" t="s">
+        <v>12</v>
+      </c>
+      <c r="D745" t="s">
+        <v>1</v>
+      </c>
+      <c r="E745" t="s">
+        <v>1</v>
+      </c>
+      <c r="F745" t="s">
+        <v>1</v>
+      </c>
+      <c r="G745" t="s">
+        <v>1</v>
+      </c>
+      <c r="H745" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/Dailies.xlsx
+++ b/Data/Dailies.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C42A2DA-BB6A-4701-84E6-1EB3C14637D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA04E150-537E-4748-A573-B6ABCBB53806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5AECCF6F-801D-49D3-972A-947870F3C920}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4893" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4941" uniqueCount="20">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -447,11 +447,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D90D68-022F-4D80-B45F-E8F95C295EA5}">
-  <dimension ref="A1:O745"/>
+  <dimension ref="A1:O752"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A716" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P729" sqref="P729"/>
+      <selection pane="bottomLeft" activeCell="N749" sqref="N749"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18862,6 +18862,185 @@
         <v>13</v>
       </c>
     </row>
+    <row r="746" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A746" s="1">
+        <v>45565</v>
+      </c>
+      <c r="B746" t="s">
+        <v>12</v>
+      </c>
+      <c r="C746" t="s">
+        <v>1</v>
+      </c>
+      <c r="D746" t="s">
+        <v>1</v>
+      </c>
+      <c r="E746" t="s">
+        <v>1</v>
+      </c>
+      <c r="F746" t="s">
+        <v>12</v>
+      </c>
+      <c r="G746" t="s">
+        <v>1</v>
+      </c>
+      <c r="H746" t="s">
+        <v>13</v>
+      </c>
+      <c r="I746" t="s">
+        <v>1</v>
+      </c>
+      <c r="N746" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="747" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A747" s="1">
+        <v>45566</v>
+      </c>
+      <c r="B747" t="s">
+        <v>12</v>
+      </c>
+      <c r="D747" t="s">
+        <v>1</v>
+      </c>
+      <c r="E747" t="s">
+        <v>1</v>
+      </c>
+      <c r="F747" t="s">
+        <v>1</v>
+      </c>
+      <c r="G747" t="s">
+        <v>1</v>
+      </c>
+      <c r="K747" t="s">
+        <v>1</v>
+      </c>
+      <c r="L747" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="748" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A748" s="1">
+        <v>45567</v>
+      </c>
+      <c r="B748" t="s">
+        <v>12</v>
+      </c>
+      <c r="C748" t="s">
+        <v>1</v>
+      </c>
+      <c r="D748" t="s">
+        <v>1</v>
+      </c>
+      <c r="E748" t="s">
+        <v>1</v>
+      </c>
+      <c r="F748" t="s">
+        <v>1</v>
+      </c>
+      <c r="G748" t="s">
+        <v>1</v>
+      </c>
+      <c r="I748" t="s">
+        <v>1</v>
+      </c>
+      <c r="L748" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="749" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A749" s="1">
+        <v>45568</v>
+      </c>
+      <c r="B749" t="s">
+        <v>12</v>
+      </c>
+      <c r="G749" t="s">
+        <v>1</v>
+      </c>
+      <c r="H749" t="s">
+        <v>13</v>
+      </c>
+      <c r="K749" t="s">
+        <v>1</v>
+      </c>
+      <c r="L749" t="s">
+        <v>1</v>
+      </c>
+      <c r="M749" t="s">
+        <v>1</v>
+      </c>
+      <c r="N749" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="750" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A750" s="1">
+        <v>45569</v>
+      </c>
+      <c r="B750" t="s">
+        <v>12</v>
+      </c>
+      <c r="C750" t="s">
+        <v>1</v>
+      </c>
+      <c r="E750" t="s">
+        <v>1</v>
+      </c>
+      <c r="F750" t="s">
+        <v>12</v>
+      </c>
+      <c r="G750" t="s">
+        <v>1</v>
+      </c>
+      <c r="K750" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="751" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A751" s="1">
+        <v>45570</v>
+      </c>
+      <c r="B751" t="s">
+        <v>1</v>
+      </c>
+      <c r="C751" t="s">
+        <v>1</v>
+      </c>
+      <c r="E751" t="s">
+        <v>1</v>
+      </c>
+      <c r="F751" t="s">
+        <v>12</v>
+      </c>
+      <c r="G751" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="752" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A752" s="1">
+        <v>45571</v>
+      </c>
+      <c r="B752" t="s">
+        <v>13</v>
+      </c>
+      <c r="F752" t="s">
+        <v>1</v>
+      </c>
+      <c r="G752" t="s">
+        <v>1</v>
+      </c>
+      <c r="H752" t="s">
+        <v>12</v>
+      </c>
+      <c r="M752" t="s">
+        <v>1</v>
+      </c>
+      <c r="N752" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/Dailies.xlsx
+++ b/Data/Dailies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA04E150-537E-4748-A573-B6ABCBB53806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4ECFFF5-A6EF-46A4-9A52-E791D5006E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5AECCF6F-801D-49D3-972A-947870F3C920}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4941" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4980" uniqueCount="20">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -447,11 +447,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D90D68-022F-4D80-B45F-E8F95C295EA5}">
-  <dimension ref="A1:O752"/>
+  <dimension ref="A1:O759"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A716" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N749" sqref="N749"/>
+      <pane ySplit="1" topLeftCell="A746" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N754" sqref="N754"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19041,6 +19041,158 @@
         <v>1</v>
       </c>
     </row>
+    <row r="753" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A753" s="1">
+        <v>45572</v>
+      </c>
+      <c r="B753" t="s">
+        <v>1</v>
+      </c>
+      <c r="C753" t="s">
+        <v>1</v>
+      </c>
+      <c r="E753" t="s">
+        <v>1</v>
+      </c>
+      <c r="F753" t="s">
+        <v>12</v>
+      </c>
+      <c r="G753" t="s">
+        <v>1</v>
+      </c>
+      <c r="H753" t="s">
+        <v>13</v>
+      </c>
+      <c r="I753" t="s">
+        <v>1</v>
+      </c>
+      <c r="M753" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="754" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A754" s="1">
+        <v>45573</v>
+      </c>
+      <c r="B754" t="s">
+        <v>12</v>
+      </c>
+      <c r="D754" t="s">
+        <v>1</v>
+      </c>
+      <c r="E754" t="s">
+        <v>1</v>
+      </c>
+      <c r="F754" t="s">
+        <v>1</v>
+      </c>
+      <c r="G754" t="s">
+        <v>1</v>
+      </c>
+      <c r="H754" t="s">
+        <v>12</v>
+      </c>
+      <c r="K754" t="s">
+        <v>1</v>
+      </c>
+      <c r="M754" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="755" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A755" s="1">
+        <v>45574</v>
+      </c>
+      <c r="B755" t="s">
+        <v>12</v>
+      </c>
+      <c r="C755" t="s">
+        <v>1</v>
+      </c>
+      <c r="D755" t="s">
+        <v>1</v>
+      </c>
+      <c r="F755" t="s">
+        <v>1</v>
+      </c>
+      <c r="G755" t="s">
+        <v>1</v>
+      </c>
+      <c r="N755" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="756" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A756" s="1">
+        <v>45575</v>
+      </c>
+      <c r="F756" t="s">
+        <v>1</v>
+      </c>
+      <c r="G756" t="s">
+        <v>1</v>
+      </c>
+      <c r="M756" t="s">
+        <v>1</v>
+      </c>
+      <c r="N756" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="757" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A757" s="1">
+        <v>45576</v>
+      </c>
+      <c r="B757" t="s">
+        <v>12</v>
+      </c>
+      <c r="C757" t="s">
+        <v>1</v>
+      </c>
+      <c r="F757" t="s">
+        <v>1</v>
+      </c>
+      <c r="G757" t="s">
+        <v>1</v>
+      </c>
+      <c r="H757" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="758" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A758" s="1">
+        <v>45577</v>
+      </c>
+      <c r="B758" t="s">
+        <v>12</v>
+      </c>
+      <c r="G758" t="s">
+        <v>1</v>
+      </c>
+      <c r="H758" t="s">
+        <v>13</v>
+      </c>
+      <c r="M758" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="759" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A759" s="1">
+        <v>45578</v>
+      </c>
+      <c r="C759" t="s">
+        <v>1</v>
+      </c>
+      <c r="F759" t="s">
+        <v>1</v>
+      </c>
+      <c r="G759" t="s">
+        <v>1</v>
+      </c>
+      <c r="I759" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/Dailies.xlsx
+++ b/Data/Dailies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4ECFFF5-A6EF-46A4-9A52-E791D5006E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D02706-B8BB-4363-8CEC-D1B6AEFEB9EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5AECCF6F-801D-49D3-972A-947870F3C920}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4980" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5023" uniqueCount="20">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -447,11 +447,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D90D68-022F-4D80-B45F-E8F95C295EA5}">
-  <dimension ref="A1:O759"/>
+  <dimension ref="A1:O766"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A746" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N754" sqref="N754"/>
+      <selection pane="bottomLeft" activeCell="O760" sqref="O760"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19193,6 +19193,170 @@
         <v>1</v>
       </c>
     </row>
+    <row r="760" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A760" s="1">
+        <v>45579</v>
+      </c>
+      <c r="B760" t="s">
+        <v>12</v>
+      </c>
+      <c r="D760" t="s">
+        <v>1</v>
+      </c>
+      <c r="E760" t="s">
+        <v>1</v>
+      </c>
+      <c r="F760" t="s">
+        <v>1</v>
+      </c>
+      <c r="G760" t="s">
+        <v>1</v>
+      </c>
+      <c r="H760" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="761" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A761" s="1">
+        <v>45580</v>
+      </c>
+      <c r="B761" t="s">
+        <v>12</v>
+      </c>
+      <c r="C761" t="s">
+        <v>1</v>
+      </c>
+      <c r="D761" t="s">
+        <v>1</v>
+      </c>
+      <c r="E761" t="s">
+        <v>1</v>
+      </c>
+      <c r="F761" t="s">
+        <v>1</v>
+      </c>
+      <c r="G761" t="s">
+        <v>1</v>
+      </c>
+      <c r="H761" t="s">
+        <v>13</v>
+      </c>
+      <c r="I761" t="s">
+        <v>1</v>
+      </c>
+      <c r="M761" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="762" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A762" s="1">
+        <v>45581</v>
+      </c>
+      <c r="B762" t="s">
+        <v>12</v>
+      </c>
+      <c r="E762" t="s">
+        <v>1</v>
+      </c>
+      <c r="F762" t="s">
+        <v>1</v>
+      </c>
+      <c r="G762" t="s">
+        <v>1</v>
+      </c>
+      <c r="H762" t="s">
+        <v>13</v>
+      </c>
+      <c r="M762" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="763" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A763" s="1">
+        <v>45582</v>
+      </c>
+      <c r="B763" t="s">
+        <v>12</v>
+      </c>
+      <c r="C763" t="s">
+        <v>1</v>
+      </c>
+      <c r="E763" t="s">
+        <v>1</v>
+      </c>
+      <c r="G763" t="s">
+        <v>1</v>
+      </c>
+      <c r="H763" t="s">
+        <v>13</v>
+      </c>
+      <c r="M763" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="764" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A764" s="1">
+        <v>45583</v>
+      </c>
+      <c r="B764" t="s">
+        <v>12</v>
+      </c>
+      <c r="D764" t="s">
+        <v>1</v>
+      </c>
+      <c r="E764" t="s">
+        <v>1</v>
+      </c>
+      <c r="F764" t="s">
+        <v>12</v>
+      </c>
+      <c r="G764" t="s">
+        <v>1</v>
+      </c>
+      <c r="H764" t="s">
+        <v>13</v>
+      </c>
+      <c r="M764" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="765" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A765" s="1">
+        <v>45584</v>
+      </c>
+      <c r="B765" t="s">
+        <v>13</v>
+      </c>
+      <c r="F765" t="s">
+        <v>1</v>
+      </c>
+      <c r="G765" t="s">
+        <v>1</v>
+      </c>
+      <c r="J765" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="766" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A766" s="1">
+        <v>45585</v>
+      </c>
+      <c r="B766" t="s">
+        <v>12</v>
+      </c>
+      <c r="C766" t="s">
+        <v>1</v>
+      </c>
+      <c r="G766" t="s">
+        <v>1</v>
+      </c>
+      <c r="H766" t="s">
+        <v>13</v>
+      </c>
+      <c r="M766" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/Dailies.xlsx
+++ b/Data/Dailies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D02706-B8BB-4363-8CEC-D1B6AEFEB9EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E56D367-298F-4806-A697-C0A501892004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5AECCF6F-801D-49D3-972A-947870F3C920}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5023" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5071" uniqueCount="20">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -447,11 +447,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D90D68-022F-4D80-B45F-E8F95C295EA5}">
-  <dimension ref="A1:O766"/>
+  <dimension ref="A1:O773"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A746" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O760" sqref="O760"/>
+      <selection pane="bottomLeft" activeCell="N768" sqref="N768"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19357,6 +19357,185 @@
         <v>1</v>
       </c>
     </row>
+    <row r="767" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A767" s="1">
+        <v>45586</v>
+      </c>
+      <c r="F767" t="s">
+        <v>12</v>
+      </c>
+      <c r="G767" t="s">
+        <v>1</v>
+      </c>
+      <c r="I767" t="s">
+        <v>1</v>
+      </c>
+      <c r="L767" t="s">
+        <v>1</v>
+      </c>
+      <c r="M767" t="s">
+        <v>1</v>
+      </c>
+      <c r="N767" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="768" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A768" s="1">
+        <v>45587</v>
+      </c>
+      <c r="B768" t="s">
+        <v>12</v>
+      </c>
+      <c r="C768" t="s">
+        <v>1</v>
+      </c>
+      <c r="D768" t="s">
+        <v>1</v>
+      </c>
+      <c r="E768" t="s">
+        <v>1</v>
+      </c>
+      <c r="F768" t="s">
+        <v>1</v>
+      </c>
+      <c r="G768" t="s">
+        <v>1</v>
+      </c>
+      <c r="H768" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="769" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A769" s="1">
+        <v>45588</v>
+      </c>
+      <c r="B769" t="s">
+        <v>1</v>
+      </c>
+      <c r="F769" t="s">
+        <v>1</v>
+      </c>
+      <c r="G769" t="s">
+        <v>1</v>
+      </c>
+      <c r="I769" t="s">
+        <v>1</v>
+      </c>
+      <c r="L769" t="s">
+        <v>1</v>
+      </c>
+      <c r="M769" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="770" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A770" s="1">
+        <v>45589</v>
+      </c>
+      <c r="B770" t="s">
+        <v>12</v>
+      </c>
+      <c r="C770" t="s">
+        <v>1</v>
+      </c>
+      <c r="D770" t="s">
+        <v>1</v>
+      </c>
+      <c r="E770" t="s">
+        <v>1</v>
+      </c>
+      <c r="F770" t="s">
+        <v>12</v>
+      </c>
+      <c r="G770" t="s">
+        <v>1</v>
+      </c>
+      <c r="H770" t="s">
+        <v>13</v>
+      </c>
+      <c r="K770" t="s">
+        <v>1</v>
+      </c>
+      <c r="L770" t="s">
+        <v>1</v>
+      </c>
+      <c r="M770" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="771" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A771" s="1">
+        <v>45590</v>
+      </c>
+      <c r="B771" t="s">
+        <v>13</v>
+      </c>
+      <c r="F771" t="s">
+        <v>1</v>
+      </c>
+      <c r="G771" t="s">
+        <v>1</v>
+      </c>
+      <c r="H771" t="s">
+        <v>13</v>
+      </c>
+      <c r="I771" t="s">
+        <v>1</v>
+      </c>
+      <c r="M771" t="s">
+        <v>1</v>
+      </c>
+      <c r="N771" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="772" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A772" s="1">
+        <v>45591</v>
+      </c>
+      <c r="B772" t="s">
+        <v>12</v>
+      </c>
+      <c r="C772" t="s">
+        <v>1</v>
+      </c>
+      <c r="D772" t="s">
+        <v>1</v>
+      </c>
+      <c r="E772" t="s">
+        <v>1</v>
+      </c>
+      <c r="F772" t="s">
+        <v>1</v>
+      </c>
+      <c r="G772" t="s">
+        <v>1</v>
+      </c>
+      <c r="H772" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="773" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A773" s="1">
+        <v>45592</v>
+      </c>
+      <c r="B773" t="s">
+        <v>12</v>
+      </c>
+      <c r="D773" t="s">
+        <v>1</v>
+      </c>
+      <c r="E773" t="s">
+        <v>1</v>
+      </c>
+      <c r="F773" t="s">
+        <v>1</v>
+      </c>
+      <c r="H773" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/Dailies.xlsx
+++ b/Data/Dailies.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E56D367-298F-4806-A697-C0A501892004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203AD132-0BA2-4EA8-A01F-0C64FCB5246F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5AECCF6F-801D-49D3-972A-947870F3C920}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5071" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5119" uniqueCount="20">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -447,11 +447,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D90D68-022F-4D80-B45F-E8F95C295EA5}">
-  <dimension ref="A1:O773"/>
+  <dimension ref="A1:O780"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A746" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N768" sqref="N768"/>
+      <pane ySplit="1" topLeftCell="A752" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N777" sqref="N777"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19536,6 +19536,185 @@
         <v>13</v>
       </c>
     </row>
+    <row r="774" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A774" s="1">
+        <v>45593</v>
+      </c>
+      <c r="C774" t="s">
+        <v>1</v>
+      </c>
+      <c r="F774" t="s">
+        <v>1</v>
+      </c>
+      <c r="G774" t="s">
+        <v>1</v>
+      </c>
+      <c r="H774" t="s">
+        <v>13</v>
+      </c>
+      <c r="I774" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="775" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A775" s="1">
+        <v>45594</v>
+      </c>
+      <c r="B775" t="s">
+        <v>12</v>
+      </c>
+      <c r="D775" t="s">
+        <v>1</v>
+      </c>
+      <c r="E775" t="s">
+        <v>1</v>
+      </c>
+      <c r="F775" t="s">
+        <v>12</v>
+      </c>
+      <c r="G775" t="s">
+        <v>1</v>
+      </c>
+      <c r="H775" t="s">
+        <v>12</v>
+      </c>
+      <c r="L775" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="776" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A776" s="1">
+        <v>45595</v>
+      </c>
+      <c r="B776" t="s">
+        <v>12</v>
+      </c>
+      <c r="C776" t="s">
+        <v>1</v>
+      </c>
+      <c r="D776" t="s">
+        <v>1</v>
+      </c>
+      <c r="E776" t="s">
+        <v>1</v>
+      </c>
+      <c r="F776" t="s">
+        <v>1</v>
+      </c>
+      <c r="G776" t="s">
+        <v>1</v>
+      </c>
+      <c r="H776" t="s">
+        <v>13</v>
+      </c>
+      <c r="J776" t="s">
+        <v>1</v>
+      </c>
+      <c r="M776" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="777" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A777" s="1">
+        <v>45596</v>
+      </c>
+      <c r="B777" t="s">
+        <v>1</v>
+      </c>
+      <c r="C777" t="s">
+        <v>1</v>
+      </c>
+      <c r="D777" t="s">
+        <v>1</v>
+      </c>
+      <c r="E777" t="s">
+        <v>1</v>
+      </c>
+      <c r="F777" t="s">
+        <v>1</v>
+      </c>
+      <c r="G777" t="s">
+        <v>1</v>
+      </c>
+      <c r="H777" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="778" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A778" s="1">
+        <v>45597</v>
+      </c>
+      <c r="B778" t="s">
+        <v>1</v>
+      </c>
+      <c r="D778" t="s">
+        <v>1</v>
+      </c>
+      <c r="E778" t="s">
+        <v>1</v>
+      </c>
+      <c r="F778" t="s">
+        <v>1</v>
+      </c>
+      <c r="G778" t="s">
+        <v>1</v>
+      </c>
+      <c r="H778" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="779" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A779" s="1">
+        <v>45598</v>
+      </c>
+      <c r="C779" t="s">
+        <v>1</v>
+      </c>
+      <c r="F779" t="s">
+        <v>12</v>
+      </c>
+      <c r="G779" t="s">
+        <v>1</v>
+      </c>
+      <c r="H779" t="s">
+        <v>13</v>
+      </c>
+      <c r="I779" t="s">
+        <v>1</v>
+      </c>
+      <c r="M779" t="s">
+        <v>1</v>
+      </c>
+      <c r="N779" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="780" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A780" s="1">
+        <v>45599</v>
+      </c>
+      <c r="B780" t="s">
+        <v>12</v>
+      </c>
+      <c r="D780" t="s">
+        <v>1</v>
+      </c>
+      <c r="E780" t="s">
+        <v>1</v>
+      </c>
+      <c r="G780" t="s">
+        <v>1</v>
+      </c>
+      <c r="H780" t="s">
+        <v>13</v>
+      </c>
+      <c r="M780" t="s">
+        <v>1</v>
+      </c>
+      <c r="N780" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/Dailies.xlsx
+++ b/Data/Dailies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203AD132-0BA2-4EA8-A01F-0C64FCB5246F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0297F48F-0654-4FA7-8C12-20623DF366AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5AECCF6F-801D-49D3-972A-947870F3C920}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5119" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5212" uniqueCount="20">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -447,11 +447,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D90D68-022F-4D80-B45F-E8F95C295EA5}">
-  <dimension ref="A1:O780"/>
+  <dimension ref="A1:O794"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A752" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N777" sqref="N777"/>
+      <pane ySplit="1" topLeftCell="A770" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N791" sqref="N791"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19715,6 +19715,355 @@
         <v>1</v>
       </c>
     </row>
+    <row r="781" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A781" s="1">
+        <v>45600</v>
+      </c>
+      <c r="B781" t="s">
+        <v>1</v>
+      </c>
+      <c r="C781" t="s">
+        <v>1</v>
+      </c>
+      <c r="D781" t="s">
+        <v>1</v>
+      </c>
+      <c r="E781" t="s">
+        <v>1</v>
+      </c>
+      <c r="F781" t="s">
+        <v>1</v>
+      </c>
+      <c r="G781" t="s">
+        <v>1</v>
+      </c>
+      <c r="H781" t="s">
+        <v>13</v>
+      </c>
+      <c r="I781" t="s">
+        <v>1</v>
+      </c>
+      <c r="M781" t="s">
+        <v>1</v>
+      </c>
+      <c r="N781" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="782" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A782" s="1">
+        <v>45601</v>
+      </c>
+      <c r="B782" t="s">
+        <v>1</v>
+      </c>
+      <c r="D782" t="s">
+        <v>1</v>
+      </c>
+      <c r="E782" t="s">
+        <v>1</v>
+      </c>
+      <c r="F782" t="s">
+        <v>1</v>
+      </c>
+      <c r="G782" t="s">
+        <v>1</v>
+      </c>
+      <c r="M782" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="783" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A783" s="1">
+        <v>45602</v>
+      </c>
+      <c r="B783" t="s">
+        <v>12</v>
+      </c>
+      <c r="C783" t="s">
+        <v>1</v>
+      </c>
+      <c r="D783" t="s">
+        <v>1</v>
+      </c>
+      <c r="E783" t="s">
+        <v>1</v>
+      </c>
+      <c r="F783" t="s">
+        <v>1</v>
+      </c>
+      <c r="G783" t="s">
+        <v>1</v>
+      </c>
+      <c r="H783" t="s">
+        <v>13</v>
+      </c>
+      <c r="I783" t="s">
+        <v>1</v>
+      </c>
+      <c r="L783" t="s">
+        <v>1</v>
+      </c>
+      <c r="M783" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="784" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A784" s="1">
+        <v>45603</v>
+      </c>
+      <c r="B784" t="s">
+        <v>12</v>
+      </c>
+      <c r="G784" t="s">
+        <v>1</v>
+      </c>
+      <c r="H784" t="s">
+        <v>13</v>
+      </c>
+      <c r="M784" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="785" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A785" s="1">
+        <v>45604</v>
+      </c>
+      <c r="B785" t="s">
+        <v>12</v>
+      </c>
+      <c r="C785" t="s">
+        <v>1</v>
+      </c>
+      <c r="D785" t="s">
+        <v>1</v>
+      </c>
+      <c r="E785" t="s">
+        <v>1</v>
+      </c>
+      <c r="F785" t="s">
+        <v>1</v>
+      </c>
+      <c r="G785" t="s">
+        <v>1</v>
+      </c>
+      <c r="M785" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="786" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A786" s="1">
+        <v>45605</v>
+      </c>
+      <c r="B786" t="s">
+        <v>12</v>
+      </c>
+      <c r="F786" t="s">
+        <v>1</v>
+      </c>
+      <c r="G786" t="s">
+        <v>1</v>
+      </c>
+      <c r="I786" t="s">
+        <v>1</v>
+      </c>
+      <c r="M786" t="s">
+        <v>1</v>
+      </c>
+      <c r="N786" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="787" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A787" s="1">
+        <v>45606</v>
+      </c>
+      <c r="B787" t="s">
+        <v>1</v>
+      </c>
+      <c r="C787" t="s">
+        <v>1</v>
+      </c>
+      <c r="E787" t="s">
+        <v>1</v>
+      </c>
+      <c r="F787" t="s">
+        <v>1</v>
+      </c>
+      <c r="G787" t="s">
+        <v>1</v>
+      </c>
+      <c r="H787" t="s">
+        <v>13</v>
+      </c>
+      <c r="M787" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="788" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A788" s="1">
+        <v>45607</v>
+      </c>
+      <c r="B788" t="s">
+        <v>12</v>
+      </c>
+      <c r="D788" t="s">
+        <v>1</v>
+      </c>
+      <c r="E788" t="s">
+        <v>1</v>
+      </c>
+      <c r="F788" t="s">
+        <v>1</v>
+      </c>
+      <c r="G788" t="s">
+        <v>1</v>
+      </c>
+      <c r="I788" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="789" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A789" s="1">
+        <v>45608</v>
+      </c>
+      <c r="B789" t="s">
+        <v>1</v>
+      </c>
+      <c r="C789" t="s">
+        <v>1</v>
+      </c>
+      <c r="D789" t="s">
+        <v>1</v>
+      </c>
+      <c r="E789" t="s">
+        <v>1</v>
+      </c>
+      <c r="F789" t="s">
+        <v>12</v>
+      </c>
+      <c r="G789" t="s">
+        <v>1</v>
+      </c>
+      <c r="H789" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="790" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A790" s="1">
+        <v>45609</v>
+      </c>
+      <c r="B790" t="s">
+        <v>12</v>
+      </c>
+      <c r="D790" t="s">
+        <v>1</v>
+      </c>
+      <c r="E790" t="s">
+        <v>1</v>
+      </c>
+      <c r="F790" t="s">
+        <v>1</v>
+      </c>
+      <c r="G790" t="s">
+        <v>1</v>
+      </c>
+      <c r="J790" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="791" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A791" s="1">
+        <v>45610</v>
+      </c>
+      <c r="B791" t="s">
+        <v>13</v>
+      </c>
+      <c r="C791" t="s">
+        <v>1</v>
+      </c>
+      <c r="F791" t="s">
+        <v>1</v>
+      </c>
+      <c r="G791" t="s">
+        <v>1</v>
+      </c>
+      <c r="H791" t="s">
+        <v>13</v>
+      </c>
+      <c r="M791" t="s">
+        <v>1</v>
+      </c>
+      <c r="N791" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="792" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A792" s="1">
+        <v>45611</v>
+      </c>
+      <c r="F792" t="s">
+        <v>12</v>
+      </c>
+      <c r="G792" t="s">
+        <v>1</v>
+      </c>
+      <c r="H792" t="s">
+        <v>13</v>
+      </c>
+      <c r="I792" t="s">
+        <v>1</v>
+      </c>
+      <c r="M792" t="s">
+        <v>1</v>
+      </c>
+      <c r="N792" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="793" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A793" s="1">
+        <v>45612</v>
+      </c>
+      <c r="B793" t="s">
+        <v>12</v>
+      </c>
+      <c r="C793" t="s">
+        <v>1</v>
+      </c>
+      <c r="F793" t="s">
+        <v>1</v>
+      </c>
+      <c r="G793" t="s">
+        <v>1</v>
+      </c>
+      <c r="H793" t="s">
+        <v>13</v>
+      </c>
+      <c r="M793" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="794" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A794" s="1">
+        <v>45613</v>
+      </c>
+      <c r="B794" t="s">
+        <v>13</v>
+      </c>
+      <c r="F794" t="s">
+        <v>1</v>
+      </c>
+      <c r="G794" t="s">
+        <v>1</v>
+      </c>
+      <c r="H794" t="s">
+        <v>13</v>
+      </c>
+      <c r="M794" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/Dailies.xlsx
+++ b/Data/Dailies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0297F48F-0654-4FA7-8C12-20623DF366AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930EBAA5-628B-4D73-86CA-207F917603DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5AECCF6F-801D-49D3-972A-947870F3C920}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5212" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5257" uniqueCount="20">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -447,11 +447,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D90D68-022F-4D80-B45F-E8F95C295EA5}">
-  <dimension ref="A1:O794"/>
+  <dimension ref="A1:O801"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A770" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N791" sqref="N791"/>
+      <selection pane="bottomLeft" activeCell="S793" sqref="S793"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20064,6 +20064,176 @@
         <v>1</v>
       </c>
     </row>
+    <row r="795" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A795" s="1">
+        <v>45614</v>
+      </c>
+      <c r="B795" t="s">
+        <v>12</v>
+      </c>
+      <c r="C795" t="s">
+        <v>1</v>
+      </c>
+      <c r="E795" t="s">
+        <v>1</v>
+      </c>
+      <c r="F795" t="s">
+        <v>1</v>
+      </c>
+      <c r="G795" t="s">
+        <v>1</v>
+      </c>
+      <c r="H795" t="s">
+        <v>13</v>
+      </c>
+      <c r="I795" t="s">
+        <v>1</v>
+      </c>
+      <c r="N795" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="796" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A796" s="1">
+        <v>45615</v>
+      </c>
+      <c r="B796" t="s">
+        <v>1</v>
+      </c>
+      <c r="D796" t="s">
+        <v>1</v>
+      </c>
+      <c r="E796" t="s">
+        <v>1</v>
+      </c>
+      <c r="F796" t="s">
+        <v>12</v>
+      </c>
+      <c r="G796" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="797" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A797" s="1">
+        <v>45616</v>
+      </c>
+      <c r="B797" t="s">
+        <v>12</v>
+      </c>
+      <c r="C797" t="s">
+        <v>1</v>
+      </c>
+      <c r="E797" t="s">
+        <v>1</v>
+      </c>
+      <c r="F797" t="s">
+        <v>1</v>
+      </c>
+      <c r="G797" t="s">
+        <v>1</v>
+      </c>
+      <c r="J797" t="s">
+        <v>1</v>
+      </c>
+      <c r="M797" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="798" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A798" s="1">
+        <v>45617</v>
+      </c>
+      <c r="B798" t="s">
+        <v>12</v>
+      </c>
+      <c r="G798" t="s">
+        <v>1</v>
+      </c>
+      <c r="H798" t="s">
+        <v>13</v>
+      </c>
+      <c r="N798" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="799" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A799" s="1">
+        <v>45618</v>
+      </c>
+      <c r="B799" t="s">
+        <v>12</v>
+      </c>
+      <c r="C799" t="s">
+        <v>1</v>
+      </c>
+      <c r="E799" t="s">
+        <v>1</v>
+      </c>
+      <c r="F799" t="s">
+        <v>1</v>
+      </c>
+      <c r="G799" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="800" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A800" s="1">
+        <v>45619</v>
+      </c>
+      <c r="B800" t="s">
+        <v>12</v>
+      </c>
+      <c r="D800" t="s">
+        <v>1</v>
+      </c>
+      <c r="E800" t="s">
+        <v>1</v>
+      </c>
+      <c r="F800" t="s">
+        <v>1</v>
+      </c>
+      <c r="G800" t="s">
+        <v>1</v>
+      </c>
+      <c r="H800" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="801" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A801" s="1">
+        <v>45620</v>
+      </c>
+      <c r="B801" t="s">
+        <v>12</v>
+      </c>
+      <c r="C801" t="s">
+        <v>1</v>
+      </c>
+      <c r="D801" t="s">
+        <v>1</v>
+      </c>
+      <c r="E801" t="s">
+        <v>1</v>
+      </c>
+      <c r="F801" t="s">
+        <v>1</v>
+      </c>
+      <c r="G801" t="s">
+        <v>1</v>
+      </c>
+      <c r="H801" t="s">
+        <v>13</v>
+      </c>
+      <c r="I801" t="s">
+        <v>1</v>
+      </c>
+      <c r="M801" t="s">
+        <v>1</v>
+      </c>
+      <c r="N801" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/Dailies.xlsx
+++ b/Data/Dailies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930EBAA5-628B-4D73-86CA-207F917603DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A9ED9A-EDEB-4960-A598-1758473F1C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5AECCF6F-801D-49D3-972A-947870F3C920}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5257" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5299" uniqueCount="20">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -447,11 +447,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D90D68-022F-4D80-B45F-E8F95C295EA5}">
-  <dimension ref="A1:O801"/>
+  <dimension ref="A1:O808"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A770" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S793" sqref="S793"/>
+      <selection pane="bottomLeft" activeCell="N802" sqref="N802"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20234,6 +20234,167 @@
         <v>1</v>
       </c>
     </row>
+    <row r="802" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A802" s="1">
+        <v>45621</v>
+      </c>
+      <c r="B802" t="s">
+        <v>12</v>
+      </c>
+      <c r="E802" t="s">
+        <v>1</v>
+      </c>
+      <c r="F802" t="s">
+        <v>1</v>
+      </c>
+      <c r="G802" t="s">
+        <v>1</v>
+      </c>
+      <c r="H802" t="s">
+        <v>13</v>
+      </c>
+      <c r="J802" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="803" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A803" s="1">
+        <v>45622</v>
+      </c>
+      <c r="B803" t="s">
+        <v>12</v>
+      </c>
+      <c r="C803" t="s">
+        <v>1</v>
+      </c>
+      <c r="D803" t="s">
+        <v>1</v>
+      </c>
+      <c r="E803" t="s">
+        <v>1</v>
+      </c>
+      <c r="F803" t="s">
+        <v>1</v>
+      </c>
+      <c r="G803" t="s">
+        <v>1</v>
+      </c>
+      <c r="H803" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="804" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A804" s="1">
+        <v>45623</v>
+      </c>
+      <c r="B804" t="s">
+        <v>12</v>
+      </c>
+      <c r="D804" t="s">
+        <v>1</v>
+      </c>
+      <c r="E804" t="s">
+        <v>1</v>
+      </c>
+      <c r="F804" t="s">
+        <v>12</v>
+      </c>
+      <c r="G804" t="s">
+        <v>1</v>
+      </c>
+      <c r="K804" t="s">
+        <v>1</v>
+      </c>
+      <c r="L804" t="s">
+        <v>1</v>
+      </c>
+      <c r="M804" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="805" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A805" s="1">
+        <v>45624</v>
+      </c>
+      <c r="B805" t="s">
+        <v>13</v>
+      </c>
+      <c r="C805" t="s">
+        <v>1</v>
+      </c>
+      <c r="F805" t="s">
+        <v>1</v>
+      </c>
+      <c r="G805" t="s">
+        <v>1</v>
+      </c>
+      <c r="J805" t="s">
+        <v>1</v>
+      </c>
+      <c r="M805" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="806" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A806" s="1">
+        <v>45625</v>
+      </c>
+      <c r="B806" t="s">
+        <v>12</v>
+      </c>
+      <c r="D806" t="s">
+        <v>1</v>
+      </c>
+      <c r="E806" t="s">
+        <v>1</v>
+      </c>
+      <c r="F806" t="s">
+        <v>12</v>
+      </c>
+      <c r="G806" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="807" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A807" s="1">
+        <v>45626</v>
+      </c>
+      <c r="B807" t="s">
+        <v>12</v>
+      </c>
+      <c r="C807" t="s">
+        <v>1</v>
+      </c>
+      <c r="F807" t="s">
+        <v>1</v>
+      </c>
+      <c r="G807" t="s">
+        <v>1</v>
+      </c>
+      <c r="H807" t="s">
+        <v>13</v>
+      </c>
+      <c r="I807" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="808" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A808" s="1">
+        <v>45627</v>
+      </c>
+      <c r="B808" t="s">
+        <v>13</v>
+      </c>
+      <c r="G808" t="s">
+        <v>1</v>
+      </c>
+      <c r="H808" t="s">
+        <v>13</v>
+      </c>
+      <c r="M808" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/Dailies.xlsx
+++ b/Data/Dailies.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A9ED9A-EDEB-4960-A598-1758473F1C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750F6125-88BF-4597-B615-8DDB894F9788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5AECCF6F-801D-49D3-972A-947870F3C920}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5299" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5338" uniqueCount="20">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -447,11 +447,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D90D68-022F-4D80-B45F-E8F95C295EA5}">
-  <dimension ref="A1:O808"/>
+  <dimension ref="A1:O815"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A770" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N802" sqref="N802"/>
+      <pane ySplit="1" topLeftCell="A779" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N815" sqref="N815"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20395,6 +20395,158 @@
         <v>1</v>
       </c>
     </row>
+    <row r="809" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A809" s="1">
+        <v>45628</v>
+      </c>
+      <c r="B809" t="s">
+        <v>13</v>
+      </c>
+      <c r="C809" t="s">
+        <v>1</v>
+      </c>
+      <c r="F809" t="s">
+        <v>1</v>
+      </c>
+      <c r="G809" t="s">
+        <v>1</v>
+      </c>
+      <c r="I809" t="s">
+        <v>1</v>
+      </c>
+      <c r="M809" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="810" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A810" s="1">
+        <v>45629</v>
+      </c>
+      <c r="B810" t="s">
+        <v>12</v>
+      </c>
+      <c r="E810" t="s">
+        <v>1</v>
+      </c>
+      <c r="F810" t="s">
+        <v>1</v>
+      </c>
+      <c r="G810" t="s">
+        <v>1</v>
+      </c>
+      <c r="H810" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="811" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A811" s="1">
+        <v>45630</v>
+      </c>
+      <c r="B811" t="s">
+        <v>12</v>
+      </c>
+      <c r="C811" t="s">
+        <v>1</v>
+      </c>
+      <c r="D811" t="s">
+        <v>1</v>
+      </c>
+      <c r="E811" t="s">
+        <v>1</v>
+      </c>
+      <c r="F811" t="s">
+        <v>1</v>
+      </c>
+      <c r="G811" t="s">
+        <v>1</v>
+      </c>
+      <c r="M811" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="812" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A812" s="1">
+        <v>45631</v>
+      </c>
+      <c r="B812" t="s">
+        <v>12</v>
+      </c>
+      <c r="G812" t="s">
+        <v>1</v>
+      </c>
+      <c r="N812" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="813" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A813" s="1">
+        <v>45632</v>
+      </c>
+      <c r="B813" t="s">
+        <v>12</v>
+      </c>
+      <c r="C813" t="s">
+        <v>1</v>
+      </c>
+      <c r="E813" t="s">
+        <v>1</v>
+      </c>
+      <c r="F813" t="s">
+        <v>1</v>
+      </c>
+      <c r="G813" t="s">
+        <v>1</v>
+      </c>
+      <c r="M813" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="814" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A814" s="1">
+        <v>45633</v>
+      </c>
+      <c r="B814" t="s">
+        <v>13</v>
+      </c>
+      <c r="F814" t="s">
+        <v>12</v>
+      </c>
+      <c r="G814" t="s">
+        <v>1</v>
+      </c>
+      <c r="I814" t="s">
+        <v>1</v>
+      </c>
+      <c r="M814" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="815" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A815" s="1">
+        <v>45634</v>
+      </c>
+      <c r="B815" t="s">
+        <v>13</v>
+      </c>
+      <c r="C815" t="s">
+        <v>1</v>
+      </c>
+      <c r="F815" t="s">
+        <v>1</v>
+      </c>
+      <c r="G815" t="s">
+        <v>1</v>
+      </c>
+      <c r="H815" t="s">
+        <v>13</v>
+      </c>
+      <c r="M815" t="s">
+        <v>1</v>
+      </c>
+      <c r="N815" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/Dailies.xlsx
+++ b/Data/Dailies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750F6125-88BF-4597-B615-8DDB894F9788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CEE3C2A-0864-44F4-8822-A825912F8031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5AECCF6F-801D-49D3-972A-947870F3C920}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5338" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5379" uniqueCount="20">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -447,11 +447,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D90D68-022F-4D80-B45F-E8F95C295EA5}">
-  <dimension ref="A1:O815"/>
+  <dimension ref="A1:O822"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A779" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N815" sqref="N815"/>
+      <pane ySplit="1" topLeftCell="A791" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O816" sqref="O816"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20547,6 +20547,164 @@
         <v>1</v>
       </c>
     </row>
+    <row r="816" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A816" s="1">
+        <v>45642</v>
+      </c>
+      <c r="B816" t="s">
+        <v>12</v>
+      </c>
+      <c r="F816" t="s">
+        <v>1</v>
+      </c>
+      <c r="G816" t="s">
+        <v>1</v>
+      </c>
+      <c r="H816" t="s">
+        <v>13</v>
+      </c>
+      <c r="M816" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="817" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A817" s="1">
+        <v>45643</v>
+      </c>
+      <c r="B817" t="s">
+        <v>12</v>
+      </c>
+      <c r="C817" t="s">
+        <v>1</v>
+      </c>
+      <c r="E817" t="s">
+        <v>1</v>
+      </c>
+      <c r="F817" t="s">
+        <v>12</v>
+      </c>
+      <c r="G817" t="s">
+        <v>1</v>
+      </c>
+      <c r="H817" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="818" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A818" s="1">
+        <v>45644</v>
+      </c>
+      <c r="B818" t="s">
+        <v>12</v>
+      </c>
+      <c r="E818" t="s">
+        <v>1</v>
+      </c>
+      <c r="F818" t="s">
+        <v>1</v>
+      </c>
+      <c r="G818" t="s">
+        <v>1</v>
+      </c>
+      <c r="H818" t="s">
+        <v>13</v>
+      </c>
+      <c r="M818" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="819" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A819" s="1">
+        <v>45645</v>
+      </c>
+      <c r="B819" t="s">
+        <v>12</v>
+      </c>
+      <c r="C819" t="s">
+        <v>1</v>
+      </c>
+      <c r="D819" t="s">
+        <v>1</v>
+      </c>
+      <c r="E819" t="s">
+        <v>1</v>
+      </c>
+      <c r="F819" t="s">
+        <v>12</v>
+      </c>
+      <c r="G819" t="s">
+        <v>1</v>
+      </c>
+      <c r="I819" t="s">
+        <v>1</v>
+      </c>
+      <c r="M819" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="820" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A820" s="1">
+        <v>45646</v>
+      </c>
+      <c r="B820" t="s">
+        <v>13</v>
+      </c>
+      <c r="F820" t="s">
+        <v>1</v>
+      </c>
+      <c r="G820" t="s">
+        <v>1</v>
+      </c>
+      <c r="H820" t="s">
+        <v>13</v>
+      </c>
+      <c r="I820" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="821" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A821" s="1">
+        <v>45647</v>
+      </c>
+      <c r="B821" t="s">
+        <v>12</v>
+      </c>
+      <c r="C821" t="s">
+        <v>1</v>
+      </c>
+      <c r="D821" t="s">
+        <v>1</v>
+      </c>
+      <c r="E821" t="s">
+        <v>1</v>
+      </c>
+      <c r="F821" t="s">
+        <v>1</v>
+      </c>
+      <c r="G821" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="822" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A822" s="1">
+        <v>45648</v>
+      </c>
+      <c r="B822" t="s">
+        <v>12</v>
+      </c>
+      <c r="E822" t="s">
+        <v>1</v>
+      </c>
+      <c r="F822" t="s">
+        <v>1</v>
+      </c>
+      <c r="G822" t="s">
+        <v>1</v>
+      </c>
+      <c r="H822" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/Dailies.xlsx
+++ b/Data/Dailies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CEE3C2A-0864-44F4-8822-A825912F8031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5809353A-2458-4CFC-944F-B8E52F5D0453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5AECCF6F-801D-49D3-972A-947870F3C920}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5379" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5412" uniqueCount="20">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -447,11 +447,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D90D68-022F-4D80-B45F-E8F95C295EA5}">
-  <dimension ref="A1:O822"/>
+  <dimension ref="A1:O829"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A791" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O816" sqref="O816"/>
+      <pane ySplit="1" topLeftCell="A803" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N827" sqref="N827"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20567,7 +20567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="817" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A817" s="1">
         <v>45643</v>
       </c>
@@ -20590,7 +20590,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="818" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A818" s="1">
         <v>45644</v>
       </c>
@@ -20613,7 +20613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="819" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A819" s="1">
         <v>45645</v>
       </c>
@@ -20642,7 +20642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="820" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A820" s="1">
         <v>45646</v>
       </c>
@@ -20662,7 +20662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="821" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A821" s="1">
         <v>45647</v>
       </c>
@@ -20685,7 +20685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="822" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A822" s="1">
         <v>45648</v>
       </c>
@@ -20703,6 +20703,140 @@
       </c>
       <c r="H822" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="823" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A823" s="1">
+        <v>45649</v>
+      </c>
+      <c r="B823" t="s">
+        <v>13</v>
+      </c>
+      <c r="C823" t="s">
+        <v>1</v>
+      </c>
+      <c r="F823" t="s">
+        <v>1</v>
+      </c>
+      <c r="G823" t="s">
+        <v>1</v>
+      </c>
+      <c r="I823" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="824" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A824" s="1">
+        <v>45650</v>
+      </c>
+      <c r="B824" t="s">
+        <v>12</v>
+      </c>
+      <c r="F824" t="s">
+        <v>1</v>
+      </c>
+      <c r="G824" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="825" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A825" s="1">
+        <v>45651</v>
+      </c>
+      <c r="B825" t="s">
+        <v>1</v>
+      </c>
+      <c r="C825" t="s">
+        <v>1</v>
+      </c>
+      <c r="F825" t="s">
+        <v>1</v>
+      </c>
+      <c r="G825" t="s">
+        <v>1</v>
+      </c>
+      <c r="H825" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="826" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A826" s="1">
+        <v>45652</v>
+      </c>
+      <c r="B826" t="s">
+        <v>13</v>
+      </c>
+      <c r="G826" t="s">
+        <v>1</v>
+      </c>
+      <c r="H826" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="827" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A827" s="1">
+        <v>45653</v>
+      </c>
+      <c r="B827" t="s">
+        <v>12</v>
+      </c>
+      <c r="C827" t="s">
+        <v>1</v>
+      </c>
+      <c r="F827" t="s">
+        <v>1</v>
+      </c>
+      <c r="G827" t="s">
+        <v>1</v>
+      </c>
+      <c r="H827" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="828" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A828" s="1">
+        <v>45654</v>
+      </c>
+      <c r="B828" t="s">
+        <v>13</v>
+      </c>
+      <c r="C828" t="s">
+        <v>1</v>
+      </c>
+      <c r="F828" t="s">
+        <v>1</v>
+      </c>
+      <c r="G828" t="s">
+        <v>1</v>
+      </c>
+      <c r="H828" t="s">
+        <v>13</v>
+      </c>
+      <c r="I828" t="s">
+        <v>1</v>
+      </c>
+      <c r="N828" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="829" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A829" s="1">
+        <v>45655</v>
+      </c>
+      <c r="B829" t="s">
+        <v>13</v>
+      </c>
+      <c r="F829" t="s">
+        <v>12</v>
+      </c>
+      <c r="G829" t="s">
+        <v>1</v>
+      </c>
+      <c r="H829" t="s">
+        <v>13</v>
+      </c>
+      <c r="N829" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Dailies.xlsx
+++ b/Data/Dailies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5809353A-2458-4CFC-944F-B8E52F5D0453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD3AABE-69AA-4B3E-952F-65A530F45D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5AECCF6F-801D-49D3-972A-947870F3C920}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5412" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5448" uniqueCount="20">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -447,11 +447,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D90D68-022F-4D80-B45F-E8F95C295EA5}">
-  <dimension ref="A1:O829"/>
+  <dimension ref="A1:O836"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A803" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N827" sqref="N827"/>
+      <selection pane="bottomLeft" activeCell="M836" sqref="M836"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20839,6 +20839,149 @@
         <v>1</v>
       </c>
     </row>
+    <row r="830" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A830" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B830" t="s">
+        <v>13</v>
+      </c>
+      <c r="C830" t="s">
+        <v>1</v>
+      </c>
+      <c r="F830" t="s">
+        <v>1</v>
+      </c>
+      <c r="G830" t="s">
+        <v>1</v>
+      </c>
+      <c r="H830" t="s">
+        <v>13</v>
+      </c>
+      <c r="I830" t="s">
+        <v>1</v>
+      </c>
+      <c r="N830" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="831" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A831" s="1">
+        <v>45657</v>
+      </c>
+      <c r="B831" t="s">
+        <v>12</v>
+      </c>
+      <c r="D831" t="s">
+        <v>1</v>
+      </c>
+      <c r="E831" t="s">
+        <v>1</v>
+      </c>
+      <c r="F831" t="s">
+        <v>1</v>
+      </c>
+      <c r="G831" t="s">
+        <v>1</v>
+      </c>
+      <c r="H831" t="s">
+        <v>13</v>
+      </c>
+      <c r="N831" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="832" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A832" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B832" t="s">
+        <v>12</v>
+      </c>
+      <c r="C832" t="s">
+        <v>1</v>
+      </c>
+      <c r="F832" t="s">
+        <v>12</v>
+      </c>
+      <c r="G832" t="s">
+        <v>1</v>
+      </c>
+      <c r="I832" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="833" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A833" s="1">
+        <v>45659</v>
+      </c>
+      <c r="B833" t="s">
+        <v>13</v>
+      </c>
+      <c r="G833" t="s">
+        <v>1</v>
+      </c>
+      <c r="H833" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="834" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A834" s="1">
+        <v>45660</v>
+      </c>
+      <c r="B834" t="s">
+        <v>12</v>
+      </c>
+      <c r="C834" t="s">
+        <v>1</v>
+      </c>
+      <c r="D834" t="s">
+        <v>1</v>
+      </c>
+      <c r="E834" t="s">
+        <v>1</v>
+      </c>
+      <c r="F834" t="s">
+        <v>1</v>
+      </c>
+      <c r="G834" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="835" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A835" s="1">
+        <v>45661</v>
+      </c>
+      <c r="B835" t="s">
+        <v>12</v>
+      </c>
+      <c r="F835" t="s">
+        <v>1</v>
+      </c>
+      <c r="G835" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="836" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A836" s="1">
+        <v>45662</v>
+      </c>
+      <c r="B836" t="s">
+        <v>13</v>
+      </c>
+      <c r="C836" t="s">
+        <v>1</v>
+      </c>
+      <c r="F836" t="s">
+        <v>1</v>
+      </c>
+      <c r="G836" t="s">
+        <v>1</v>
+      </c>
+      <c r="M836" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/Dailies.xlsx
+++ b/Data/Dailies.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD3AABE-69AA-4B3E-952F-65A530F45D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C7827A-AFBA-4AEC-A74C-357E6325857B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5AECCF6F-801D-49D3-972A-947870F3C920}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5448" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5486" uniqueCount="20">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -447,11 +447,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D90D68-022F-4D80-B45F-E8F95C295EA5}">
-  <dimension ref="A1:O836"/>
+  <dimension ref="A1:O843"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A803" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M836" sqref="M836"/>
+      <pane ySplit="1" topLeftCell="A815" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M843" sqref="M843"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20911,7 +20911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="833" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A833" s="1">
         <v>45659</v>
       </c>
@@ -20925,7 +20925,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="834" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A834" s="1">
         <v>45660</v>
       </c>
@@ -20948,7 +20948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="835" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A835" s="1">
         <v>45661</v>
       </c>
@@ -20962,7 +20962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="836" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A836" s="1">
         <v>45662</v>
       </c>
@@ -20979,6 +20979,155 @@
         <v>1</v>
       </c>
       <c r="M836" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="837" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A837" s="1">
+        <v>45663</v>
+      </c>
+      <c r="B837" t="s">
+        <v>12</v>
+      </c>
+      <c r="F837" t="s">
+        <v>12</v>
+      </c>
+      <c r="G837" t="s">
+        <v>1</v>
+      </c>
+      <c r="H837" t="s">
+        <v>13</v>
+      </c>
+      <c r="I837" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="838" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A838" s="1">
+        <v>45664</v>
+      </c>
+      <c r="B838" t="s">
+        <v>12</v>
+      </c>
+      <c r="C838" t="s">
+        <v>1</v>
+      </c>
+      <c r="E838" t="s">
+        <v>1</v>
+      </c>
+      <c r="F838" t="s">
+        <v>1</v>
+      </c>
+      <c r="G838" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="839" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A839" s="1">
+        <v>45665</v>
+      </c>
+      <c r="B839" t="s">
+        <v>12</v>
+      </c>
+      <c r="F839" t="s">
+        <v>12</v>
+      </c>
+      <c r="G839" t="s">
+        <v>1</v>
+      </c>
+      <c r="I839" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="840" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A840" s="1">
+        <v>45666</v>
+      </c>
+      <c r="B840" t="s">
+        <v>12</v>
+      </c>
+      <c r="C840" t="s">
+        <v>1</v>
+      </c>
+      <c r="E840" t="s">
+        <v>1</v>
+      </c>
+      <c r="F840" t="s">
+        <v>1</v>
+      </c>
+      <c r="G840" t="s">
+        <v>1</v>
+      </c>
+      <c r="M840" t="s">
+        <v>1</v>
+      </c>
+      <c r="N840" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="841" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A841" s="1">
+        <v>45667</v>
+      </c>
+      <c r="B841" t="s">
+        <v>12</v>
+      </c>
+      <c r="F841" t="s">
+        <v>1</v>
+      </c>
+      <c r="G841" t="s">
+        <v>1</v>
+      </c>
+      <c r="N841" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="842" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A842" s="1">
+        <v>45668</v>
+      </c>
+      <c r="B842" t="s">
+        <v>12</v>
+      </c>
+      <c r="C842" t="s">
+        <v>1</v>
+      </c>
+      <c r="F842" t="s">
+        <v>12</v>
+      </c>
+      <c r="G842" t="s">
+        <v>1</v>
+      </c>
+      <c r="I842" t="s">
+        <v>1</v>
+      </c>
+      <c r="M842" t="s">
+        <v>1</v>
+      </c>
+      <c r="N842" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="843" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A843" s="1">
+        <v>45669</v>
+      </c>
+      <c r="B843" t="s">
+        <v>12</v>
+      </c>
+      <c r="E843" t="s">
+        <v>1</v>
+      </c>
+      <c r="G843" t="s">
+        <v>1</v>
+      </c>
+      <c r="H843" t="s">
+        <v>13</v>
+      </c>
+      <c r="M843" t="s">
+        <v>1</v>
+      </c>
+      <c r="N843" t="s">
         <v>1</v>
       </c>
     </row>

--- a/Data/Dailies.xlsx
+++ b/Data/Dailies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C7827A-AFBA-4AEC-A74C-357E6325857B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B31945-4E8D-41CB-A01E-654DC204D816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5AECCF6F-801D-49D3-972A-947870F3C920}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5486" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5523" uniqueCount="20">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -447,11 +447,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D90D68-022F-4D80-B45F-E8F95C295EA5}">
-  <dimension ref="A1:O843"/>
+  <dimension ref="A1:O850"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A815" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M843" sqref="M843"/>
+      <pane ySplit="1" topLeftCell="A827" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N849" sqref="N849"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21131,6 +21131,152 @@
         <v>1</v>
       </c>
     </row>
+    <row r="844" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A844" s="1">
+        <v>45670</v>
+      </c>
+      <c r="B844" t="s">
+        <v>12</v>
+      </c>
+      <c r="C844" t="s">
+        <v>1</v>
+      </c>
+      <c r="E844" t="s">
+        <v>1</v>
+      </c>
+      <c r="F844" t="s">
+        <v>1</v>
+      </c>
+      <c r="G844" t="s">
+        <v>1</v>
+      </c>
+      <c r="H844" t="s">
+        <v>13</v>
+      </c>
+      <c r="M844" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="845" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A845" s="1">
+        <v>45671</v>
+      </c>
+      <c r="B845" t="s">
+        <v>12</v>
+      </c>
+      <c r="C845" t="s">
+        <v>1</v>
+      </c>
+      <c r="D845" t="s">
+        <v>1</v>
+      </c>
+      <c r="E845" t="s">
+        <v>1</v>
+      </c>
+      <c r="F845" t="s">
+        <v>1</v>
+      </c>
+      <c r="G845" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="846" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A846" s="1">
+        <v>45672</v>
+      </c>
+      <c r="B846" t="s">
+        <v>12</v>
+      </c>
+      <c r="D846" t="s">
+        <v>1</v>
+      </c>
+      <c r="F846" t="s">
+        <v>1</v>
+      </c>
+      <c r="G846" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="847" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A847" s="1">
+        <v>45673</v>
+      </c>
+      <c r="B847" t="s">
+        <v>12</v>
+      </c>
+      <c r="C847" t="s">
+        <v>1</v>
+      </c>
+      <c r="E847" t="s">
+        <v>1</v>
+      </c>
+      <c r="F847" t="s">
+        <v>1</v>
+      </c>
+      <c r="G847" t="s">
+        <v>1</v>
+      </c>
+      <c r="H847" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="848" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A848" s="1">
+        <v>45674</v>
+      </c>
+      <c r="B848" t="s">
+        <v>12</v>
+      </c>
+      <c r="D848" t="s">
+        <v>1</v>
+      </c>
+      <c r="E848" t="s">
+        <v>1</v>
+      </c>
+      <c r="F848" t="s">
+        <v>1</v>
+      </c>
+      <c r="G848" t="s">
+        <v>1</v>
+      </c>
+      <c r="N848" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="849" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A849" s="1">
+        <v>45675</v>
+      </c>
+      <c r="C849" t="s">
+        <v>1</v>
+      </c>
+      <c r="G849" t="s">
+        <v>1</v>
+      </c>
+      <c r="M849" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="850" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A850" s="1">
+        <v>45676</v>
+      </c>
+      <c r="B850" t="s">
+        <v>13</v>
+      </c>
+      <c r="F850" t="s">
+        <v>1</v>
+      </c>
+      <c r="G850" t="s">
+        <v>1</v>
+      </c>
+      <c r="H850" t="s">
+        <v>13</v>
+      </c>
+      <c r="I850" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/Dailies.xlsx
+++ b/Data/Dailies.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582B0AC3-1D28-4C35-893C-59475891AB9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DDE422-E148-4FE3-AE42-AF0E006284FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5597" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5641" uniqueCount="20">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -316,11 +316,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O864"/>
+  <dimension ref="A1:O871"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A839" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O858" sqref="O858"/>
+      <pane ySplit="1" topLeftCell="A842" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y854" sqref="Y854"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21438,6 +21438,173 @@
         <v>15</v>
       </c>
     </row>
+    <row r="865" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A865" s="1">
+        <v>45691</v>
+      </c>
+      <c r="B865" t="s">
+        <v>16</v>
+      </c>
+      <c r="C865" t="s">
+        <v>15</v>
+      </c>
+      <c r="D865" t="s">
+        <v>15</v>
+      </c>
+      <c r="E865" t="s">
+        <v>15</v>
+      </c>
+      <c r="F865" t="s">
+        <v>15</v>
+      </c>
+      <c r="G865" t="s">
+        <v>15</v>
+      </c>
+      <c r="M865" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="866" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A866" s="1">
+        <v>45692</v>
+      </c>
+      <c r="B866" t="s">
+        <v>16</v>
+      </c>
+      <c r="C866" t="s">
+        <v>15</v>
+      </c>
+      <c r="D866" t="s">
+        <v>15</v>
+      </c>
+      <c r="E866" t="s">
+        <v>15</v>
+      </c>
+      <c r="F866" t="s">
+        <v>16</v>
+      </c>
+      <c r="G866" t="s">
+        <v>15</v>
+      </c>
+      <c r="I866" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="867" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A867" s="1">
+        <v>45693</v>
+      </c>
+      <c r="B867" t="s">
+        <v>16</v>
+      </c>
+      <c r="C867" t="s">
+        <v>15</v>
+      </c>
+      <c r="D867" t="s">
+        <v>15</v>
+      </c>
+      <c r="E867" t="s">
+        <v>15</v>
+      </c>
+      <c r="F867" t="s">
+        <v>15</v>
+      </c>
+      <c r="G867" t="s">
+        <v>15</v>
+      </c>
+      <c r="M867" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="868" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A868" s="1">
+        <v>45694</v>
+      </c>
+      <c r="B868" t="s">
+        <v>16</v>
+      </c>
+      <c r="C868" t="s">
+        <v>15</v>
+      </c>
+      <c r="D868" t="s">
+        <v>15</v>
+      </c>
+      <c r="E868" t="s">
+        <v>15</v>
+      </c>
+      <c r="F868" t="s">
+        <v>16</v>
+      </c>
+      <c r="G868" t="s">
+        <v>15</v>
+      </c>
+      <c r="H868" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="869" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A869" s="1">
+        <v>45695</v>
+      </c>
+      <c r="B869" t="s">
+        <v>16</v>
+      </c>
+      <c r="C869" t="s">
+        <v>15</v>
+      </c>
+      <c r="E869" t="s">
+        <v>15</v>
+      </c>
+      <c r="F869" t="s">
+        <v>15</v>
+      </c>
+      <c r="G869" t="s">
+        <v>15</v>
+      </c>
+      <c r="I869" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="870" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A870" s="1">
+        <v>45696</v>
+      </c>
+      <c r="B870" t="s">
+        <v>17</v>
+      </c>
+      <c r="G870" t="s">
+        <v>15</v>
+      </c>
+      <c r="M870" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="871" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A871" s="1">
+        <v>45697</v>
+      </c>
+      <c r="B871" t="s">
+        <v>17</v>
+      </c>
+      <c r="C871" t="s">
+        <v>15</v>
+      </c>
+      <c r="F871" t="s">
+        <v>15</v>
+      </c>
+      <c r="G871" t="s">
+        <v>15</v>
+      </c>
+      <c r="H871" t="s">
+        <v>17</v>
+      </c>
+      <c r="I871" t="s">
+        <v>15</v>
+      </c>
+      <c r="M871" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Data/Dailies.xlsx
+++ b/Data/Dailies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Coding Projects\Dalies\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DDE422-E148-4FE3-AE42-AF0E006284FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8BB9B1-2C23-428B-947B-D1973BE568BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5641" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5685" uniqueCount="20">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -316,11 +316,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O871"/>
+  <dimension ref="A1:O878"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A842" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y854" sqref="Y854"/>
+      <pane ySplit="1" topLeftCell="A847" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O872" sqref="O872"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21605,6 +21605,173 @@
         <v>15</v>
       </c>
     </row>
+    <row r="872" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A872" s="1">
+        <v>45698</v>
+      </c>
+      <c r="B872" t="s">
+        <v>16</v>
+      </c>
+      <c r="C872" t="s">
+        <v>15</v>
+      </c>
+      <c r="D872" t="s">
+        <v>15</v>
+      </c>
+      <c r="E872" t="s">
+        <v>15</v>
+      </c>
+      <c r="F872" t="s">
+        <v>15</v>
+      </c>
+      <c r="G872" t="s">
+        <v>15</v>
+      </c>
+      <c r="M872" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="873" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A873" s="1">
+        <v>45699</v>
+      </c>
+      <c r="B873" t="s">
+        <v>16</v>
+      </c>
+      <c r="C873" t="s">
+        <v>15</v>
+      </c>
+      <c r="E873" t="s">
+        <v>15</v>
+      </c>
+      <c r="F873" t="s">
+        <v>15</v>
+      </c>
+      <c r="G873" t="s">
+        <v>15</v>
+      </c>
+      <c r="H873" t="s">
+        <v>17</v>
+      </c>
+      <c r="I873" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="874" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A874" s="1">
+        <v>45700</v>
+      </c>
+      <c r="B874" t="s">
+        <v>16</v>
+      </c>
+      <c r="C874" t="s">
+        <v>15</v>
+      </c>
+      <c r="D874" t="s">
+        <v>15</v>
+      </c>
+      <c r="E874" t="s">
+        <v>15</v>
+      </c>
+      <c r="F874" t="s">
+        <v>15</v>
+      </c>
+      <c r="G874" t="s">
+        <v>15</v>
+      </c>
+      <c r="H874" t="s">
+        <v>17</v>
+      </c>
+      <c r="M874" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="875" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A875" s="1">
+        <v>45701</v>
+      </c>
+      <c r="B875" t="s">
+        <v>16</v>
+      </c>
+      <c r="C875" t="s">
+        <v>15</v>
+      </c>
+      <c r="D875" t="s">
+        <v>15</v>
+      </c>
+      <c r="E875" t="s">
+        <v>15</v>
+      </c>
+      <c r="F875" t="s">
+        <v>15</v>
+      </c>
+      <c r="G875" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="876" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A876" s="1">
+        <v>45702</v>
+      </c>
+      <c r="B876" t="s">
+        <v>16</v>
+      </c>
+      <c r="C876" t="s">
+        <v>15</v>
+      </c>
+      <c r="E876" t="s">
+        <v>15</v>
+      </c>
+      <c r="F876" t="s">
+        <v>15</v>
+      </c>
+      <c r="G876" t="s">
+        <v>15</v>
+      </c>
+      <c r="I876" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="877" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A877" s="1">
+        <v>45703</v>
+      </c>
+      <c r="B877" t="s">
+        <v>17</v>
+      </c>
+      <c r="G877" t="s">
+        <v>15</v>
+      </c>
+      <c r="H877" t="s">
+        <v>17</v>
+      </c>
+      <c r="M877" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="878" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A878" s="1">
+        <v>45704</v>
+      </c>
+      <c r="B878" t="s">
+        <v>16</v>
+      </c>
+      <c r="C878" t="s">
+        <v>15</v>
+      </c>
+      <c r="F878" t="s">
+        <v>16</v>
+      </c>
+      <c r="G878" t="s">
+        <v>15</v>
+      </c>
+      <c r="I878" t="s">
+        <v>15</v>
+      </c>
+      <c r="M878" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
